--- a/tables.xlsx
+++ b/tables.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chelsea/Documents/Microsoft/領袖營/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\MSSeed13Camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23100" windowHeight="15460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="23100" windowHeight="15465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
     <sheet name="account" sheetId="2" r:id="rId2"/>
+    <sheet name="resource" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="401">
   <si>
     <t>簡嘉誼</t>
   </si>
@@ -1130,15 +1131,126 @@
   <si>
     <t>(自訂)</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>magic_powder</t>
+  </si>
+  <si>
+    <t>cloth</t>
+  </si>
+  <si>
+    <t>ruby</t>
+  </si>
+  <si>
+    <t>shaft</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>flax</t>
+  </si>
+  <si>
+    <t>screw</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>electron</t>
+  </si>
+  <si>
+    <t>ergonomic</t>
+  </si>
+  <si>
+    <t>imagine</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>magic_stone</t>
+  </si>
+  <si>
+    <t>control_panel</t>
+  </si>
+  <si>
+    <t>seat</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>rope</t>
+  </si>
+  <si>
+    <t>cypress</t>
+  </si>
+  <si>
+    <t>propeller</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>jet</t>
+  </si>
+  <si>
+    <t>gun</t>
+  </si>
+  <si>
+    <t>elk</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>sd_card</t>
+  </si>
+  <si>
+    <t>missile</t>
+  </si>
+  <si>
+    <t>miss_air</t>
+  </si>
+  <si>
+    <t>led_light</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1298,8 +1410,33 @@
       <name val="細明體"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.2"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1312,8 +1449,32 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4CAF50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1674,11 +1835,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1906,6 +2107,34 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1995,6 +2224,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3081,19 +3313,19 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="88" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="88" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="59.83203125" style="1" customWidth="1"/>
-    <col min="9" max="254" width="8.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="59.85546875" style="1" customWidth="1"/>
+    <col min="9" max="254" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="88" t="s">
         <v>361</v>
       </c>
@@ -3116,7 +3348,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="88">
         <v>1</v>
       </c>
@@ -3139,7 +3371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="88">
         <v>2</v>
       </c>
@@ -3162,7 +3394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="88">
         <v>3</v>
       </c>
@@ -3185,7 +3417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="88">
         <v>4</v>
       </c>
@@ -3208,7 +3440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="88">
         <v>5</v>
       </c>
@@ -3231,7 +3463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="88">
         <v>6</v>
       </c>
@@ -3254,7 +3486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="88">
         <v>7</v>
       </c>
@@ -3277,7 +3509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="88">
         <v>8</v>
       </c>
@@ -3300,7 +3532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="88">
         <v>9</v>
       </c>
@@ -3323,7 +3555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="88">
         <v>10</v>
       </c>
@@ -3346,7 +3578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="88">
         <v>11</v>
       </c>
@@ -3369,7 +3601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="88">
         <v>12</v>
       </c>
@@ -3392,7 +3624,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="88">
         <v>13</v>
       </c>
@@ -3415,7 +3647,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="88">
         <v>14</v>
       </c>
@@ -3438,7 +3670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="88">
         <v>15</v>
       </c>
@@ -3461,7 +3693,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="88">
         <v>16</v>
       </c>
@@ -3484,7 +3716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="88">
         <v>17</v>
       </c>
@@ -3507,7 +3739,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="88">
         <v>18</v>
       </c>
@@ -3530,7 +3762,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="88">
         <v>19</v>
       </c>
@@ -3553,7 +3785,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="88">
         <v>20</v>
       </c>
@@ -3576,7 +3808,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="88">
         <v>21</v>
       </c>
@@ -3599,7 +3831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="88">
         <v>22</v>
       </c>
@@ -3620,7 +3852,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="88">
         <v>23</v>
       </c>
@@ -3643,7 +3875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="88">
         <v>24</v>
       </c>
@@ -3666,7 +3898,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="88">
         <v>25</v>
       </c>
@@ -3689,7 +3921,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="88">
         <v>26</v>
       </c>
@@ -3712,7 +3944,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="88">
         <v>27</v>
       </c>
@@ -3735,7 +3967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="88">
         <v>28</v>
       </c>
@@ -3758,7 +3990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="88">
         <v>29</v>
       </c>
@@ -3781,7 +4013,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="88">
         <v>30</v>
       </c>
@@ -3804,7 +4036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="88">
         <v>31</v>
       </c>
@@ -3827,7 +4059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="88">
         <v>32</v>
       </c>
@@ -3850,7 +4082,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="88">
         <v>33</v>
       </c>
@@ -3873,7 +4105,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="88">
         <v>34</v>
       </c>
@@ -3896,7 +4128,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="88">
         <v>35</v>
       </c>
@@ -3919,7 +4151,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="88">
         <v>36</v>
       </c>
@@ -3942,7 +4174,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="88">
         <v>37</v>
       </c>
@@ -3965,7 +4197,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="88">
         <v>38</v>
       </c>
@@ -3988,7 +4220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="88">
         <v>39</v>
       </c>
@@ -4011,7 +4243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="88">
         <v>40</v>
       </c>
@@ -4034,7 +4266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="88">
         <v>41</v>
       </c>
@@ -4057,7 +4289,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="88">
         <v>42</v>
       </c>
@@ -4080,7 +4312,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="88">
         <v>43</v>
       </c>
@@ -4103,7 +4335,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="88">
         <v>44</v>
       </c>
@@ -4126,7 +4358,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="88">
         <v>45</v>
       </c>
@@ -4149,7 +4381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="88">
         <v>46</v>
       </c>
@@ -4172,7 +4404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="88">
         <v>47</v>
       </c>
@@ -4195,7 +4427,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="88">
         <v>48</v>
       </c>
@@ -4218,7 +4450,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="88">
         <v>49</v>
       </c>
@@ -4241,7 +4473,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="88">
         <v>50</v>
       </c>
@@ -4264,7 +4496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="88">
         <v>51</v>
       </c>
@@ -4287,7 +4519,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="88">
         <v>52</v>
       </c>
@@ -4310,7 +4542,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="88">
         <v>53</v>
       </c>
@@ -4333,7 +4565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="88">
         <v>54</v>
       </c>
@@ -4356,7 +4588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="88">
         <v>55</v>
       </c>
@@ -4379,7 +4611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="88">
         <v>56</v>
       </c>
@@ -4402,7 +4634,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="88">
         <v>57</v>
       </c>
@@ -4425,7 +4657,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="88">
         <v>58</v>
       </c>
@@ -4448,7 +4680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="88">
         <v>59</v>
       </c>
@@ -4471,7 +4703,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="88">
         <v>60</v>
       </c>
@@ -4494,7 +4726,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="88">
         <v>61</v>
       </c>
@@ -4517,7 +4749,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="88">
         <v>62</v>
       </c>
@@ -4540,7 +4772,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="88">
         <v>63</v>
       </c>
@@ -4563,7 +4795,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="88">
         <v>64</v>
       </c>
@@ -4586,7 +4818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="88">
         <v>65</v>
       </c>
@@ -4609,7 +4841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A67" s="88">
         <v>66</v>
       </c>
@@ -4630,7 +4862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="88">
         <v>67</v>
       </c>
@@ -4653,7 +4885,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="88">
         <v>68</v>
       </c>
@@ -4676,7 +4908,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A70" s="88">
         <v>69</v>
       </c>
@@ -4699,7 +4931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A71" s="88">
         <v>70</v>
       </c>
@@ -4722,7 +4954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A72" s="88">
         <v>71</v>
       </c>
@@ -4745,7 +4977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A73" s="88">
         <v>72</v>
       </c>
@@ -4768,7 +5000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A74" s="88">
         <v>73</v>
       </c>
@@ -4791,7 +5023,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A75" s="88">
         <v>74</v>
       </c>
@@ -4814,7 +5046,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A76" s="88">
         <v>75</v>
       </c>
@@ -4835,7 +5067,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A77" s="88">
         <v>76</v>
       </c>
@@ -4858,7 +5090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A78" s="88">
         <v>77</v>
       </c>
@@ -4881,7 +5113,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A79" s="88">
         <v>78</v>
       </c>
@@ -4904,7 +5136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A80" s="88">
         <v>79</v>
       </c>
@@ -4927,7 +5159,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A81" s="88">
         <v>80</v>
       </c>
@@ -4950,7 +5182,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A82" s="88">
         <v>81</v>
       </c>
@@ -4973,7 +5205,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A83" s="88">
         <v>82</v>
       </c>
@@ -4996,7 +5228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A84" s="88">
         <v>83</v>
       </c>
@@ -5019,7 +5251,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A85" s="88">
         <v>84</v>
       </c>
@@ -5042,7 +5274,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A86" s="88">
         <v>85</v>
       </c>
@@ -5065,7 +5297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A87" s="88">
         <v>86</v>
       </c>
@@ -5088,7 +5320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A88" s="88">
         <v>87</v>
       </c>
@@ -5111,7 +5343,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A89" s="88">
         <v>88</v>
       </c>
@@ -5134,7 +5366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A90" s="88">
         <v>89</v>
       </c>
@@ -5157,7 +5389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A91" s="88">
         <v>90</v>
       </c>
@@ -5180,7 +5412,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A92" s="88">
         <v>91</v>
       </c>
@@ -5203,7 +5435,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A93" s="88">
         <v>92</v>
       </c>
@@ -5226,7 +5458,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A94" s="88">
         <v>93</v>
       </c>
@@ -5249,7 +5481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A95" s="88">
         <v>94</v>
       </c>
@@ -5272,7 +5504,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A96" s="88">
         <v>95</v>
       </c>
@@ -5295,7 +5527,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A97" s="88">
         <v>96</v>
       </c>
@@ -5318,7 +5550,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A98" s="88">
         <v>97</v>
       </c>
@@ -5341,7 +5573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A99" s="88">
         <v>98</v>
       </c>
@@ -5364,7 +5596,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A100" s="88">
         <v>99</v>
       </c>
@@ -5387,7 +5619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A101" s="88">
         <v>100</v>
       </c>
@@ -5410,7 +5642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A102" s="88">
         <v>101</v>
       </c>
@@ -5433,7 +5665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A103" s="88">
         <v>102</v>
       </c>
@@ -5456,7 +5688,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A104" s="88">
         <v>103</v>
       </c>
@@ -5479,7 +5711,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A105" s="88">
         <v>104</v>
       </c>
@@ -5520,17 +5752,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="88"/>
-    <col min="2" max="2" width="59.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="88"/>
+    <col min="2" max="2" width="59.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="88" t="s">
         <v>348</v>
       </c>
@@ -5541,7 +5773,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="17.25">
       <c r="A2" s="88">
         <v>1</v>
       </c>
@@ -5552,7 +5784,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="17.25">
       <c r="A3" s="88">
         <v>2</v>
       </c>
@@ -5560,7 +5792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17.25">
       <c r="A4" s="88">
         <v>3</v>
       </c>
@@ -5568,7 +5800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="17.25">
       <c r="A5" s="88">
         <v>4</v>
       </c>
@@ -5576,7 +5808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="17.25">
       <c r="A6" s="88">
         <v>5</v>
       </c>
@@ -5584,7 +5816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17.25">
       <c r="A7" s="88">
         <v>6</v>
       </c>
@@ -5592,7 +5824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="17.25">
       <c r="A8" s="88">
         <v>7</v>
       </c>
@@ -5600,7 +5832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="17.25">
       <c r="A9" s="88">
         <v>8</v>
       </c>
@@ -5608,7 +5840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="17.25">
       <c r="A10" s="88">
         <v>9</v>
       </c>
@@ -5616,7 +5848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="17.25">
       <c r="A11" s="88">
         <v>10</v>
       </c>
@@ -5624,7 +5856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="17.25">
       <c r="A12" s="88">
         <v>11</v>
       </c>
@@ -5632,7 +5864,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="17.25">
       <c r="A13" s="88">
         <v>12</v>
       </c>
@@ -5640,7 +5872,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="17.25">
       <c r="A14" s="88">
         <v>13</v>
       </c>
@@ -5648,7 +5880,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="17.25">
       <c r="A15" s="88">
         <v>14</v>
       </c>
@@ -5656,7 +5888,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17.25">
       <c r="A16" s="88">
         <v>15</v>
       </c>
@@ -5664,7 +5896,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="17.25">
       <c r="A17" s="88">
         <v>16</v>
       </c>
@@ -5672,7 +5904,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="17.25">
       <c r="A18" s="88">
         <v>17</v>
       </c>
@@ -5680,7 +5912,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="17.25">
       <c r="A19" s="88">
         <v>18</v>
       </c>
@@ -5688,7 +5920,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="17.25">
       <c r="A20" s="88">
         <v>19</v>
       </c>
@@ -5696,7 +5928,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="17.25">
       <c r="A21" s="88">
         <v>20</v>
       </c>
@@ -5704,7 +5936,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="17.25">
       <c r="A22" s="88">
         <v>21</v>
       </c>
@@ -5712,7 +5944,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="17.25">
       <c r="A23" s="88">
         <v>22</v>
       </c>
@@ -5720,7 +5952,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="17.25">
       <c r="A24" s="88">
         <v>23</v>
       </c>
@@ -5728,7 +5960,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="17.25">
       <c r="A25" s="88">
         <v>24</v>
       </c>
@@ -5736,7 +5968,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="17.25">
       <c r="A26" s="88">
         <v>25</v>
       </c>
@@ -5744,7 +5976,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="17.25">
       <c r="A27" s="88">
         <v>26</v>
       </c>
@@ -5752,7 +5984,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="17.25">
       <c r="A28" s="88">
         <v>27</v>
       </c>
@@ -5760,7 +5992,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="17.25">
       <c r="A29" s="88">
         <v>28</v>
       </c>
@@ -5768,7 +6000,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="17.25">
       <c r="A30" s="88">
         <v>29</v>
       </c>
@@ -5776,7 +6008,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="17.25">
       <c r="A31" s="88">
         <v>30</v>
       </c>
@@ -5784,7 +6016,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="17.25">
       <c r="A32" s="88">
         <v>31</v>
       </c>
@@ -5792,7 +6024,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="17.25">
       <c r="A33" s="88">
         <v>32</v>
       </c>
@@ -5800,7 +6032,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="17.25">
       <c r="A34" s="88">
         <v>33</v>
       </c>
@@ -5808,7 +6040,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="17.25">
       <c r="A35" s="88">
         <v>34</v>
       </c>
@@ -5816,7 +6048,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="17.25">
       <c r="A36" s="88">
         <v>35</v>
       </c>
@@ -5824,7 +6056,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="17.25">
       <c r="A37" s="88">
         <v>36</v>
       </c>
@@ -5832,7 +6064,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="17.25">
       <c r="A38" s="88">
         <v>37</v>
       </c>
@@ -5840,7 +6072,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="17.25">
       <c r="A39" s="88">
         <v>38</v>
       </c>
@@ -5848,7 +6080,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="17.25">
       <c r="A40" s="88">
         <v>39</v>
       </c>
@@ -5856,7 +6088,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="17.25">
       <c r="A41" s="88">
         <v>40</v>
       </c>
@@ -5864,7 +6096,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="17.25">
       <c r="A42" s="88">
         <v>41</v>
       </c>
@@ -5872,7 +6104,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="17.25">
       <c r="A43" s="88">
         <v>42</v>
       </c>
@@ -5880,7 +6112,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="17.25">
       <c r="A44" s="88">
         <v>43</v>
       </c>
@@ -5888,7 +6120,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="17.25">
       <c r="A45" s="88">
         <v>44</v>
       </c>
@@ -5896,7 +6128,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="17.25">
       <c r="A46" s="88">
         <v>45</v>
       </c>
@@ -5904,7 +6136,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="17.25">
       <c r="A47" s="88">
         <v>46</v>
       </c>
@@ -5912,7 +6144,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="17.25">
       <c r="A48" s="88">
         <v>47</v>
       </c>
@@ -5920,7 +6152,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="17.25">
       <c r="A49" s="88">
         <v>48</v>
       </c>
@@ -5928,7 +6160,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="17.25">
       <c r="A50" s="88">
         <v>49</v>
       </c>
@@ -5936,7 +6168,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="17.25">
       <c r="A51" s="88">
         <v>50</v>
       </c>
@@ -5944,7 +6176,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="17.25">
       <c r="A52" s="88">
         <v>51</v>
       </c>
@@ -5952,7 +6184,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="17.25">
       <c r="A53" s="88">
         <v>52</v>
       </c>
@@ -5960,7 +6192,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="17.25">
       <c r="A54" s="88">
         <v>53</v>
       </c>
@@ -5968,7 +6200,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="17.25">
       <c r="A55" s="88">
         <v>54</v>
       </c>
@@ -5976,7 +6208,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="17.25">
       <c r="A56" s="88">
         <v>55</v>
       </c>
@@ -5984,7 +6216,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="17.25">
       <c r="A57" s="88">
         <v>56</v>
       </c>
@@ -5992,7 +6224,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="17.25">
       <c r="A58" s="88">
         <v>57</v>
       </c>
@@ -6000,7 +6232,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="17.25">
       <c r="A59" s="88">
         <v>58</v>
       </c>
@@ -6008,7 +6240,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="17.25">
       <c r="A60" s="88">
         <v>59</v>
       </c>
@@ -6016,7 +6248,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="17.25">
       <c r="A61" s="88">
         <v>60</v>
       </c>
@@ -6024,7 +6256,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="17.25">
       <c r="A62" s="88">
         <v>61</v>
       </c>
@@ -6032,7 +6264,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="88">
         <v>62</v>
       </c>
@@ -6040,7 +6272,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="17.25">
       <c r="A64" s="88">
         <v>63</v>
       </c>
@@ -6048,7 +6280,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="17.25">
       <c r="A65" s="88">
         <v>64</v>
       </c>
@@ -6056,7 +6288,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="17.25">
       <c r="A66" s="88">
         <v>65</v>
       </c>
@@ -6064,7 +6296,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="17.25">
       <c r="A67" s="88">
         <v>66</v>
       </c>
@@ -6072,7 +6304,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="17.25">
       <c r="A68" s="88">
         <v>67</v>
       </c>
@@ -6080,7 +6312,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="17.25">
       <c r="A69" s="88">
         <v>68</v>
       </c>
@@ -6088,7 +6320,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="17.25">
       <c r="A70" s="88">
         <v>69</v>
       </c>
@@ -6096,7 +6328,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="17.25">
       <c r="A71" s="88">
         <v>70</v>
       </c>
@@ -6104,7 +6336,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="17.25">
       <c r="A72" s="88">
         <v>71</v>
       </c>
@@ -6112,7 +6344,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="17.25">
       <c r="A73" s="88">
         <v>72</v>
       </c>
@@ -6120,7 +6352,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="17.25">
       <c r="A74" s="88">
         <v>73</v>
       </c>
@@ -6128,7 +6360,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="17.25">
       <c r="A75" s="88">
         <v>74</v>
       </c>
@@ -6136,13 +6368,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="17.25">
       <c r="A76" s="88">
         <v>75</v>
       </c>
       <c r="B76" s="29"/>
     </row>
-    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="17.25">
       <c r="A77" s="88">
         <v>76</v>
       </c>
@@ -6150,7 +6382,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="17.25">
       <c r="A78" s="88">
         <v>77</v>
       </c>
@@ -6158,7 +6390,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="17.25">
       <c r="A79" s="88">
         <v>78</v>
       </c>
@@ -6166,7 +6398,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="17.25">
       <c r="A80" s="88">
         <v>79</v>
       </c>
@@ -6174,7 +6406,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="17.25">
       <c r="A81" s="88">
         <v>80</v>
       </c>
@@ -6182,7 +6414,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="17.25">
       <c r="A82" s="88">
         <v>81</v>
       </c>
@@ -6190,7 +6422,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="17.25">
       <c r="A83" s="88">
         <v>82</v>
       </c>
@@ -6198,7 +6430,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="17.25">
       <c r="A84" s="88">
         <v>83</v>
       </c>
@@ -6206,7 +6438,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="17.25">
       <c r="A85" s="88">
         <v>84</v>
       </c>
@@ -6214,7 +6446,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="17.25">
       <c r="A86" s="88">
         <v>85</v>
       </c>
@@ -6222,7 +6454,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="17.25">
       <c r="A87" s="88">
         <v>86</v>
       </c>
@@ -6230,7 +6462,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="17.25">
       <c r="A88" s="88">
         <v>87</v>
       </c>
@@ -6238,7 +6470,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="17.25">
       <c r="A89" s="88">
         <v>88</v>
       </c>
@@ -6246,7 +6478,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="17.25">
       <c r="A90" s="88">
         <v>89</v>
       </c>
@@ -6254,7 +6486,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="17.25">
       <c r="A91" s="88">
         <v>90</v>
       </c>
@@ -6262,7 +6494,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="17.25">
       <c r="A92" s="88">
         <v>91</v>
       </c>
@@ -6270,7 +6502,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="17.25">
       <c r="A93" s="88">
         <v>92</v>
       </c>
@@ -6278,7 +6510,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="17.25">
       <c r="A94" s="88">
         <v>93</v>
       </c>
@@ -6286,7 +6518,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="17.25">
       <c r="A95" s="88">
         <v>94</v>
       </c>
@@ -6294,7 +6526,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="17.25">
       <c r="A96" s="88">
         <v>95</v>
       </c>
@@ -6302,7 +6534,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" ht="17.25">
       <c r="A97" s="88">
         <v>96</v>
       </c>
@@ -6310,7 +6542,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="17.25">
       <c r="A98" s="88">
         <v>97</v>
       </c>
@@ -6318,7 +6550,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="17.25">
       <c r="A99" s="88">
         <v>98</v>
       </c>
@@ -6326,7 +6558,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="17.25">
       <c r="A100" s="88">
         <v>99</v>
       </c>
@@ -6334,7 +6566,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" ht="17.25">
       <c r="A101" s="88">
         <v>100</v>
       </c>
@@ -6342,7 +6574,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" ht="17.25">
       <c r="A102" s="88">
         <v>101</v>
       </c>
@@ -6350,7 +6582,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" ht="17.25">
       <c r="A103" s="88">
         <v>102</v>
       </c>
@@ -6358,7 +6590,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" ht="17.25">
       <c r="A104" s="88">
         <v>103</v>
       </c>
@@ -6366,7 +6598,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" ht="17.25">
       <c r="A105" s="88">
         <v>104</v>
       </c>
@@ -6380,4 +6612,558 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="24.75">
+      <c r="A1" s="91" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="97" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" s="96" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" s="97" t="s">
+        <v>372</v>
+      </c>
+      <c r="F1" s="96" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1" s="97" t="s">
+        <v>374</v>
+      </c>
+      <c r="H1" s="96" t="s">
+        <v>375</v>
+      </c>
+      <c r="I1" s="97" t="s">
+        <v>376</v>
+      </c>
+      <c r="J1" s="96" t="s">
+        <v>377</v>
+      </c>
+      <c r="K1" s="97" t="s">
+        <v>378</v>
+      </c>
+      <c r="L1" s="96" t="s">
+        <v>379</v>
+      </c>
+      <c r="M1" s="97" t="s">
+        <v>380</v>
+      </c>
+      <c r="N1" s="96" t="s">
+        <v>381</v>
+      </c>
+      <c r="O1" s="97" t="s">
+        <v>382</v>
+      </c>
+      <c r="P1" s="96" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q1" s="97" t="s">
+        <v>384</v>
+      </c>
+      <c r="R1" s="96" t="s">
+        <v>385</v>
+      </c>
+      <c r="S1" s="97" t="s">
+        <v>386</v>
+      </c>
+      <c r="T1" s="96" t="s">
+        <v>387</v>
+      </c>
+      <c r="U1" s="97" t="s">
+        <v>388</v>
+      </c>
+      <c r="V1" s="96" t="s">
+        <v>389</v>
+      </c>
+      <c r="W1" s="97" t="s">
+        <v>390</v>
+      </c>
+      <c r="X1" s="96" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y1" s="97" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z1" s="96" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA1" s="97" t="s">
+        <v>394</v>
+      </c>
+      <c r="AB1" s="96" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC1" s="97" t="s">
+        <v>396</v>
+      </c>
+      <c r="AD1" s="96" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE1" s="97" t="s">
+        <v>398</v>
+      </c>
+      <c r="AF1" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG1" s="98" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="16.5">
+      <c r="A2" s="92" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" s="89">
+        <v>10</v>
+      </c>
+      <c r="C2" s="89">
+        <v>7</v>
+      </c>
+      <c r="D2" s="89">
+        <v>0</v>
+      </c>
+      <c r="E2" s="89">
+        <v>0</v>
+      </c>
+      <c r="F2" s="89">
+        <v>0</v>
+      </c>
+      <c r="G2" s="89">
+        <v>0</v>
+      </c>
+      <c r="H2" s="89">
+        <v>0</v>
+      </c>
+      <c r="I2" s="89">
+        <v>0</v>
+      </c>
+      <c r="J2" s="89">
+        <v>0</v>
+      </c>
+      <c r="K2" s="89">
+        <v>0</v>
+      </c>
+      <c r="L2" s="89">
+        <v>0</v>
+      </c>
+      <c r="M2" s="89">
+        <v>0</v>
+      </c>
+      <c r="N2" s="89">
+        <v>0</v>
+      </c>
+      <c r="O2" s="89">
+        <v>0</v>
+      </c>
+      <c r="P2" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="89">
+        <v>0</v>
+      </c>
+      <c r="R2" s="89">
+        <v>0</v>
+      </c>
+      <c r="S2" s="89">
+        <v>0</v>
+      </c>
+      <c r="T2" s="89">
+        <v>0</v>
+      </c>
+      <c r="U2" s="89">
+        <v>0</v>
+      </c>
+      <c r="V2" s="89">
+        <v>0</v>
+      </c>
+      <c r="W2" s="89">
+        <v>0</v>
+      </c>
+      <c r="X2" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="89">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="89">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="89">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="89">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="89">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="16.5">
+      <c r="A3" s="93" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" s="90">
+        <v>0</v>
+      </c>
+      <c r="C3" s="90">
+        <v>0</v>
+      </c>
+      <c r="D3" s="90">
+        <v>0</v>
+      </c>
+      <c r="E3" s="90">
+        <v>0</v>
+      </c>
+      <c r="F3" s="90">
+        <v>0</v>
+      </c>
+      <c r="G3" s="90">
+        <v>0</v>
+      </c>
+      <c r="H3" s="90">
+        <v>0</v>
+      </c>
+      <c r="I3" s="90">
+        <v>0</v>
+      </c>
+      <c r="J3" s="90">
+        <v>0</v>
+      </c>
+      <c r="K3" s="90">
+        <v>0</v>
+      </c>
+      <c r="L3" s="90">
+        <v>0</v>
+      </c>
+      <c r="M3" s="90">
+        <v>0</v>
+      </c>
+      <c r="N3" s="90">
+        <v>0</v>
+      </c>
+      <c r="O3" s="90">
+        <v>0</v>
+      </c>
+      <c r="P3" s="90">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="90">
+        <v>0</v>
+      </c>
+      <c r="R3" s="90">
+        <v>0</v>
+      </c>
+      <c r="S3" s="90">
+        <v>0</v>
+      </c>
+      <c r="T3" s="90">
+        <v>0</v>
+      </c>
+      <c r="U3" s="90">
+        <v>0</v>
+      </c>
+      <c r="V3" s="90">
+        <v>0</v>
+      </c>
+      <c r="W3" s="90">
+        <v>0</v>
+      </c>
+      <c r="X3" s="90">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="90">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="90">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="90">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="90">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="90">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="90">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="90">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="90">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="16.5">
+      <c r="A4" s="92" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="89">
+        <v>0</v>
+      </c>
+      <c r="C4" s="89">
+        <v>0</v>
+      </c>
+      <c r="D4" s="89">
+        <v>0</v>
+      </c>
+      <c r="E4" s="89">
+        <v>0</v>
+      </c>
+      <c r="F4" s="89">
+        <v>0</v>
+      </c>
+      <c r="G4" s="89">
+        <v>0</v>
+      </c>
+      <c r="H4" s="89">
+        <v>0</v>
+      </c>
+      <c r="I4" s="89">
+        <v>0</v>
+      </c>
+      <c r="J4" s="89">
+        <v>0</v>
+      </c>
+      <c r="K4" s="89">
+        <v>0</v>
+      </c>
+      <c r="L4" s="89">
+        <v>0</v>
+      </c>
+      <c r="M4" s="89">
+        <v>0</v>
+      </c>
+      <c r="N4" s="89">
+        <v>0</v>
+      </c>
+      <c r="O4" s="89">
+        <v>0</v>
+      </c>
+      <c r="P4" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="89">
+        <v>0</v>
+      </c>
+      <c r="R4" s="89">
+        <v>0</v>
+      </c>
+      <c r="S4" s="89">
+        <v>0</v>
+      </c>
+      <c r="T4" s="89">
+        <v>0</v>
+      </c>
+      <c r="U4" s="89">
+        <v>0</v>
+      </c>
+      <c r="V4" s="89">
+        <v>0</v>
+      </c>
+      <c r="W4" s="89">
+        <v>0</v>
+      </c>
+      <c r="X4" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="89">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="89">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="89">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="89">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="89">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="16.5">
+      <c r="A5" s="94" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="95">
+        <v>0</v>
+      </c>
+      <c r="C5" s="95">
+        <v>0</v>
+      </c>
+      <c r="D5" s="95">
+        <v>0</v>
+      </c>
+      <c r="E5" s="95">
+        <v>0</v>
+      </c>
+      <c r="F5" s="95">
+        <v>0</v>
+      </c>
+      <c r="G5" s="95">
+        <v>0</v>
+      </c>
+      <c r="H5" s="95">
+        <v>0</v>
+      </c>
+      <c r="I5" s="95">
+        <v>0</v>
+      </c>
+      <c r="J5" s="95">
+        <v>0</v>
+      </c>
+      <c r="K5" s="95">
+        <v>0</v>
+      </c>
+      <c r="L5" s="95">
+        <v>0</v>
+      </c>
+      <c r="M5" s="95">
+        <v>0</v>
+      </c>
+      <c r="N5" s="95">
+        <v>0</v>
+      </c>
+      <c r="O5" s="95">
+        <v>0</v>
+      </c>
+      <c r="P5" s="95">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="95">
+        <v>0</v>
+      </c>
+      <c r="R5" s="95">
+        <v>0</v>
+      </c>
+      <c r="S5" s="95">
+        <v>0</v>
+      </c>
+      <c r="T5" s="95">
+        <v>0</v>
+      </c>
+      <c r="U5" s="95">
+        <v>0</v>
+      </c>
+      <c r="V5" s="95">
+        <v>0</v>
+      </c>
+      <c r="W5" s="95">
+        <v>0</v>
+      </c>
+      <c r="X5" s="95">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="95">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="95">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="95">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="95">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="95">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="95">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="95">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="95">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="95">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tables.xlsx
+++ b/tables.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\MSSeed13Camp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chelsea/Documents/Microsoft/領袖營/MSSeed13Camp/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="23100" windowHeight="15465" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23100" windowHeight="15460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
     <sheet name="account" sheetId="2" r:id="rId2"/>
     <sheet name="resource" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="402">
   <si>
     <t>簡嘉誼</t>
   </si>
@@ -1242,15 +1242,18 @@
   <si>
     <t>led_light</t>
   </si>
+  <si>
+    <t>s_logo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -3313,19 +3316,19 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="88" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="88" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="59.85546875" style="1" customWidth="1"/>
-    <col min="9" max="254" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="59.83203125" style="1" customWidth="1"/>
+    <col min="9" max="254" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="88" t="s">
         <v>361</v>
       </c>
@@ -3348,7 +3351,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="88">
         <v>1</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="88">
         <v>2</v>
       </c>
@@ -3394,7 +3397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>3</v>
       </c>
@@ -3417,7 +3420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="88">
         <v>4</v>
       </c>
@@ -3440,7 +3443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="88">
         <v>5</v>
       </c>
@@ -3463,7 +3466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="88">
         <v>6</v>
       </c>
@@ -3486,7 +3489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="88">
         <v>7</v>
       </c>
@@ -3509,7 +3512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="88">
         <v>8</v>
       </c>
@@ -3532,7 +3535,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="88">
         <v>9</v>
       </c>
@@ -3555,7 +3558,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="88">
         <v>10</v>
       </c>
@@ -3578,7 +3581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="88">
         <v>11</v>
       </c>
@@ -3601,7 +3604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="88">
         <v>12</v>
       </c>
@@ -3624,7 +3627,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="88">
         <v>13</v>
       </c>
@@ -3647,7 +3650,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="88">
         <v>14</v>
       </c>
@@ -3670,7 +3673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="88">
         <v>15</v>
       </c>
@@ -3693,7 +3696,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="88">
         <v>16</v>
       </c>
@@ -3716,7 +3719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="88">
         <v>17</v>
       </c>
@@ -3739,7 +3742,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="88">
         <v>18</v>
       </c>
@@ -3762,7 +3765,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="88">
         <v>19</v>
       </c>
@@ -3785,7 +3788,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="88">
         <v>20</v>
       </c>
@@ -3808,7 +3811,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="88">
         <v>21</v>
       </c>
@@ -3831,7 +3834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="88">
         <v>22</v>
       </c>
@@ -3852,7 +3855,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="88">
         <v>23</v>
       </c>
@@ -3875,7 +3878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="88">
         <v>24</v>
       </c>
@@ -3898,7 +3901,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="88">
         <v>25</v>
       </c>
@@ -3921,7 +3924,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="88">
         <v>26</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="88">
         <v>27</v>
       </c>
@@ -3967,7 +3970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="88">
         <v>28</v>
       </c>
@@ -3990,7 +3993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="88">
         <v>29</v>
       </c>
@@ -4013,7 +4016,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="88">
         <v>30</v>
       </c>
@@ -4036,7 +4039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="88">
         <v>31</v>
       </c>
@@ -4059,7 +4062,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="88">
         <v>32</v>
       </c>
@@ -4082,7 +4085,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="34" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="88">
         <v>33</v>
       </c>
@@ -4105,7 +4108,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="35" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="88">
         <v>34</v>
       </c>
@@ -4128,7 +4131,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="36" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="88">
         <v>35</v>
       </c>
@@ -4151,7 +4154,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="37" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="88">
         <v>36</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="38" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="88">
         <v>37</v>
       </c>
@@ -4197,7 +4200,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="39" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="88">
         <v>38</v>
       </c>
@@ -4220,7 +4223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="40" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="88">
         <v>39</v>
       </c>
@@ -4243,7 +4246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="41" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="88">
         <v>40</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="42" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="88">
         <v>41</v>
       </c>
@@ -4289,7 +4292,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="43" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="88">
         <v>42</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="44" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="88">
         <v>43</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="45" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="88">
         <v>44</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="46" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="88">
         <v>45</v>
       </c>
@@ -4381,7 +4384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="47" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="88">
         <v>46</v>
       </c>
@@ -4404,7 +4407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="48" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="88">
         <v>47</v>
       </c>
@@ -4427,7 +4430,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="49" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="88">
         <v>48</v>
       </c>
@@ -4450,7 +4453,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="50" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="88">
         <v>49</v>
       </c>
@@ -4473,7 +4476,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="51" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="88">
         <v>50</v>
       </c>
@@ -4496,7 +4499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="52" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="88">
         <v>51</v>
       </c>
@@ -4519,7 +4522,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="53" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="88">
         <v>52</v>
       </c>
@@ -4542,7 +4545,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="54" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="88">
         <v>53</v>
       </c>
@@ -4565,7 +4568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="55" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="88">
         <v>54</v>
       </c>
@@ -4588,7 +4591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="56" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="88">
         <v>55</v>
       </c>
@@ -4611,7 +4614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="57" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="88">
         <v>56</v>
       </c>
@@ -4634,7 +4637,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="58" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="88">
         <v>57</v>
       </c>
@@ -4657,7 +4660,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="59" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="88">
         <v>58</v>
       </c>
@@ -4680,7 +4683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="60" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="88">
         <v>59</v>
       </c>
@@ -4703,7 +4706,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="61" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="88">
         <v>60</v>
       </c>
@@ -4726,7 +4729,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="62" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="88">
         <v>61</v>
       </c>
@@ -4749,7 +4752,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="63" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="88">
         <v>62</v>
       </c>
@@ -4772,7 +4775,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="64" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="88">
         <v>63</v>
       </c>
@@ -4795,7 +4798,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="65" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="88">
         <v>64</v>
       </c>
@@ -4818,7 +4821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="66" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="88">
         <v>65</v>
       </c>
@@ -4841,7 +4844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="67" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="88">
         <v>66</v>
       </c>
@@ -4862,7 +4865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="68" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="88">
         <v>67</v>
       </c>
@@ -4885,7 +4888,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="69" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="88">
         <v>68</v>
       </c>
@@ -4908,7 +4911,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="70" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="88">
         <v>69</v>
       </c>
@@ -4931,7 +4934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="71" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="88">
         <v>70</v>
       </c>
@@ -4954,7 +4957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="72" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="88">
         <v>71</v>
       </c>
@@ -4977,7 +4980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="73" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="88">
         <v>72</v>
       </c>
@@ -5000,7 +5003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="74" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="88">
         <v>73</v>
       </c>
@@ -5023,7 +5026,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="75" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="88">
         <v>74</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="76" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="88">
         <v>75</v>
       </c>
@@ -5067,7 +5070,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="77" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="88">
         <v>76</v>
       </c>
@@ -5090,7 +5093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="78" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="88">
         <v>77</v>
       </c>
@@ -5113,7 +5116,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="79" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="88">
         <v>78</v>
       </c>
@@ -5136,7 +5139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="80" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="88">
         <v>79</v>
       </c>
@@ -5159,7 +5162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="81" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="88">
         <v>80</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="82" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="88">
         <v>81</v>
       </c>
@@ -5205,7 +5208,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="83" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="88">
         <v>82</v>
       </c>
@@ -5228,7 +5231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="84" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="88">
         <v>83</v>
       </c>
@@ -5251,7 +5254,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="85" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="88">
         <v>84</v>
       </c>
@@ -5274,7 +5277,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="86" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="88">
         <v>85</v>
       </c>
@@ -5297,7 +5300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="87" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="88">
         <v>86</v>
       </c>
@@ -5320,7 +5323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="88" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="88">
         <v>87</v>
       </c>
@@ -5343,7 +5346,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="89" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="88">
         <v>88</v>
       </c>
@@ -5366,7 +5369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="90" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="88">
         <v>89</v>
       </c>
@@ -5389,7 +5392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="91" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="88">
         <v>90</v>
       </c>
@@ -5412,7 +5415,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="92" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="88">
         <v>91</v>
       </c>
@@ -5435,7 +5438,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="93" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="88">
         <v>92</v>
       </c>
@@ -5458,7 +5461,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="94" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="88">
         <v>93</v>
       </c>
@@ -5481,7 +5484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="95" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="88">
         <v>94</v>
       </c>
@@ -5504,7 +5507,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="96" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="88">
         <v>95</v>
       </c>
@@ -5527,7 +5530,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="97" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="88">
         <v>96</v>
       </c>
@@ -5550,7 +5553,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="98" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="88">
         <v>97</v>
       </c>
@@ -5573,7 +5576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="99" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="88">
         <v>98</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="100" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="88">
         <v>99</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="101" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="88">
         <v>100</v>
       </c>
@@ -5642,7 +5645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="102" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="88">
         <v>101</v>
       </c>
@@ -5665,7 +5668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="103" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="88">
         <v>102</v>
       </c>
@@ -5688,7 +5691,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="104" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="88">
         <v>103</v>
       </c>
@@ -5711,7 +5714,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="105" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="88">
         <v>104</v>
       </c>
@@ -5756,13 +5759,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="88"/>
-    <col min="2" max="2" width="59.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="88"/>
+    <col min="2" max="2" width="59.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="88" t="s">
         <v>348</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="88">
         <v>1</v>
       </c>
@@ -5784,7 +5787,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="88">
         <v>2</v>
       </c>
@@ -5792,7 +5795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.25">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>3</v>
       </c>
@@ -5800,7 +5803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.25">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="88">
         <v>4</v>
       </c>
@@ -5808,7 +5811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.25">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="88">
         <v>5</v>
       </c>
@@ -5816,7 +5819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.25">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="88">
         <v>6</v>
       </c>
@@ -5824,7 +5827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.25">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="88">
         <v>7</v>
       </c>
@@ -5832,7 +5835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.25">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="88">
         <v>8</v>
       </c>
@@ -5840,7 +5843,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.25">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="88">
         <v>9</v>
       </c>
@@ -5848,7 +5851,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.25">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="88">
         <v>10</v>
       </c>
@@ -5856,7 +5859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="88">
         <v>11</v>
       </c>
@@ -5864,7 +5867,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.25">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="88">
         <v>12</v>
       </c>
@@ -5872,7 +5875,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.25">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="88">
         <v>13</v>
       </c>
@@ -5880,7 +5883,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.25">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="88">
         <v>14</v>
       </c>
@@ -5888,7 +5891,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17.25">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="88">
         <v>15</v>
       </c>
@@ -5896,7 +5899,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.25">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="88">
         <v>16</v>
       </c>
@@ -5904,7 +5907,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.25">
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="88">
         <v>17</v>
       </c>
@@ -5912,7 +5915,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.25">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="88">
         <v>18</v>
       </c>
@@ -5920,7 +5923,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.25">
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="88">
         <v>19</v>
       </c>
@@ -5928,7 +5931,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.25">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="88">
         <v>20</v>
       </c>
@@ -5936,7 +5939,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.25">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="88">
         <v>21</v>
       </c>
@@ -5944,7 +5947,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.25">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="88">
         <v>22</v>
       </c>
@@ -5952,7 +5955,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.25">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="88">
         <v>23</v>
       </c>
@@ -5960,7 +5963,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.25">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="88">
         <v>24</v>
       </c>
@@ -5968,7 +5971,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.25">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="88">
         <v>25</v>
       </c>
@@ -5976,7 +5979,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.25">
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="88">
         <v>26</v>
       </c>
@@ -5984,7 +5987,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.25">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="88">
         <v>27</v>
       </c>
@@ -5992,7 +5995,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.25">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="88">
         <v>28</v>
       </c>
@@ -6000,7 +6003,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.25">
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="88">
         <v>29</v>
       </c>
@@ -6008,7 +6011,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.25">
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="88">
         <v>30</v>
       </c>
@@ -6016,7 +6019,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.25">
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="88">
         <v>31</v>
       </c>
@@ -6024,7 +6027,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17.25">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="88">
         <v>32</v>
       </c>
@@ -6032,7 +6035,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17.25">
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="88">
         <v>33</v>
       </c>
@@ -6040,7 +6043,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17.25">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="88">
         <v>34</v>
       </c>
@@ -6048,7 +6051,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17.25">
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="88">
         <v>35</v>
       </c>
@@ -6056,7 +6059,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17.25">
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="88">
         <v>36</v>
       </c>
@@ -6064,7 +6067,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17.25">
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="88">
         <v>37</v>
       </c>
@@ -6072,7 +6075,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17.25">
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="88">
         <v>38</v>
       </c>
@@ -6080,7 +6083,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17.25">
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="88">
         <v>39</v>
       </c>
@@ -6088,7 +6091,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17.25">
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="88">
         <v>40</v>
       </c>
@@ -6096,7 +6099,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17.25">
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="88">
         <v>41</v>
       </c>
@@ -6104,7 +6107,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17.25">
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="88">
         <v>42</v>
       </c>
@@ -6112,7 +6115,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17.25">
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="88">
         <v>43</v>
       </c>
@@ -6120,7 +6123,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17.25">
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="88">
         <v>44</v>
       </c>
@@ -6128,7 +6131,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17.25">
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="88">
         <v>45</v>
       </c>
@@ -6136,7 +6139,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17.25">
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="88">
         <v>46</v>
       </c>
@@ -6144,7 +6147,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17.25">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="88">
         <v>47</v>
       </c>
@@ -6152,7 +6155,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="17.25">
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="88">
         <v>48</v>
       </c>
@@ -6160,7 +6163,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17.25">
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="88">
         <v>49</v>
       </c>
@@ -6168,7 +6171,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="17.25">
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="88">
         <v>50</v>
       </c>
@@ -6176,7 +6179,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="17.25">
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="88">
         <v>51</v>
       </c>
@@ -6184,7 +6187,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="17.25">
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="88">
         <v>52</v>
       </c>
@@ -6192,7 +6195,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17.25">
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="88">
         <v>53</v>
       </c>
@@ -6200,7 +6203,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17.25">
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="88">
         <v>54</v>
       </c>
@@ -6208,7 +6211,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17.25">
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="88">
         <v>55</v>
       </c>
@@ -6216,7 +6219,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17.25">
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="88">
         <v>56</v>
       </c>
@@ -6224,7 +6227,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17.25">
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="88">
         <v>57</v>
       </c>
@@ -6232,7 +6235,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17.25">
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="88">
         <v>58</v>
       </c>
@@ -6240,7 +6243,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="17.25">
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="88">
         <v>59</v>
       </c>
@@ -6248,7 +6251,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="17.25">
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="88">
         <v>60</v>
       </c>
@@ -6256,7 +6259,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17.25">
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="88">
         <v>61</v>
       </c>
@@ -6264,7 +6267,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="88">
         <v>62</v>
       </c>
@@ -6272,7 +6275,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="17.25">
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="88">
         <v>63</v>
       </c>
@@ -6280,7 +6283,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17.25">
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="88">
         <v>64</v>
       </c>
@@ -6288,7 +6291,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17.25">
+    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="88">
         <v>65</v>
       </c>
@@ -6296,7 +6299,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17.25">
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="88">
         <v>66</v>
       </c>
@@ -6304,7 +6307,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17.25">
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="88">
         <v>67</v>
       </c>
@@ -6312,7 +6315,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17.25">
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="88">
         <v>68</v>
       </c>
@@ -6320,7 +6323,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="17.25">
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="88">
         <v>69</v>
       </c>
@@ -6328,7 +6331,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="17.25">
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="88">
         <v>70</v>
       </c>
@@ -6336,7 +6339,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="17.25">
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="88">
         <v>71</v>
       </c>
@@ -6344,7 +6347,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="17.25">
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="88">
         <v>72</v>
       </c>
@@ -6352,7 +6355,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="17.25">
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="88">
         <v>73</v>
       </c>
@@ -6360,7 +6363,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="17.25">
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="88">
         <v>74</v>
       </c>
@@ -6368,13 +6371,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="17.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="88">
         <v>75</v>
       </c>
       <c r="B76" s="29"/>
     </row>
-    <row r="77" spans="1:2" ht="17.25">
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="88">
         <v>76</v>
       </c>
@@ -6382,7 +6385,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="17.25">
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="88">
         <v>77</v>
       </c>
@@ -6390,7 +6393,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="17.25">
+    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="88">
         <v>78</v>
       </c>
@@ -6398,7 +6401,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="17.25">
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="88">
         <v>79</v>
       </c>
@@ -6406,7 +6409,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="17.25">
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="88">
         <v>80</v>
       </c>
@@ -6414,7 +6417,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="17.25">
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="88">
         <v>81</v>
       </c>
@@ -6422,7 +6425,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="17.25">
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="88">
         <v>82</v>
       </c>
@@ -6430,7 +6433,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="17.25">
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="88">
         <v>83</v>
       </c>
@@ -6438,7 +6441,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="17.25">
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="88">
         <v>84</v>
       </c>
@@ -6446,7 +6449,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="17.25">
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="88">
         <v>85</v>
       </c>
@@ -6454,7 +6457,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="17.25">
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="88">
         <v>86</v>
       </c>
@@ -6462,7 +6465,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="17.25">
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="88">
         <v>87</v>
       </c>
@@ -6470,7 +6473,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="17.25">
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="88">
         <v>88</v>
       </c>
@@ -6478,7 +6481,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="17.25">
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="88">
         <v>89</v>
       </c>
@@ -6486,7 +6489,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="17.25">
+    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="88">
         <v>90</v>
       </c>
@@ -6494,7 +6497,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="17.25">
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="88">
         <v>91</v>
       </c>
@@ -6502,7 +6505,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="17.25">
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="88">
         <v>92</v>
       </c>
@@ -6510,7 +6513,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="17.25">
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="88">
         <v>93</v>
       </c>
@@ -6518,7 +6521,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="17.25">
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="88">
         <v>94</v>
       </c>
@@ -6526,7 +6529,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="17.25">
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="88">
         <v>95</v>
       </c>
@@ -6534,7 +6537,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="17.25">
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="88">
         <v>96</v>
       </c>
@@ -6542,7 +6545,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="17.25">
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="88">
         <v>97</v>
       </c>
@@ -6550,7 +6553,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="17.25">
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="88">
         <v>98</v>
       </c>
@@ -6558,7 +6561,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="17.25">
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="88">
         <v>99</v>
       </c>
@@ -6566,7 +6569,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="17.25">
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="88">
         <v>100</v>
       </c>
@@ -6574,7 +6577,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="17.25">
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="88">
         <v>101</v>
       </c>
@@ -6582,7 +6585,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="17.25">
+    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="88">
         <v>102</v>
       </c>
@@ -6590,7 +6593,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="17.25">
+    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="88">
         <v>103</v>
       </c>
@@ -6598,7 +6601,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="17.25">
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="88">
         <v>104</v>
       </c>
@@ -6616,48 +6619,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AJ21" sqref="AJ21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.6640625" customWidth="1"/>
+    <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="24.75">
+    <row r="1" spans="1:34" ht="37" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>368</v>
       </c>
@@ -6742,124 +6746,130 @@
       <c r="AB1" s="96" t="s">
         <v>395</v>
       </c>
-      <c r="AC1" s="97" t="s">
+      <c r="AC1" s="96" t="s">
+        <v>401</v>
+      </c>
+      <c r="AD1" s="97" t="s">
         <v>396</v>
       </c>
-      <c r="AD1" s="96" t="s">
+      <c r="AE1" s="96" t="s">
         <v>397</v>
       </c>
-      <c r="AE1" s="97" t="s">
+      <c r="AF1" s="97" t="s">
         <v>398</v>
       </c>
-      <c r="AF1" s="96" t="s">
+      <c r="AG1" s="96" t="s">
         <v>399</v>
       </c>
-      <c r="AG1" s="98" t="s">
+      <c r="AH1" s="98" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="16.5">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
         <v>364</v>
       </c>
       <c r="B2" s="89">
+        <v>1</v>
+      </c>
+      <c r="C2" s="89">
+        <v>2</v>
+      </c>
+      <c r="D2" s="89">
+        <v>3</v>
+      </c>
+      <c r="E2" s="89">
+        <v>4</v>
+      </c>
+      <c r="F2" s="89">
+        <v>5</v>
+      </c>
+      <c r="G2" s="89">
+        <v>6</v>
+      </c>
+      <c r="H2" s="89">
+        <v>7</v>
+      </c>
+      <c r="I2" s="89">
+        <v>8</v>
+      </c>
+      <c r="J2" s="89">
+        <v>9</v>
+      </c>
+      <c r="K2" s="89">
         <v>10</v>
       </c>
-      <c r="C2" s="89">
-        <v>7</v>
-      </c>
-      <c r="D2" s="89">
-        <v>0</v>
-      </c>
-      <c r="E2" s="89">
-        <v>0</v>
-      </c>
-      <c r="F2" s="89">
-        <v>0</v>
-      </c>
-      <c r="G2" s="89">
-        <v>0</v>
-      </c>
-      <c r="H2" s="89">
-        <v>0</v>
-      </c>
-      <c r="I2" s="89">
-        <v>0</v>
-      </c>
-      <c r="J2" s="89">
-        <v>0</v>
-      </c>
-      <c r="K2" s="89">
-        <v>0</v>
-      </c>
       <c r="L2" s="89">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M2" s="89">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N2" s="89">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O2" s="89">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P2" s="89">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="89">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R2" s="89">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S2" s="89">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T2" s="89">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U2" s="89">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V2" s="89">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="W2" s="89">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X2" s="89">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y2" s="89">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z2" s="89">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA2" s="89">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AB2" s="89">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AC2" s="89">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AD2" s="89">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE2" s="89">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF2" s="89">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AG2" s="89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" ht="16.5">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="89">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="93" t="s">
         <v>365</v>
       </c>
@@ -6959,8 +6969,11 @@
       <c r="AG3" s="90">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" ht="16.5">
+      <c r="AH3" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="92" t="s">
         <v>366</v>
       </c>
@@ -7060,8 +7073,11 @@
       <c r="AG4" s="89">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" ht="16.5">
+      <c r="AH4" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="94" t="s">
         <v>367</v>
       </c>
@@ -7159,6 +7175,9 @@
         <v>0</v>
       </c>
       <c r="AG5" s="95">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="95">
         <v>0</v>
       </c>
     </row>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8070" tabRatio="783" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8070" tabRatio="783" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="698">
   <si>
     <t>簡嘉誼</t>
   </si>
@@ -2016,10 +2016,6 @@
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
-    <t>動物園</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
     <t>不準動</t>
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
@@ -2032,10 +2028,6 @@
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
-    <t>Oh my God</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
     <t>猜一站名</t>
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
@@ -2044,10 +2036,6 @@
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
-    <t>猜一站附近景點</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
     <t>猜一地點</t>
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
@@ -2061,6 +2049,263 @@
   </si>
   <si>
     <t>圓山_花博</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>市政府_台灣微軟</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>/9j/4AAQSkZJRgABAQEAYABgAAD/4QBGRXhpZgAATU0AKgAAAAgABAESAAMAAAABAAEAAFEQAAEAAAABAQAAAFERAAQAAAABAAAAAFESAAQAAAABAAAAAAAAAAD/2wBDAAIBAQIBAQICAgICAgICAwUDAwMDAwYEBAMFBwYHBwcGBwcICQsJCAgKCAcHCg0KCgsMDAwMBwkODw0MDgsMDAz/2wBDAQICAgMDAwYDAwYMCAcIDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAz/wAARCACtAIEDASIAAhEBAxEB/8QAHwAAAQUBAQEBAQEAAAAAAAAAAAECAwQFBgcICQoL/8QAtRAAAgEDAwIEAwUFBAQAAAF9AQIDAAQRBRIhMUEGE1FhByJxFDKBkaEII0KxwRVS0fAkM2JyggkKFhcYGRolJicoKSo0NTY3ODk6Q0RFRkdISUpTVFVWV1hZWmNkZWZnaGlqc3R1dnd4eXqDhIWGh4iJipKTlJWWl5iZmqKjpKWmp6ipqrKztLW2t7i5usLDxMXGx8jJytLT1NXW19jZ2uHi4+Tl5ufo6erx8vP09fb3+Pn6/8QAHwEAAwEBAQEBAQEBAQAAAAAAAAECAwQFBgcICQoL/8QAtREAAgECBAQDBAcFBAQAAQJ3AAECAxEEBSExBhJBUQdhcRMiMoEIFEKRobHBCSMzUvAVYnLRChYkNOEl8RcYGRomJygpKjU2Nzg5OkNERUZHSElKU1RVVldYWVpjZGVmZ2hpanN0dXZ3eHl6goOEhYaHiImKkpOUlZaXmJmaoqOkpaanqKmqsrO0tba3uLm6wsPExcbHyMnK0tPU1dbX2Nna4uPk5ebn6Onq8vP09fb3+Pn6/9oADAMBAAIRAxEAPwD8i7S1SDQJrqYSfZZpfIYifyYpTuXaWYjbw+GKHONpOQMsOT157eK6mhsBJHCGLXDuxLyyDtkADvngDnk1694nurXT/DVnYxrutZrgTSboyoi4ZVG8fOQQd2x2GAcj75WsTXfB+l+IL3zJrmSG4mdfIKxIY9qRqmxl4IJABaTlm2jOTknw414xn717f10M5SSfvHlsyefOGDhmYBmOcNk5J689T+deg2ngy3Pg37V/a8f9oRlV+zsEjVA/IMbHJIBVySo6A9OQW3Og21rYzR2du4km2eS3k+bGdoznLZGDgHOBkH8KvQ+NGtdOhhXT7G4ms3kuBLJB58aBvLU5AAXdlFAbAYE8OOAOmdVSS5TaPczfFMs+mfYV+0LqUNxZxsZUkZnthkjyTgBc/wAXKjIbPOatabpaz6Zc3Vmsk0iOoMblVUklsfIvt8pwRwB06iPULk+JNSmuNR8tkwbmSJYEiMgZQ4YBSRli5PTt6nFdd8N7XTJIvKVWube4uEkRnXy0RkV+AV2BvvL2xwOOeL9m+W7Iumx6aNeaZoLSSSXEcscYED2+X2LuznI4Cg7m4b75zxzi34K1cWbW6ajp8MiXT+YsjxbJtu3bkOuH4XPQjGc9DitbXde0W7na3itWtZXQJLcGbzQh2nzHxvIIfqxzkgfKFxtqfRNJs9SsYprzyZJXG5M/ICOFUcnoOOQSPvdMgjai4yiJ+TP1Z/4N7v27Y/hN8b7n4X69qVu3hnx03l6RLPbxNc2moK37mNroFWeGYNKqoQ+2VowgQNIzftxX8k3wysWsVsJrw3VrczSbpNhMgmRihZzuyv3SyjBBU7WyMDP9Cv8AwRq/bVm/aj/Z9m0PxBrFnfeLfBkwsggSRLm709Y41huXMhzIxcSIzjByqFwC4Z94tbImLfU+xKK/MPX/APgt5Z/Cv/g4d8d/An4lePvD/wANPg54R+HsFrZ/27PaW9jqniSVbLUhdveyRK1r/oNzNAIpZ/JZrYEfvZUSvrz/AIexfss/9HLfs/8A/hw9I/8AkirND6AorwO0/wCCq/7Lt/dRwQftJfAOaaZxHHHH8QdJZpGJwAALjJJPGBXFf8Eff+CmMf8AwVQ+Anjrx3a6TZ6fpfhv4haz4W0m5tWlC6xp0BinsrtopVDwyNa3UKuhJy8buAgcRRgH1jRRRQAUUUUAfxawaGf+Ega0tbzT91uFihEpSZb55HMmV2qQpO8g5JwSo6DjO0zwk2r+JrG2+0afp8jlRHPIH2zRj5V2kAhsbdvzEAg4JA5r3vVPgppNx8eNYi0+Ozj0S7xHYjC3DSXEcEDH55Bj5BLIxOdxEeSDwD474ku4dO8cyrZyw+TdWqFJ+fNEZTyymQTgEIxKrtwAozjaB8/TqqXvrt/Vy61NJa9G/wBDJMmrat45v1Mj61LepPe3WYzLI7SB3dm3febkEnBJB3YDV6N8D7LWvFfw51TRrfw7a3Gg+WyXF6YPtD2DENuZQRjcqvuATBH7vGCSrcHrr2nh29tJFuG228rMv2QbIcMRllXkhTjpgDCDHq31F+yVqcXxA+HN5a26skklyHR7fyoCm6OFFALbSWxGM7jtQBAMZJGeMxHs4KSje9vwZeFUZVOTy/Q+eb/9n/VNM8QQwalp9vNdXlvCGFn8rx7pCxkCcBmCIyFRjazoOMjOhqnhJdORbW2jS1tb6382MQo27bvBYsvP71RnPLYXHORivQvif4C8QN+0Hb6Tda1bxf6u0mVreSI7otsUjLlS21pAdh9WwoIADcn4wtzotzNusVk8mIWnmpK7N8smwlFYZG9VLAtglCBzk59KlXc7a7q5MqfLf1scRqGhfYra3ZJVba25ojtjbbxgk57lucgjgYJya7u1jj1i3k86S+urnzGDTtKGXcTlnwW3dQRgsD8wyxPAzZNGt9P8QWNvfL94Rl/KcMZInRJlGQCuSrqT1Knrg9bNlqFvodpb28q3Fv8AMshMse8vluAM/K3C89f556ubvuY9Du/DGoSaJdytHbx2/wAhcRLbssSElSTuVi/ykg7chdwA+YA19X/8Exv2z5P2Yf2gNB8SQz+Zo6zG21W3jw01xZyhFmQhWG4q2HjViFLohP3Tn478LX8viWeC82RC6Xgy3I2Rt85PVjtjwcfMeAQMkAjb1/hLw5qWpeI5pJIktVs40mfy1Ee9WaPYGJUAErInDYC46ZzVU4xTsxOOmh+z1n+wH8VPDn/BUrxJ+2h+z342+F/j7RfjRotro2u+EPFkt/otvDYwWthCstrf2qXWbrzdPGRNaARLJMhUscr+Xv8AwdSav8S/H/jb4S2PxQ+AXgX4BW0+vatDD4z07xdD4itPFG5rRJLmUW1lFepFEoSX97A0rLPgR71ZKo+Kv+C7H7S37MHhPRfgD8BdBtZ/FHi4R6lZ6rBoz65r5meRU8iztCrw7mFq4YSQzlllYqEYBq6b4Y/Ca1+Jvie+vv20P2Lf+CiHx28dKfskmqT32peINP0oKHlkbS0tI9Pjhhmnkb/R/NnijREMbk7gdttGVF3Vz9Yz+zn8fvhX+zD4m+HfwU+Af7JXwfm1rQ5tIsb+x8dXt5b2DtHIiXE1o3hhEvGRpZH2zsyuzsX3BnDem/8ABJD/AIJuaH/wSr/Yp0H4VaVqC63qUdxNq3iDWBG0Q1fUZ9oklEZZtiLGkMKAY+SBCcsWJ/HP9iX/AIKn/tJeAf2tbX4P/sk+GPj18bPhN8NNGax8Q+C/jfpFlb694YubaaeS4sxqdkA1pIYbU2tqt4zpHLI0X2dvLjA/Z3/gn5/wU0+G3/BRbwdqs3hWTVPDnjPwreS6b4q8DeJLcaf4l8LXUT7HjurQksELcLIuUJ3ISsiSRoDPoeiiigAzRRRQB/Ijd+OpvBh8M3/iDXbq0t7o+U9qYm8mOHauJkeQbHPlueAQVOwEruwPG/EQ0/VpLa8t7sGzkieRhCHxGrSP8m4seeMkHv29fYv2hPEHkab4JstHgKT6NFcPdC/i863jRvJ2hI3Z9qBIW3LGeMMQCQTXinhCw1LXdQu1tVurnUbj94kMSm4+TpvbqSGdgORkEqe5FfO0EnS59m+nz/rU0xHKpuC6FtLa2udKb7KkcM1v5zLb3Mis0gfap35A+UdV3YUZJHJOes0f4gal4Dg+3WE1lZ27OGgj8lYgpDKR8xPJBTduJUnAAJO0VzV94ea50TT9QmuI45LuRhsjdiUVMqFYNkMFzyQ3TA4O7E+k6Jqep26r9nvHumhW5M7yOY7TBxmSRWO0syLtYkEZ4B3LVOinpLVepFOLR12tfGfUtZ1ua81Bimpz8l3cCRk25L7XLEHO4YBUMRkkAZElnY6nqnhu+j1TSobXSbWCWSYvEFuo5Le3kELGSXlYzO6Kyqyq24AjciFcDU/B2taRc2uoSRSTf2ioW2LILozSFSxXBIBV2bPyFiMgZz97J1nRtU1ey1S4vWtbSG2gEjqkPliaYBpFVAAAjFQxxgABCOB12oycbRjawcsr+8dDruia9o3xA1XS7jSdYttSkdbWOG402WO4zJhFATGctuVAABkuuOKx9dk0+18X/Z4rrUmsbeCImeeFYWW4MStIi7ZHRo1k3BJA37yNVfYhby1frMD+FbPUiui6xHasRJbXstvPFDPmVSlwpKhV3IAM4x85AHOBzGo+dqdzZxxyQXk14EYRoNstozHGJCQM5yrBvuYIwccD0qckxSXc95+AUVvqN+kl9D5MccRCZyDO5AK4JJ5VRnAGDkA4ByPtf4cfDvT7LxTp91pMf2eWfSmsLqa3vNsd3DGiR+S4CH7sahWKne+4qx2rur5b+Ekej6N4dt7W3j1JtRjt3acTxwqLd9+FdEVw+EBjDkK3zSHgjaT7H4X8ayfDrUfEGu30dxdafD519Yq1qsTToiiNwjYwGKiNgw5UDaeHNeTisRKU7R8/md1GEVH7j3H/AIJC/sfaRqX/AAW/tfiVqmppBZeCdJ1LTPBWmaZmR5JGhnjkkv5JM/KsNzeKgixuIhJKhXR/24+N1l4u1L4MeLrfwBeaPp/jy40W8j8N3WrKzWFtqRgcWslwFVmMKzGMuFVjtBwCeK/Bv/gjl+142iftuaD4j161W10nVNTmiu7wgxWtiLlHgy0rZCxo0yH5jwF5IBLV9sf8Fo/Fkv7Sf/BQj9lH9knXdavNA+E3xgvNU1zxt9i1CSzm8SwafbPNb6S8kbIy288kZjcK252liK7WjUt7kX0e558WeSfsZftf+C/2GNG1P4KfsX/Dzxp+3F8ZtV1H+3Pid8SItVjstC1LVbiG5mkur3XJzLCHZoT5NuHMTq8g+1SXXnGX0W3/AOCMn7SH7ZH7Zfw+/aE/aG+OHgz4beOPhrJJDomm/BTw4sE8NsYflD6tqCvNIrTPL5lpcwXVuY3nRNoupQP0o+E3wg8KfAX4e6b4S8D+GtC8IeF9HV1sdJ0axjsbK0Du0j7IowqqWkd3YgZZnZjkkk9FVFBRRRQAUUUUAfxk/ELx3Drk26a5uNQ+wuqWyGTe8abSq7vvBAMgYDEAsOe52PAfgefQ/EVpcXN1HI6EI0lszLCCjgzLu2bcqQqkZKYxkMNuONt7G30nx09rrPmJbx+Y0DQT/vZI5EbyhtfJXGxHJAfaTtbBIUeheHvFuj/Eo36yXU2m3NuzSr5sISNp13lW37/nO0IWLBfmUFQMuT4dS6tJK/6GlHlfUueN9GsrT4a+G4brbZrc3DQXd9sVo4f3jrHJ8ykxiVQVC/KilVYnDVxXh3SZdL+IlnpsLC5XUmIikT7siF9u5Sw+XLkcMMY5B9Pav2pfhfpuhfCrwf4feF7XV9YkgQMNzEwhFQsWWM78SujAKqsc7SrNtavNm8AeIfh0+neI7xY7i68JXkkF7GuppcwtcRzG3kVo3HlxyKrxqANwcbHyd43YYWUPZ87erbt9+h0Yim+dpra138j678a/AmDWfC9nbwvHpesLOLuG/EIeYRou1gQNhYHk5c4Py5AG4H5H8K+BpfHnxQvtK+0W87T3c6YtZxbiRFVlC7yWDKFUkZLcdc8Z+y9O+IVo+rxWx+2fuIJIHXUFEETFZHeWVmQBNpjDkjcfkCEkbgK8z+C3gDxB4F8K6Pq2laP9h8YarqslzLNqjCaCIrCqQRXEe12WNjdxZRwS7TGMhSAK4suxDipRm+1vxudWKo3alBev4EHhq8a+8W2OqR+MtY1GxuNPeRP7Vs7c6fNGYwYB5LQho1LLHMUjCqzkH+89fPPxo0XST4s0fX4dRg1Dwr/aX9ioBI32jTY7eO3kaOSJkUIha5KqcnOxzgHg+6fHr4Uan8H/AAb4U1DR9cv9Ujurb7Pa3bpG0tq1tgQqsqERmGSARFIg7MGSYk/vBXzR4t+GWoaf4ckg0+6vBpNxp1vJ5JSWZZ5t5gkO7ACKdnOQTny8DONvVg5RjLmT02/T7zGtGTXLY+jvDnx/8M+FNfvtHs2j8O6xbTmIX8WrMkO2RInjmJTCSYkDOwRjuEEY2kgq/eftPeJ9FuP2brNrzRdUvnt9Ktm0rUUtlSSCWQQuiGd1WWQbCrxEb90YmBVUAdvz98P3cnh3TXivLCG+tSBGodCbi2XczgJJgYyw5znjpivVP2adE0v4peLYfDUkdlozXV0s1rdvdw28iPj5YN06xZjdiyuBIeo2rnIfaeDjTftU3pZt/wBP/Mzp4hy9zudR8P8A49eKPB9zAmoWh1CSe3+2Kbob2Cs2AWkdWyMAjbnbhzk5HH6Ofs3fsual/wAFwv2HdU8N6P4mm8CfEb4IaraeKfhf4qtHmx4f1KQzNPZyXGDcQQzPFbS77dtySRQzqrtFJDJ8B3miJ4am8ReH2ih8vULiIPbwQ8eWm5m8uQzFipaSNSvl/wDLU/ONuZP1d/4Nqf2vfhj4Zk8Q/CSz0trDxt4w1u51OzvIkVkvbS3tyFgdmO9TEkUkgXLj/SWIIBNd+H9k5KcVZ/192pzSpuO4z47f8FIv2qrj9gH4yfAr43fsi/GbVPjTrHgvUPDWn+J/h34dl13wv4iN7BJardtLa71tZEimWRo1MgZo34tyywr+oX7IfxC8U/Fn9lT4a+KPHGgX3hbxn4h8MadqOu6ReW5t59OvpbaN54niPzRlZCw2MA69GVWBUeiUV6JAUUUUAFFFFAH8Q3izUtQ/4Wdp95HNfata3EeUa42fvDjDxkLhfL8wH7owVI4JyD6v8KbPQbho/wC1pppLW3u4pboQufKkQEEK4PLKRvJ4DHzTksNucXxr4Ph1e0aN45PtkkLx3KEq0aSqXyw2IpjwAMg52guMjjJ+z7jxLosmk/aorXUtNIS4jZDK11bkhBIPlIyu4JyQFUE5JKqfEnVSoe9pbt27mlOL9pZH6D3WnaT8XvGXhW5VNN0PxNp9zJqHlzYkuZoRA4ltGWd28pSmzDHLEspU7wpr5z+IvgxLb9pbxNe2vh67uvCuuXE2lagVP2NpHSBEuzCNw2zed52xpTskyik8lh7BpPxe8N6BZabp8eoaXpmuX0UbhDDyRkqQ0iklVZtq7ccs2FDbWrmPGvjqH4sfEVodKuodQ1jS51iMcCBZ5g8sTSFgyANA2IUQ+WS2zgyIDIfnsHWkk15fcr3PYrcktE+v42/rQ8313+2vBPwq1fw7eTKBp8Ooafp87qIpL+IKQ4SM5AwrAMu5ijP/AHiCPp74R+IdLs/itea1qGlNZ6VfWF7AttpV3LcBpClmhK7wAMxwyDIyMtjamGx5fr/xT0Y6leQ61pay2GsyvPBJfWX2mfRtT2cSKNyODNteJfKCsHGAzNL8uZ8KvizNDpt4L6GztdesLSaO+tTaMrW0nmld5dkIVHCAryWYM8ZZfKzW0byi5Pzu/W3+RMYpSUV93oehftf+IbrUvAvhm8vo9Ql0m6vxcf2tdTuvmTtHPsbe5HmOu2Z2chlBaNUUSGTZ88fCTwRa+MviLqENxPrFjZaSHii1LTn/AHaRmNcIsjKFeMux3AgFkGS6E7m7bUfDniD9q3Rbrw3pOiyX0ek7NbkMUTTSSFVk/wBJUxDDAoGj+cKGOyHDvIlcHZeFNU0D4qWPhOxsdf0nVJNZGnz21np9hcah9seTZGsatEWmPltOqwBkGWQAoGAco4ha0qWs7N/Lu93+BpUw75k6jsrr/hv6ZT8RfAltE8dao00Nii6rHFqchFuoiRyyTymJZQoUNudCrgBVx83znZ658K/APgr9q74hXuoeMG0P4f6QrNax3sWiWcEFxcIsSxqbeCWOJIgqktJbQ5dlbJLupWe/+Hvx++Hnxjt9PY6paeKPFD3d5pTXfwW0C1mv2to5rpxb/ao0YSLHb+YqR4IZo0XMhVaoftR/sNfFzWPBc3ibx1p/xcv9WmkjjW61TTVbToZPLmnlZLOS2iRYlh+1OoiYeSI3YgLjPkTjjK9Xm9oo6W5kptr5Omk1p3/E9ijRowg6bg31teKv6e8/1OX8ERz6Z8f9B0vRW8SQ+H7HXLd4r+TTZNKjnt4yxmkRGbZHJ5LHaqPj5R1ck1i/Ab9sbxJ+yf8AHe88XeH/ABFJo/jTT4r22TV5919NPGdtpFZwwMfKBCPlnlZgsaKyKHiUS2rH9ieHS7vxpY6bY2XizQdM0KHUry81qJtEu7Wea8soQbMWlxLAHAvrTb9pYwxpczhkDoCOT+DXwPbTvjZZ3l94V/ta08Pr/b97YW6tcLLHFMkohkAR1Ebxh1digVQcttxtr6nB4inC8nrdb6K/4p9ddDx8Tg5t6Kzvs7vf5W7bs/TT9mL/AILi/tS/Du9m1jxzpvhP4meE7iWL7Ss+taRbX2lxrO0TmL7AFIJJIYSwyYMakbAWDffvwT/4LjfBr4kWumw+ILq88Iatc2X2i8SSGS8srKfzdn2UTIgd3K7ZNwiCbG5YMCo8V/ac/wCCefhnwF8cfjZeWvw502PwTJ8I9W8QaZfQ6HDb6dourQ+QLeGB44xsnHkzzHa43JKVKkbi/wCSia08d0jNJCsckwKjG1gB9xc9wTnnjuRwa+myujKpTkq+6fTtZeb63PmM2xHsasfY7Ndf6/pn9MFn+1n8K9Rjka3+Jnw/nWFBJIY/ENowRTjDHEnAORz7itHwx+0F4C8b65Dpei+N/COsalc7jDaWWsW9xPLtUs21EcscKCTgcAZr+aifxrLaRJ9jvF25BEQYjc/YgfxEZ9uOvrU1h8TtStID9lupIY43DPEsjfI46Eg8Z2k4xjBJ+o71gU+pwf2o07OJ/TT/AMLA0H/oN6R/4GR/40V/Mt/w0B4m/wCgxqn/AIM5f/iqK6f7J/vEf21D+X8T40+H3jKMeKQt7cSLGtm1jezuvneV5kThhuiHAILgq2du3O7jhnjzwDeeGX8MzLpcsV5dWMl9aSIVZb0SDA+R+QQQz5BYfOpUphTXuH7LutR+GLH4heLLqzkvo2UwaNJO7TrFdJHLDbwCMEPIhFxFGVjPCORgA5TxrxBr2o+KfDOj39w95daxpzyW810F3RAb3ZBGQdqoW83KqFQDJGSx2/E1JtVtPhWnrofSyiuW+/n8ztfht8UPDttoKXTRzW+pPbNPZTlRdRRzxBTPbFiqNG5kzIGBdVEiMfMJDi/8Gok174g3V0+r3FvrX72SynkbBuBHI/8AoZRJVLnCZKIBnZIVBKRuOCuLOSwe6m0uCDUpFtmu7+7imjtjIWlGwxEuj4YblKqpZgzDGQdh4J+J03hmzjaNjM1ioaaNk85gqBSxw6kq6IhbaflwsmAdxVvN9jebdPRdf67HHGt+95ux9beLfEeratpdrp9xrF5Z6PHFLPLDeK0y3EccexpJjIzIm5RvZkhCAKV2MhZn+f8A41/tC/CmbX3udDXxJp+p3CpFcXEFoWby5CgmmjWR4zvMfKFZFGI2j4WUSRS/GX4nPe/DSOO3uLqG8vLZ4RJ5kKzI0jbpw6qxOAoaMqFVWEuVb5SKp/AX4WWnxButP1JvsNxqmh2qTWL6j4k0/Q4op4hG9uf9L3m5DlWUxCJVG1C0qq5xWHw1OHvzvu12Pcp1KlaXs6au7X9P8jhNI+Ndo3ihdc1KS41TVPs7/vLzw1a3CyI4IYGP7UsSptLHPlnBJwASTXrXwY+I2p+EfF/hr4ieD/C/iLWJfCOrWWtQh4ZUsrmezmjniiuGgnkJXCMxDDcVXjGdw++PH3/BPH4Y/BPWNY8OQeAdWa7vLC08J2uqz+NLvTBfxyT+H7I3YAgddrSa4Q6sJoQdKjURjzHCc18YP2MdC8EfsGfBf45aFpFt4XsfGhtvAmp6Fr63OuS2USprEEeuy3cTIzMtqttKsENuqIYY8ZUFGVWDXv03ZrfXp+Gx7cMben7LkhZ6L3E3fS2rcnqjyX4qf8F+vHHx6+I/h7xFrXwv8J6f4p8DzTnR7izvtVtX0+SVGjlbCA7t0bFCrHBVipBUsD2tl/wcFfGT4jaP4w8P67B4f1Lwrq9k2k6hvkeza2juFVZonmTTNwkA3JuCqAHO0syq4+SdLuteuvHN19ltpPDuly311cCUaffta2fmlWkEBR5rja2MCR8yELFuO5SR7d8KdM8L+GPAfirQfGVs2vahr17HrFnf+HIGtdSgu479LSbzLu4tLjzYpLcfaxuJGYyCqyTK5ipioWbg/wAd/u129TkjRxFOSco+nuLRvbdW39PI9B+JX/BQTVvjr8NY9N0n4Z+GtD0/SbY/2fJFrmq3+mpKI7m5knKHTxL5jR20y7Vnhjyq8BUfHj37SvxcvvA3hax024EumyaubvSbuG3lk1CRhaBVUK80MJSCRJYQzRrk+XkMxaRE/Zb9hX/gnv8ACuH9kTxfoeoQ+BfH2u3VtM0GrR6tp2vajp/2izkhiSO4+ww/Z9u+QIrQ8P5jbTkg/g7+3r8Abz4OftgfEvSVuGsdA8O+IL6w0G0W5N0LfTvNuPsqB97MQIgmQxLAP8x3bhVYOFOXLzNJPWy9bf5a2SOHNOZuzT5lZO9l0v0St6F/4XfFnVPCfjm31S40nwy0omiuo7qbSrW5hVQyOpRCNhyTEwLI5YIAQwG1fRPFOvR69cWt4trZ27TIJFjhfzsScBwCAvBJwFwMDjk14trJstN1jRbq1jkuv7Qs4bi6hiVTHM/zb5CVG1ujgFflwi8nJr0DQ9UZ2ure8gjWRlVNzqy+UFJUYCnaD8owcncRzjdk54XGwweIWIjpGW6XVbXt5HyeMpPWDd9SbUbnz4tsch8mXKK5wWjcHoT16A5I4IPrnLRr8kcjrJ5yttPlvGuTHwOnAyOgxyMdwcYdIXk0rUrGaGS3vrIJ5bxMJftD4IJHIDK+1skFwcDGa5ubyXQYdg3lgFFh+abk7gwz7Z7n6AYH6FhcbTrXt00/4J49Sk4yTa3Nj+2R/wA8W/77/wDrUVX+xL/zz0//AL5H+FFdnto9zP6q+34FPUfA/iD4Tfsv3Gi32j6tNHcSxajqFgtq1s4klgmYSSDydwCi08wLtYj7OH27AS3zfYeLLzQtLurW21C5tLHUmb7XBDI6m9RZFaJH5IYLJGrkPwu1W5JxXpXiHx3HZfDGx0yHwZY6V4gUbrm8bU3jtLiUuQ0gs9uVchQpaKRQC8gXZGfKXj/F0l5451eGT/hHdH8LWrLDaLLpxLIQYtzbnLiM5IDYwGGAhb5SK+EivdlzNWet7r9fz0Pr8RKMqfMpWOb07xRcRQXZj2sBsimCjCElmLHgDaMbO3v2xXSeCLaO8voBeKk9uuxlLsvlq2wxhmfadu3cG+YY+TquCa4uHw3q7TXNjbpNezWqyXOy1ieRNqxyO8g2qcqnLEkbdq5zjBrc0WHxNLKkcNnf3ciuF3QIZWlLoWUI4HzblywAJyF4yesSptK8Gjgpxlpyanf+Ivgp448ZWdtBY6fbXF9NEL6RfPiillhlXdFIFcqwjK5OCoB3jlhjFvw5+zZrmvyQ6bfeH9astXRktpHOmXYtAiAjJkWNo+cAlgSScjG4gVrfsefAuT4++IPEnhnWlsPtGqaU72k19azzx6dqAZ44ZpCiM6KjOQ5b5F37myowfddD/wCCXvjjUviZ45XxfrkOsa74oWTWb270i6uoFnumiuZx5vlRiI5vJLSQxxpI6RlD5cfmIxmvWajyylbVLRddOp9RlscNGKlOm5PW/v8ATyXLvp1b9D9l/AP7dHwj1fTNFGp/ETwnoWo69Ar2+l6xrFlZal8+VG+3eRWViUPy4z26muv/AGgfi38SNI8DeH9A+H/hjRPFEtxq27U7PUYZGlkiMkaxww7cIHciclpcRAeWSyoS6/z8WHw7f4dfFyLSZFun1jwnNJDb3kdnf2qxpEYn3Osdm6xqkUsD5SZ0HmqwK+duPvWtftI+PDpmqal4z8Y+J9L+IWiwy2ln4P1C2E8Q3x3cEk7QSyOsLRy2kaNbzoJUMtvKCeqcn1hRi/bq0UtW3a/obZrh6WFprEU5xalqkmpNeT6H1Ba/8Fkvhb4Q8V31nq3wZ8M3Pjzwz9q+x6xZ6dp7Nc6hbhBFK0sWVhLOH3tbtMq4DIzAha+YPH//AAU08WfEzVV0m3k8M+F9L0s3V7pC21uJtXVHAdpP7WkWSQTNE5D+Wy7k3q0JU7D8t+I/Gl5c6lr01zCbnVJr2W5hSaCSRJXQyFi4JdGx86fOHO6VgXYkMOAsLu11DULfULCxtZNSsQAbOW2ZPLURljMTny3VSjZZyeqkhznPjYeFepLnlJ8vS1n56vt0+8+WhjMTUS5nZPayX4n6yeHf+C2n/CU/DqxtPFv9uan4m1rUm1C9k0a8aERIbqIwRC3aNfLZVjt1WRSxDQlwvJL/AAb+2n441T4p/G7xF8QJo7e4tvFl7INVYGby5poi0QkTzPk4VUUkBQfLDBVBOOD8Pw6jqt3Y2TabdRzPKsdlavbzP5ck5jWFwHLSFCcYAAVlEQbcH59Q8c+Gr7w74B8SaQ1nodyv2ciM2+biRGjaQzbZBHlUAcYKFS6yPks5BPRg8O8PWdSn9re+3XRdu+mx6dbHYivTVOX2TxTxHO134h0q4sbtfssWn2wiZWWNkYA/8tAc/KCSFXPI6cEHo/CursVuo/tga4Uu8kbsRbyrtYEHAI3k7SBgghRzniuXNjpFx4g01bfbN5M7FbZf3bTohQtGRjHIDDHylemSQFrZ0t5ri+tVuplhmmt1nWJI9pvGYK5IZACzBtn3skfJ746K/LOmorpfpr/wfwPHqVFVbmjtYfE9tHq7SLd2toq+T59vDb7poyM/MyiQMAz7SrNlwISCACdsN1exy3IaZ7OS5ijCtMs0rNIcAZYNuwRtOAAOp5K4AXwyk6QefkatosNu321pYlkltgG2YlYBwhDyIoJ4zKgwhYqLOoafHqsszWL3MN3Hllj8sBJeCHOz+Ejg46ZOcDqPSyvHUoOFSve6Vr9O2un33ukctanKya2KfmL/AM+7f98rRTf+Ffax/wBA2x/8Cbb/AOKor6j+1MH/AM/Y/wDgS/zMuZHO+GfjVdaB4eksbfTdPv7O8tt1kkUBjWINI7yBAo2scS/MpYbCApUsCD5v45+I9lq8lxcyef8A2ntmSW1WFTazA/KrKSWcYBQhWjBYjGetela54ikM0+o2Kx6jqVpAn7mS1HkC0WIx/NIBtfagiQMqAY3hiACTqfFnwPD4DvpIb6zhuptFnSO3guY5XWG4M0sc+wQmMWi+bCziI/NGERdxG4V8Lh6vPHmqx0v1/D7+56tGnUxMbSVop/1fXt/keX+HL7RNMOq3Vx4a1a3ntbsBNXtNYSWOKYRuESJo1A8t3jkJdJHbCAK20v5nca1dWmk+DdItdHn1ea30+IXMtvftD9lv1Mkc0Mb+QV8xlKR7pJlO944zhCcLh6p4p0PwzZaZp9rDDbS27tM97Epj8xyFyqqpK7VIABOM7QdqljS2usnUrOG1hvFtpvMZXzJJGpjVQduVVySuM87+uccYEYnNKlr0I+787adv8zDFZiqSVPD2duu+/T5d111PVfCv7SUnizwvcRJrqaD4liuYri3uJ9Uht2tfLYDymlkhHnIxQyuxf5ZQHwpZ89p8Kf2zPi54S0nbpczeIrfRzdqbnTUh1GO1EsUTJGioAEVriKOQlX3MJZAwlyAfl/RNOvtN1S4+3LaraqZJI5be7jCXK+aGV3JwEBKwnJ2MAqZHNdN4v1zQ7KOz1GLw4ZHmt1YfaGSSO6lV90jlI9gC7XQr9w7QnyoBlsvrVXnXspc1+lov8dH+bVlvY1wuaTU42fN3WnTpr0t0PtbSf+CkPjT4Ua/rXi7R9L8N+GfGjS3DWmvf2F5+q28FxLEjRrIXnSUCOIRspUIFgj+fAXHhvxS/alm+JvjbUfE3izxBqXiubXtTmur43cIis7meRJI3kkI2xRZiQgIoLYVQpURolee6t8b9f+Iejaxfa14fj+zafao8U4iT/iXJ57wg52n5FZ1A2hSDCBlN2yuX1jT7LTtSitZrnVLxYbYTRzpbm1dJYwWwxYMw2/dYDGPLBwPlevPjl+IrO2MnJpbJNW/X89OhnUo1qrbq7dNlu+ttD1D4P6pa6us1xDazyXyQm3ZBJ/rCiuY8TKTu2MFBOTuBUnDYK8X428AtfQ6PY6Ho9vdX17O0gcxj7RL5oVBHG7Nu3As3AAUgqCMrmsXwvY297rGlXNreW9jcSXJAg852gVTsMe941dkjfds3AdWAPBU16FrepHTvDcLLcJNiJhJDJKGMaNsK5lRMYPP3c7sArmvUwtOlSbpxd1a/y6+p2U1CFP2UXtr95g6H48kgvNM1eexs5JVgR3SeBgjSRjy+MDaNrorK23j5sgHJbc8PfH67awutQ1iPTtUsCHa4t0sUSeNY98u4yLGSsgc70BLLn5sIwLVwzvdT6LbySXWmwxywXCRRQwyIpBkYNlR8u8Esc9QNuMkDK3VtfaFocdzZx2un3SsstuDCGUhptyPgoW2jBGDlSCBgkEV2RgnGz2OiKsZ/x38Faf4M8aXVxo801xpt+xFpK0YkURNlozEoOG3RmJth5VldTyhJLbXI9fItri7txNbjD2xfkNxh0VjncAgB6gA4OATnY+LVtrGl2d5YahJJFeaLe3FtcDzo7iOCRZwPLSRS27EhmclTtbc5BOSx4fwfCtlqVxp7CG3MskUqTByptiMDChgMhgRyxC4dcY5IK1J+yvLdbPy/r5nJiaMb3ij068tYRqbTxTSQyNAQLFra2cEDAaR9xCtnIzuBxnccgKFzdQ1670zxDBCtr9smXJgaLy12HkIX24Xt8zDIJLfM2OfT/CEegzQaFHcXFnLaTSzJq7Nub7T5cW6N4okG8sPKlOE3ZLLhSG3Vynxe8IWfhm+sbXSW1C+jtbCTddTW7sFRkCwrtZVJG1GY5RSm4HaOQOfL6isqcu2v9f195pWw7VFS7HK/8Ld9r/8A8Bl/+NUVz/2vUPSH/wADo/8A4uivV+q4Tsvv/wCCeRy0jvtK1aL4eGD7Zb28TR+U9/YKbydJrx7eWGMv87QyAqjySuMb/NeNNsZZRJ4j8Tww6NNodj51lpt0sMU9tPDHALtwnmH/AFQbGJIkUMrkskMIcsyAL0fii08P6J8L7GxsbywuptcMVxqsgtg81vcIUwjySKgVjJj5BlQkcKrKS0yHyjxnqt3fy30awyRzpJLHPJHaFFlWMEfMTg/KrD5sZO5QcBgK+Qx1SpUm6NHVLWT/ACS8l1t1W/U2zaVaN6dPZaO/XX0Wny7nG6lpX9qMJlYN8rBZJVO1JAcjYSO4ZcHI+6OfmyM/TvhlLqF0sl032qS2Y+VDExDFmbHzliqqBgscYLe2dyu8OeI2n8Qx+TNptz8uJbm5eS2hhORs5zu/uIq4CqcHGCRVrRfGS31wLL+1riNbppI5kiV4IZGGAjAhkyTg/KQdvlofnLOo9BU8VC8KW3o/02/B9TyfYVlNxhov+B+H4HSag1rocVxtmhurq1aO4FtdjzS6jBBYfMu1QCxC7QQRjg8xWV9DNYwSXEK3EEskLvBFeyu2zaw3xogwrBN7ZKnBQHByUfhr3SrnTHk2yGGKFFiiCL5oYuzuT/skZfnJOSoIxnHuX7N/7Pth4y8UWd14u0PWLpNcmjhszEkNvb6jKwSSJZGK7lh+/wCZND+96IkbO209WGwaow1lfz6+i9d999D18voTguVO/wDX4dzY+Dmlf8JH8a9N8Nz6HCbXWpbjTruS01FEhs45oXjXazD5QDIvVWJVcqHZgy9V4n+Eei+HPBfhu/s70XXiq80y5e6t/tMUcllN9q2wSo5kG5CIpSCwVRG3U8kdh40+F9l8BvEdjdeHxDN4k8QTx2Fhaf2o22GNi6zGIOsZiywgZZI0LRlIiwDFy3mOvaB4UuNSjfT7w3Wm2GnTmS2uo1jIljheULGdx2795CruI3gKqsSueatzTkpUna297vutrpr8D3XGUE0rX7vpqn5dvxOF8O+Bpp/H8K3FlI2kWdvKbi1uPvWrIpRBIBjC7QDkY4xwu0g9V8U1tZNPuLWyby7WzslaF5rgTEoc7WlZVQebkZIKqwyAwyM1x91DP4dtZLe1muo7jUp4rWRAS1rYAxjyF379/nHY4Kgc7WwH2YPWeA/Btl4hg1vTNf1u4jsbOKS2a8tYprlbghy8ZTaSy5iXBeXacZZyoXLVGvGaUoeSb7/19+x5tKupv3V6vp5Jf1oZ/hXSovHei6Ho+mxzJJHuDxzPmNZZHXdtG0LhmUDaAxCqpY966bUdMbRdZhne4uFXarLM6ef5sKE7Qsn/AC02pGEIBYjaR83Ss3UG0/wlZw2lrq819FhEnt2i8mNM7mXfgkkBUd2JU7TznOAeovbTT7rRtDtVezktY4JReT+TBI9yrvCkku3cZItuCxMgDbFUY2MrV01JSjbltax3U0ne+5wfxi0j7PotxCojvF/tSUR3CqDGNq7BJkZBBO7BGQSrHLd+Y+AHw+i8Z+IrpLe8j097G7uBLMuN0KFdyS+Wy7SnzRDapJO1sKPvLo6r8TrdvKj1DS9P+zwmR18pTFsDFj0+YHaox0JJTJy5Oa/wZ8b2Pwv/AGlfL1Cb/ikPHH2e0uGtrtESzDgeVKWzjEaPNGwLZAZickbT6cryjaa1/wCB/lcz0ume1fBWytbbXLuG9huNNt/D7FrOOMRTR3VsrjdISOFkkBKspQg+a7DY6AHm/jPF4q8X6jqF3NeTTQtNZXIujYlFvZEhEWwFVALjdt3EHIHUciu28Wf2b4Cnj1KSG7ku7nUFgE1u2ZBZYnV/4trc7SN2GPlqVyDk9T8d4dMh8I3k1hqWnpC62lyp5Zbh2QPtU7cEkMMfwkA/NXkVGqeI5o/aT1t2tdHZyudCUe3/AAdT5k/tC4/599N/8BE/+Iorsv8AhIdN/wCgXp//AH/k/wDiaKz9tH+V/geB7Nf1/wAMcR4o+JMN82mmCaWWCHZHPuu5GjeQSs4ki3Nt/u7VZchQQGJY55L4gX00ujrM5/tSSSI2z7rby5lfKkuDypbDcsPvArgDDFuhsvC+pa5bJIJNPvLe+jkkW3spx+6eNeUZGHygou/cAyMpI3ZyB0/gq2sYvB9/pN7Du/tLyfsj/wCtlscb2Y7MAbWyozuDBUwQxBFYShSprmtqvx+7X+vI1qRjOD51d9O/4dz591/wPp+i+G7e+tbhhND87RlBOkcjKoO7OMZYLgP1AAIOaseGfC//AAk1vfSRz2ts2/7QsM8X7plRXIXduHLbAueRkjpnnqvGiR+EZPEHh3VIJDqmm3k9vmS5CJOrK+8EsoLZUhwMnsANxArPtdNs/Bml2cdrbQxTS2sbzuYmbzCzyH+LgHLKMhRwMcnOfoMJUq8j9pe97q9tn0+XmYUeZK8r99fPp8jV0WyXxnqtrbWkvmfaciXcw/cBeWLhvQEnnhsAjOd1fa/wh8JW0fwbkTxBcaXHp/2CO2tkubE3US3EaLiVhGm5QJVdiwEpCqrdeF+LfhHo1rdeO9Hmhhh2yfajLHI+xSscLOpwqkllI3AYwWwMjqPu7wd4ZmufBGnxbg0LzKJI8nLLkZ47KQT17HHoK5sXJrSOx7GEjFx5ir8WfCunySaxPqtvdRwWFo2sxX7xvcKLqGJ2WQjGN6lEKjOGEhwFDHHyP8UfG32Dx9qWrXGmzWel641xeRRO6hbZWlVCVlj2b8DIDqikNwERwNv018QfiBq+qa40Ojwva6hpl9LZakXiVftsc862/ny9cyRFYWjchSqBk6NXgv7cfwpuPgj4h0jQbiWOSOTSxPEXjTZb5YRMRhg7AYJJKEEqCqj5gnDFKdZU5aqWlvQ0xVGU6TXTr/X9fMw/g7qKWMdxqGqQ/wBsabZ6XPEEguNry3PlMluzSBSWVJdm7BwVPyhsZLfCPiDxZfzXWqRwyWaXOoKtymJLe1wywhf3iMsKbWeMlmXjzCc4NY3geaxkha00u8uLebXg8Iby/NTz4/LdWy3l7VdtwOSuAGAJzim+I9V1mx8EGz+zajbfZ7x7XUYcSYkc/uoUkZuJn2tIqopY7Gc5A3LVVMLFP2MYqz30/r069NjzKlOKtTitOvqdj41Nxf2mg37stkuoW48qzuofOkiWPMY2Im4/dQPggnB5OxgHtaZrFn4dtb2P7VPZ6frFkY7mOVSbeYiJisvl4KK5V/lA3EN3+XC9Todzp/i34cQ/2lqwXUPOjidtV1DzbzTmjhtwYVhyQoMkG0kkDaIgSsh8o4up2lp/ZselSyWtvYtFLcJNMHnh81cRPGWf7yEgtkJnMrDoEqaTi4qPbz/4c7qN1one2hmWPwox4yTU72xX+zoIjI1ukySOh2sIyy4OV3gZ7NnG7LA1yvjLwTp+naZoNneQ6baw+ItOjCXjSFvscjyySKSWZFi2jkhnO7AYEjeldr4Ue41LxBp8cbTW9q1gYZPLtPL+0xCAylmXKjncgbJY7drfNkKcn9o34ZXEltaQWt0z3ulW9rEPImaSTULD7JDIrwkhDJGx+ZQVBJwG2EMqehLmk1GT+ZXs04aq573o/wALr74gfCayaa7W8vbOzmlmleX99dKtkDDJvyVbzGVgQSOGDHbgZ4L9oA6t8OvgPb2OpfaFuNA10aHcMW2RzxKkpjwCu8qYvLGOExGD1JDewfsdfEm6vvhvb/aISPs9xPYRzAqyyxgoVAAwNgaQIMbiAhPJzXn37R2tXE/xA8QW9yGGl6xqsa6eQHURXdpbWspVWUfL/rU3lBwoBBKlc+Dg8RVlXnh6yvyXfrr+tz0cZRpqgqkPtK34f8A+ef8AhIYv+f7T/wDvj/7Kiug36D/0D4f/AAXTf4UV2fXKn/PqX9fI+Y9/z+7/AIJxdprt54ZiDWsN3DpurQrDFBcQjywrAucsVPIzwUYHjPXFeleC/jZHomr22oWNq09jHaO5jkZgsLy7g5X5XDM4yOFBU7cDAIHnNr4XZ7uRvtkzfOC+8biwK9MjB7d89vxV9Ajik1TzpHM0ul3F/GbdI4EWVd2S6hTvyOMZGOo6CtJRTaivi9DaXNBe7uP/AGrfDWl6Zd6bdG61SfXNRkkvdRmurRIZJjIC8YEe4gbWkZS4wCGBCkKAcXxZqMd3/Z8SW7WxiiCxl3/eH5sDcV6AFiAR/CRgkD5avxx8T6hrnh/T7i4upJGuHgj+ZVJVFVkRQcfwiPqMZ3c579D4T8H2Pi3RZIryORrpNRFn9pEzlmWSG6c5UsVIzCvGOcnmvQ5vZYZSqbL/ACQ6FF1P3UfRFf4YXE2gfEHQri1iilmhuNwhkIeOTdvDAqeGyvG3+LgV9t/CvxpBo2iw211KWUBj5hA3O/yjB8sYyWAGRgdPu9B8a+BtEk8H/Em3WO4866jkCLM0Ywo2spO05GeQQTnBHQ5r6Ei1NrPSLOGFVhjbTdzqnAk2INufYEqfX5OvJrDFe9bl6nfg48t0za+E8Y1nWdUu/Msz5mo/adsiZE7xSpK3y5yw2mXgghSQwyRivn79p34tal4r+LOradeWcM0Nvf3SW1ldMsy+RLPLMgEjDeq7pmYDOcv3GK92/Z8ni1Dw3rHlwiKW1uZIQ7HzOHDxNjI+XI549x0NfN37cMSWf7TPidIY1ht5bjzViHKxHKAAE5JA2rwSegrDCwTxKpyV9L/c0dmIj+45ul1/X4HXfs/XOn65rOn2uoLbte2OpR/M8QmMsb4jaNRg7sDdtXryx4xVz4oQWmh/EPxELOP/AESFWs7wEeYkYDN5VwAQ2BH5jAbfm2hGDEsQ3mvw6uf7C1e31CJdrLfqyKFQ4dPuMd6srfMRlWUhl3KQQ1dN8TZhN8Rry6dVVpBcjyovkhDK8wY7eTyOAM8ALksRkvEYezUFs/8Ah/0PNrcsoKCJ7ebUNK8Y2lil3JEL5HSRnYSxtG0gwGDErIGUIOV+ckZGWIPsPg7whpus6DCsNzbR20IlMluk3mXE6ZSPziwHBDAbyAAuxgNzBQfDPEF7Jq+iafHF5dquml4IlSGNV8tmecKdqqW27toLFiFCgEYArf8ACmkXGurpupPdG3aOSWOGK3DxrFK2cyZ37ipjypQnBJLEkk1yxjaO/e+n6f8ADk0dGkv6/q6Ow8P/AAzbXfEt9o91dWdjPHaCC3kli+yKzR2yKrOWSRNhccs29iCByWwvRfET4VX3jfw5rWrQW8WmXHh6WKzuNKvT5zXRilYh9ybiwSMMryNmQxIAVIKgXvCWl2ura7pfnm+j1TS71Ua+trgQtM/2oQySBNpRGdlkZgBsIkA25Xeaf7Tl8vw/+PHmWMfzNDHZ3yEIkd40dtvSTaiqEIWNVwODtU+obtqSqKPtJbLr6bnU5ci5+m5R+Bfxm8N+ELO3s7aSe3jltFs7e3gYi12PcTYZ/MciPLTySEISNrqASQsYd471zT/FHxZ8YW8F1fX7WsN4/nwwp5Sq8NpaNxuz0TA27iCVPByw8n8LNa+H9e0kvarcXSS3emNN8qborcwRxkDaRu+cFicghFGBjNVY9auJPE1vqissMyzQXMOwFTFNJJtDE5wyruJ2kc+orH2VOjXlV3cl/X5fPqFXGNU+WWyaD+y5/wDoL3//AIDx/wCFFdl/wjo/6Bvhf/wDvP8A5Lor0PrFE5/bQP/Z</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>/9j/4AAQSkZJRgABAQEAYABgAAD/4QA6RXhpZgAATU0AKgAAAAgAA1EQAAEAAAABAQAAAFERAAQAAAABAAAAAFESAAQAAAABAAAAAAAAAAD/2wBDAAIBAQIBAQICAgICAgICAwUDAwMDAwYEBAMFBwYHBwcGBwcICQsJCAgKCAcHCg0KCgsMDAwMBwkODw0MDgsMDAz/2wBDAQICAgMDAwYDAwYMCAcIDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAz/wAARCACCAMIDASIAAhEBAxEB/8QAHwAAAQUBAQEBAQEAAAAAAAAAAAECAwQFBgcICQoL/8QAtRAAAgEDAwIEAwUFBAQAAAF9AQIDAAQRBRIhMUEGE1FhByJxFDKBkaEII0KxwRVS0fAkM2JyggkKFhcYGRolJicoKSo0NTY3ODk6Q0RFRkdISUpTVFVWV1hZWmNkZWZnaGlqc3R1dnd4eXqDhIWGh4iJipKTlJWWl5iZmqKjpKWmp6ipqrKztLW2t7i5usLDxMXGx8jJytLT1NXW19jZ2uHi4+Tl5ufo6erx8vP09fb3+Pn6/8QAHwEAAwEBAQEBAQEBAQAAAAAAAAECAwQFBgcICQoL/8QAtREAAgECBAQDBAcFBAQAAQJ3AAECAxEEBSExBhJBUQdhcRMiMoEIFEKRobHBCSMzUvAVYnLRChYkNOEl8RcYGRomJygpKjU2Nzg5OkNERUZHSElKU1RVVldYWVpjZGVmZ2hpanN0dXZ3eHl6goOEhYaHiImKkpOUlZaXmJmaoqOkpaanqKmqsrO0tba3uLm6wsPExcbHyMnK0tPU1dbX2Nna4uPk5ebn6Onq8vP09fb3+Pn6/9oADAMBAAIRAxEAPwD9dPLZJm+0Sbt5zllU4LNwoI46EAYycAZ5oDsHdbfa3nIEdc9FBJbH8zwM4GfaKOPy2Lb5WaTEiAr9wH6exA55680siyhWZfLVSMYPOMnBPfoDx647V82eoNRmt4mVRudyCfMYMwBx0PAB69PXv0qK1WO4SNv9W0ID7WQMFzkAjPfB6ZyA3bPNmMtMT/FtIBJU7ckZyD3GPTOP0qJZY1ud8c0bRscAKNwm7qd3bj19aYEsZk2r+8Zo8BNpAIGCSWHHqRyTjgUhZXdWg+ZlAdSvSQENjj8T69j9AWrJukdpPKYYUFOhOOhHQHIz1/nVDX9ftPDn2Nr29htFvrmOxh3jmeVzhEXGSSc9BwFBPQEiqdOVSShBXb0SJqVIwi5zdki8FmtrlZn2rLkh03kr2PTA9xz64I9IUhil3Q4AZ3KlVG4ONoJz1GOcHJ5yBzmrAbJXJUl1LcL0OBkZxgYJ74yO2c4hvVjCxJHcKksLKzLt3AAYyuCc8qR2wNwPWoKJ2mdDtRt2MOQMDsQOB/IflSRXKs6hcfeMbsD80ZUZ6dTwT+Y7c0hjMk0LI3yrkEFMhwBx0PUHB5zxuGOchiwKiny5Nyq5YAjd1JBBzyOv1/CgCOfzrw3Ef7y2+ysFUtGyK2Ap4yAGGGA+UkdRkEECdXha58yZYyrKA7MfkzlflOefm9+PpSTW/nRFf3ckbLlg4x3yeD26fiacUijJaZf9H3bSu7G8cDGffpxzQAufIHC7VkyoQ88+nXOMfh9KZLd4jlkEYdlIOwtjAztJBb2z09Rzihna4jk/vKfMJChtuT/L+h4PGabLCpuflZo/NGNo5C9cdev9cegoAdeja+3aT5iDzMqeR93+fGSRnHXio4V2Rx+Zmd1bAwcErnrgnHAyTj8B2qQRNKV2yBjt+YHgjjIPHfk/5zTYovsscaRxoNgPmFCCF5yf5fn6dgCe6g+yXassaxKoDcHCKpGc/wB0k8HPHUnvTUXzZD8v3VJ74YHPY/r6Z6UnnwwyRqoyJhGnzfNkqp3cEDrgn8utZfiXxHY+B/Dl7q+pXv2ex0uB7m5mdSPKjVGLkgDPCqScdwfbABeN8GtPMk2q7vhcfMoOADjrnBVsgY+7njmi2hRWkLBRC+WHy42c5Iz3z1wQP5AZ+teMtH0DwReeIrvWtLs/D9naPqU+p3N5HHZwWioZWnaYkKsSx5Yux2hQSSBk1578fP2j9K+F/gPQ7zw7dW2r+JPide2ui+CmsbQ6vFqF1cqXjumihlQyWVvD5l3O4lQC2glZXBK5pRvoB5J+1l/wUi1bwh8QtV+FHwH+HevfGP42WNuqX1jBF9n8P+DZZYPNtn1e/dkhi8xBI8cKvvm8lk3xM8ZNL/gmz+2D8VPGfxa+JnwV/aMtdD034y+CLx9esJdHtjb6V4g8OXUh+zXNiWffPFbzb7dnKKyqbdJS9wJyOZ/bn+BPjD9lf9rjwr+1d8KfDOu+NtVYReE/iV4N8P2MBvPFGjSgJDqAO3Ml1aT+SS23LQpGpkgghkLfm7+1z/wWhh8G/tV6b8XtWt/Anjb43eE9OFn4P0jwfci48I+DbK9SZ501PV4XW41zUESSKIw27Jp8TPM8cjSNJGvVTpKcbRX+d/8AIxlLld2f0ENPHbvJuKpGiMr5OAASDk9gTg9fTrUdvsgaRvJzMyghio7Nx3G3Hb/6/HAfsm/tQeFf21v2c/C3xQ8Ez30nhvxZbSXNuL2LyLiJ45GhlglQkgSRTRyRkozIShKs6kMfQYxjy3ky21OcD5euAfzPTg/rXJazszZajR9jiG3co28Y2jiiof7euF4NlcEjj5XQj8CTn86KRViUPDYxxrmSV/lVsgsd2cn1wB+QB7cCnrMsUsnmbiMlGAIOPyOfQj298ZbeRtDcQr5ceN4Ej+ZkKODx39D6YyevUmj85fLWRlZk3HY3K9xn0ySOBxzigkbAySWzMqr5akKAy7TnJAHt/hip2hFtaNJskXc5XceGYrjI468Ee44HJzTJJEtVzNtjjjJZtw2rENpIJ5+UYyc/4mo33SgosccKoCsKj7wHXbz0/XpQA19Qgs7F7y6uJY9sQllEz/JGoGSx+b5cZIPB7cmvkv4ofG6T4qfGvQ5LWdv7G0e+hXTyYtkjEtH5kpxzlmXjgAKF+UHdnsf2vfj+uJPCehXjbizrq00Q4I6fZw2fYl9vsu4guteEeBjjxto//X9D/wCjFr9g4J4X9jhZZpiV70ovkT6Jr4vV9PL10/MOLOIfa4iOXYd+6muZ92nt6Lr5+mv39Btmu9kZHDFlBU8AjOc4x7HGf4fapbWyjmnaVo3ZoULbwudq5wecDAJxn6DjikBWMr/EoXYu75g+AM5OOSQc59/c0SOJV3eXHtbDPIQArnB+br2459ua/Hz9PGK73JjwZ1ETEEb8Fxt9M/Nz64/QUSuCZAjTGNXVMMQcZVQMAYz82fU5wM4GKVU+yeYzHcYwSfMHyj5jtPTnnHHbPpTok2z5bbGWHcFcjAIyP689OTjBoAqmdS6gN95fKwI2GSOuOOOvHIBIHXirMkPnS+WyGT5h8sfzc5+U49QcYz3pzzqUj7bTliByOQM/hnv7Uskkhdl/5aKCMx42rxwTn8TQBFKXEEkYLSOwwWaTy8njPTJGeegIz+j5MAqI2uN7Bwy712lgVAz9BnnOPbAqM2qrLu3TMZnwvO4EjPXqFPTr64z0FOkRZdkmB5YLMh5AXBB68Z7nBPPtgUAV5Jw0uEyrY8xsRn5hggYIB3fxYGM4I4GaniLMny9SNx2HB5POO+Pf0NTb2UHkcnbnB9R+P9aSXMUUeGzGwLDyyNxIwD+XqOeaAIY7lZjuSRpl3ELggqVzgHg4/rye3Nfnd+3N/wAFfV8efAH4l6d+z14D1740WPhfTroeMfGloPL8IaHp8e7+00hvnaIXt8ls8bpFAHTZOswaVYXib76+Jfw20f4v/DvxB4V8SW0mp+H/ABJptxpOqWzzuj3VpPG8MkX7tg4DRyMpKkHuDnGPyi+HPx/8Vf8ABMP9l/4ufsf6h4J1j4geLPh7pmp6p4R1DTYf7M07V/CN9DeXs2sahe3LeRbLZyNcQyHIVpnt4IhIyvLWtOKabtd9tiqc3GrFp213te3y6/qefaP+1P4u/aM/Z58N/Anw/wCJotN+Hvxev7a01fxQ8cyzaB4ekYG/jgkAISa4V0gEcqsCss4YKgeSL7Z/Yk/4IbfDX9hb9rC4+I3hXxF4n1TQbWG9fwt4V1WcXVl4UvL/AGJeXVrKfmLyWsVtbLuBl8pCJJZiUMf4t/scftBeGPBnja5+HX9vQ6hJqV7cXltPbRNDo1ncP5bGwsd5Z2i3Gcq7+WrFRtVjJub9nv8Agmx+3cb77L8PfGV+ftACw6JqMrnc4GCIHbswCgIScH7p5A3YRrTpP2Er+Xmn+v8AXr9nnWTwxlB5vg7XX8SMdeWSSu1bo936372+2PEvh6z8V6DdaTq1nb6lpeqQPb3drdos0N3FICjxSRtlWRl3AqRtIZgeK/lI/wCCxP8AwTb1L/gmj+1/qnheKO6uPA3iDfq3hHUZFJWayZz/AKMz5Iaa3YiN+QzDy5CqCVRX9Yclu94jIqsrNgHdIFIAJ74PbgY98YzmvzB/4OyPAfhnX/8AgnZoPiLUDZwa/ofjK0j0S4eBXuJvPt7gXFokmC6I8aLM4BAY2ceclVx2YOo4zt0Z8JWjeNz4m/4Nbf8AgohefBL9pS5+A+vzQv4J+Jzz32mB4UzYa3HApyZGdf3dxbwNEU2yM00dqECAyFv6FHuB5O7GY1BJLKc56n1OMnr7+oNfyEf8Eu9PuNU/4KV/s+xW0M1xIvxH8PylY0LkImpW7uxA52qqsxPYAnoK/r6WFgsa/MzKVYYXkj+9jPTIxnrk/lpjopTuuosPJ8tiWMNKit5Z+YZ4XP64oqql6rorLc3BUjKlSGUj2OOR70Vwm5PHm4lb5fL3Z8va27K52jkj0xkDoc9cUMEsmkLLuaaJUVx94cty3fjnHGBlvwaslxLJI8qrtVwVZG3GQA8Z6EDjO3p79aQS+X8yLIy4JBHPJJwO4xz17e3NAC2t0LNWlZmLE4XB+TnBwd3XPt6ceh8y/aT+NX/CrPBaLYXbf21qgdLQ+UJFXBAkdgw2jaG4z1fbwVDiu58ceMbD4f8AhW81vUWmW0sUDt5S73kyQqoozjJYgdQOeuK+G/iJ8QNQ+Jfiq41TUJG3SnbFEGJS2iH3Y19gPzJJPJJr7jgrhd5niPb1l+5g9f7z6R9Or8tOp8jxbxAsBQ9jRf72e3kur/y89ehj3t7NqN5NcXEkk1xcOZJZJGLNIxOSxJ5JJ5yateGdTj0XxJp95KrtHaXMczhPvFVYEge/FUaK/oCVOMoOm9rWPxSNRqXP13PqxP25/CRvS7ab4iEbDkeVFuznj/lqB/8AqA5BNNm/bm8LyxkfY/Em48AiCBdg9v3mOOTz365FfKtFfD/8Q5ybtL/wI+v/ANes07x/8BPq+L9urweg/wCQX4g+br+4h6ckj/Wjuf8APSopv23PBl1ZyW82k67LbzIY5IntIGjkDZ3AqZcEHPI6e1fKtFH/ABDnJu0v/Ag/16zTvH/wE+6Phr8W7L4weF5tS0m1vlhs7g2zC7VVkchUJI2sV6OOpHIxxwa61I1+0eT5kkcbKZAgOGAyu44bPTPU5Hr614j+w7KW+E+rRgsp/tR8Mq9MxQ/h2/8A1V7eLT7QDH5jRKXA8wZ+TGCdvT6471+L8QYKlhMxq4aj8MXZX16H6tkeKqYrA08RV+KSuzjPjX8d/DH7OXhK11jxXfS2unXF0tjBNFbvMxlZJHUbVBP3Uc5PHAHcCvLl/wCCofwZjuGkXxFfKzcbv7KueR75Q9zn+vauR/4LFTiX9mHQ/l2n/hKYWxkdDbXeOPw9/XuK/NevmsTipUpcsUtut/8AM/VuGeEsJmWD+sVpSTu1o1bS3eL/ADP1U/4eg/BiAMIfEF9GsmTgaTOu1jyW+53Yk/Uk0yD/AIKhfBtkRm8Q6hG7ACQDS7npkn+705PpX5XUVzf2hU/lX4/5n0H/ABDvLv8An5U++P8A8gfqmf8Agp/8GY52H/CSahJCeGVtJuBvzyei4x1HTOMV8Pf8HAHjn4d/8FCv2Kks/BfinXJPGPgXUBrmnaWLO+S31tAjRzW7RBhE0wjcvFK8byBo2jQoLiQnw2irp5nUjJSSX4/5ky8Ocuat7Sf3x/8AkT8bdN1K40bUbe8s7ia1u7WRZoJ4XMckLqQVZWHKsCAQRyCK/T39kz9qnTP2g/BtpLHeQ2viuwhVtRskYpJG6kAzRjqYy2CCCdpYKTnr83/ts/sIappfia78V+B9MuNS07UpTNeaXZxF5rKRioLRICWdGZiSqj5OeAg+X5M6GvoalOjj6SnB2a+9eTPgsHjMdwxjZ0a0OaMt09FJLaUXZ/k92mr7f1SfsZf8FMvDL/DSaz+KnibSfCtx4Zt1Ztb1a9js7K6g3LGpklkZVWXc6rg/fJGMtkD8bf8Agvn/AMFlbL/gpL8QNI8G/D1b21+Efgm5kubeW6heGbxFqHzxfbmRmykKxEiFWVJAJpWkALiOP872d7iQbi0jHCjJyeOAP6V97f8ABJP/AIIZ+IP+Cg/xGvv+E41yf4b+F9CSC6ntntg2ua0hm2yRW8LkeQAiODPKrBGkhIimVm27UsPChaVWV3/XTU+fx1VYurOrhKThDdq91G/nZWV9l8j3D/g1R/YF1j4mftN3X7QGpL9l8I/DpL7R9JljvEWW91me2SKVGh2szQRWd47MSY8yTQbS4WUL/QPAqMzzTXHKbWWMMOedv5EZzg/Toa5b4KfA/wAJ/s7/AAn0XwP4F0Sy8N+E/D9t9jsNNst6LaoCSx3ElnkdizySMxkd2Z2LMxY9RAPNkjf7ikHcOCwPXH8h27/SuGtV9pPmMqcOVWJ4pp4Y1UXEuFAA/eD/AAoqo1/p7NlpIdx5O6Uqc+4zx9KKxLsSpCY44Wm8osFULtAwq5xg8nnA59T/AHafHOLh2QtGB/Dzk5H4+ox9ePSoL1Ihcwhm3NJIAqmMnB9cc49M8DoOCRnyL9tPxlqnhv4aW9paxvHa69cGG5uvP2soALCMLnLbwGBYcbUYEfPXoZTl08fi6eEptJydrvp3fS+my3b0RwZljo4PCzxM02oq9l1/rv03PG/2mvjR/wALM8XNZ6fLMNE01vLUF1K3sy5U3B2jnK4Vck4UEjaXYV5jRRX9PZbl1HA4aGFw6tGK+/u35t6s/n3MMdVxmIliKz96T/4ZLyQZrmfDXxp8HeM/GWoeHNH8WeGtW8QaT5n27TLLU4Li8s/LcRyeZEjF02uwU7gMMQDzXTHpX5p/8E1v+Uwvx/8Ar4h/9PdvXPmGZSw+JoUIq6qNp+Vlc6sBl8cRQrVpOzppNeetj9LKxfH/AMSPD3wp8Nyax4n1zSfD2lQsEa71G6S2h3HOFDOQCxwcKOTjgV8Z/tw/8FXfEXwV+N2veAfh7oHhW61DwfZrfaxqPiTU44LeYGJZWgto/PhMsqrJH8qu0jMJFWI7d5+Xf+CnX7cmpftm/Cb4faho2ly6V4GLO15FKzNLBr0YcTWzPkLKkdvLBIkioMrdHJDbo08vM+KsLh4VY0nzThpazs3ez18up6GX8M4mvOm6q5YS63V0rXWnn0P1z8EeOtF+JfhSz1zw7q2n63o2oKWt72ynWeCYBirYZSRkMrKR1BUg4IIrVr8ItUu/iN4I+NnwJjXwTpWj69otjpU/g/TEkeSLWY5NRmureaUtOxzPdTS7gHjABwFjAFfub4Su7+/8KaXPqtvHa6pNaRSXkCfdhmKAuo5PAbI6np1PWurIs8eP54yg4yha+9m2td0ra7Le1mc2dZMsDyyjNSUr22urPybv6rS9z63/AGF5JU+GGq7Q23+035HRSYYuc/l3Fe23EYvD5e/ysMGYjhuDnH0PQ+2a8T/YbtY7j4XXzPGsjprDlCf4T5MI69s5x9Cc8V7hJPslMmF3ryFlbqRg9D78entX4Nxd/wAjnEf4v0R+w8L/APIqof4f1Pkr/gsWcfszaHu2rI3ia3baG3YH2S7/AKnqOtflZ8a/i/p/wK+Hd54l1S3vbqysnjR47VVaUl3CDAZlHVvWv1R/4LEpIv7NOimRo2H/AAlEGNvr9lvM9z6Y49K/Gn/gov8A8mna9/13tP8A0ojr46tTVTFQhLZ2/M/duG8VUw3DlbEUvijzteqSM74ef8FI/AnxB8baZoa2PiTTbjVrhbWGe6t4vJWRzhAxSRmG5iFztIBYEkDJHX/Cj9qvSviz8bPFXgm10vUrW68Mmb/SZSnl3KwypDIcZ3IfMf5Rg5UZJUnaPjP4OWcHjT4vfCjTPiBGum6PHZRpon2O3SVtUBu5vJSdwzMqvPvQ8cAD5UDtKOyT9pvxh4D+MfxuuF1rUr630GDUE021uLlpLezkbVLe1ikWNty5jWTIBGCBt6E121srptuNJa26vTe3b7+xxYDi/GcsK2MmuXmd7RV2lDmaavotfda1kfdteY/DP9qrQfin8aPEPgexsdWt9U8N/aftE06Ri3k8idYG2FXLHLMCMqOPTpXx3pvxe+LGiaB4B1PUPHWoXGi+OtYluoYUum+0oYbhYJVdtoKxEk7Y1cx9TtBrnvHOteJPDPx8+Mmp+GtYm0WSwvb6S+mglaK4kt21WFNkbqNysZXiJwVyqsMkEq2VLJ9XGck3bS1972OvGcdS5YVqFOSSa5k7XcXFyVtdNNb9j9C/it8Z/DPwR0a31DxRqi6Xa3c3kQuYZJjI+0tgLGrN0B5xjpzkjMniX4NeEPGWqvfax4V8N6rfSAK1xeaZDPKwAwAWZSeBx1r8+/2oPFHiL4k/CL4U+Ktd1eTUG1XT7608kjaFltrt0abA+Xc8bQqSBkmLntX6C/CPwtq3gn4c6XpeuaxLr2q2aMtxqEhZmuSXYgksSeAQOT2rjxWF+r04zUvebafydtD3snzv+1cVVoTpL2cYwkrpfajza6vVp6WWlnd7DvC3wk8KeBtSa80Twz4e0e8aMxGex06G3kKEgldyKDgkA46cCu++G3xI1j4S+M7HXtBvJLHUrBw8br91x3Rh0ZWHBU8EVhUVwe0nzc19T6SWEoSpOg4Lke6srP5H7C/sl/tR6P8AtRfDSHUbTbpupW4+zX+n+apkt5ePun+JCMMpwOAeBg49TaQFNhK7th5wOBnOM5PcdOvFfi/+z38c9f8A2fviPa654fYSTMPs89o4LRX8TEZicDrk4wRyCAfav1x+Cvxc0n45fDjT9c0pvLhuCFuLd2USWk20b4nwfvLjt1ABB549vD1VUhzL0f8AXn+H4v8ADeKMheWYq0XeE7uPdd01vp36+t0uzEEMo3CPcG5B45ooE0ijHl2jY7sxDH60VsfMjZpftUrkO7spK5cMhYj5c+vJXr3yOuRXk/7VvwQuPir4ON1YyzDW9Di861tyx8u5zneijsxCg5IOdqr0LGvVo7sGZvLVojEwjYEYAAPPXrk5GeRxRJJG7bZ9rJGhYKB8qgE46d8+nOBxjFXTqShJTg7Nap+ZM4RnFwkrp6NH5z2tx9oi5VldTtdWGCpqSvbP2xfgH/wieqSeMNEh/wCJfdsv9qxJ/wAsZGIAm+jk4P8Atc/xHHiSOJEDL0Nf0bwjxFHNcJef8WGkl+TXk/wd+lj8K4myGWW4m0f4ctY/qvl+Vutxdu7gd6/MGy/Zd/ak/Z7/AG1/ih8RPhz4C0u+j8VatqqW099qdg0c9ncX/wBoRxGblGVjsjPzYIBIIB6fp9RXrZplEMa4SlOUXBtpxaT19UzzstzaeDU4xjGSmrNSTa/Bo/JD4sf8E8PjlpXxRtfipcfDLwl4wvvFkst5rfhkzG4hs72bCyGZFnViryu0ytBMypghtiDadf4uf8E1fjX4s/ZV0HS7TwHodrr914w1XX7rRNK1G0gt9Gt5re1ghiBkm2H/AI9iQFklbaVLsXL1+rFFeT/qfhPfXPK0/Nb3Tbvbd29NXZHqf62Yr3HyRvHbfbWy36X9XZXZ+an7ZX7GXxmtviR8AfHvgzwnD4g1DwH4Z0LTLix+0I5s9RsZmmAnUOoaBmkC743IHlvlkGxm/RvwlLqE3hTS31eNIdWe0ia9jTG2OcoPMAwSMBsjgke5rQor2MDldPC1qlWnJvntdO1rpWutOp5OMzOeJpU6U4r3L2a3abvqfUn7Ek6W/wAJtTZ/urqzhuPugxQ8k9ByBz2Ga9yRp5JpIx5bMw4kYkZzwMddowe2a8R/Ya4+FOrFVRpP7SfAY7Qf3UXfH+c17csM/nBYY1a4/wBWin5VbOOCM4HoDxjrmv574u/5HOI/xfoj9s4X/wCRVQ/w/qfJv/BYtn/4Zi0FZd3mL4ngByc8/ZbvP9Bj2/Cvyf8A2ivgz/wv74T6h4X/ALS/sn7dJE/2n7P5+zy5Ff7m5c5246jGa/WL/gsbIrfsx6FtbP8AxVEI/AWt3jHt3/EV+atfD4ypKFaM47pI/oLgrD08Rk0qFZXjKUk1to0u2p80az/wTzuLi88D3un+OG0/UvA9nFb2850cTLK8VzJcRybDMAuGkwVO4HaPpVP4gfsgaH8MJfih458Savea1ofia2uXu9OtLUW1xarLexXIeOUyMGeNowVDKFYgZwCRX1HSOiyKVYBlbgg96mOZV7rmeny733sexU4Ty7lfs6dpdG3JpPl5U3Fuz03T36n5beBfD9j4x+M/gfQ/Deo+INcVb2CMS3lkIfskRm811SFJZdsceZZHbeB8znaMFm+qtS/YJsvGHjD4lXlr47tXm8YtKk9vFp6yNpbSahDd4bE/zEeQUwQuck9tp92sfg/4b8L219/wjuh6H4c1C+tZLX7Zp2nxW80at7oFJAYK2MjlQe2R5H8D9Mbwp8WVt9UvP7Ju7fdAbWQMGu2ZSAmR8u3owJPzHZtBzkewsXKvGVSlLlcVtZNvW/b8vnofEvI6WV1qOExlNVI1pWupSjGPu8tld3bs29XrtHXar4x/4J6W3i/4HeDfCTeK5YbrwdLdtHfjTw0dwlzKZXUw+ZlSDsAYSEYVuDuG3274TeC7z4d/DzTdG1HWrrxFfWSuJtRuQwlumZ2bc25nORuxyx6VvNwNtB4TH+f8/wCfavCq4qrUjyzd1dvZddz9FweT4PCVfbYeHLLlUb3e0UklZu2iS138yTdxQDmmEbQB3Ndn8M/A11qepWpS1mlvLp0WxhVW3u5I2sB75G0c5znHSlh8PKtLlj94s4zihl2GeIrP0XWT7L9ey1N74H/CDVfFnimzs7C1e61bUsxW9unVAQMsx/h+U5Pouc9SB+o/7MXwBs/gB4HSxtxDNeTBJNSvTn/SZAWGAD/ChJCjgnB6c1+TP7D3/BSTxpqPx88J+Dfh34F8N2ur+MtQj0y/1PUIbrWLm2t3kUyzRxwy24WOGJXlcMTkRkl1A4/aHT4sBUjZmjmXJIbaMA9/oAOuO3TgD6KVF0Yqktj8Bx2aVsxxEsVXer+5Lol6E0EapAitDGWVQCTK5JPvk5/OipGhnDHFxtGeBg8frRWJyEdrcNc28bAOisg4YjLHOC3GeDzj2PIFOUJKjLt3MoBGcc4II5Ppjjn8fRLqOZmjVtwXcAMckgAcd+mfb8BTLmRo43kRZPvbl8vLYBP1PAGTz0GR6igRHfafDrOmXFpeRQ3VvdR+VLDIQyMrLtZemSDz19e2a+G/jb8Hr34GeOJLGbzZtJvD5thdMm0OD95T6MGz9QQejCvutIyIPL8zzGkIUtkcjnPOPwzxxjqevLfGv4VWPxg+Hlxod4yRXSsZYbgESNaS8bSowMjru9Q3Qda9bJc4rZbi44qj03XddV8/wep5ubZZSx+Glh6vXZ9n0f8AXofCtI7+WjMeigk1NqmgX3g/XL3RtTjeK+0uUwSbv48dGHqCMEHuCD3q34VsY9U8UabbTLuhuLqKORf7ylwCPyr+k8LmdLF4JY3Du6abXquj9Hoz8FxGX1MNi/qlfRp2/wCCvVGH/bcO/ady/hThq8ZbG2T/AL5r7it/2YPAqTBm8M6a2UB2uhGwkdGPX65z0HTvL/wzJ4BtY5G/4RjSyGX92QzDOe+PwYY78c9q/Gv+IlZr2h9z/wDkj9U/1By7vL71/kfCx1qP5fkk+b2HH15obWokJ3LIu3jlcdgf6jn3r7is/wBl/wAAyP8A8ixYdS25g42duOeOB9acf2YfAckz7vDOm/MQysC/YDIGW6kZ65xnPsF/xErNe0P/AAF//JB/qDl3eX3r/I4n9g+8iuvhdqrKit/xNGOSD8x8mIjp/wDW5Ne5zNJEmIVHmMwJJ6EZw3T26dicVieEfhrpPw+037No1vDY2s07TPFCg+clQp6gkYCr054Gc9DvSLFFKzZ+Vfnbys8DqfXsevX2r4jMMdUxmJniqtuaTu7bH12BwcMJh44ene0VZXPnH/gpd8F/Enxy/Z70/T/Cumtql1p+sxajNF58cGy3S3uQ0n7xlBw0ijA+b5uh5r8yT4D1ZT/x6N3/AI17cetftxcquoeZHPAZopBsZZV3pIp6gjkHgd+Oawbn4MeETLGD4V8PSbSwkAsohtGRnJ2jp7ev5eXUw0Kkuad/kfZZTxZjMuw/1ehGLV29U29fSSPxjfwPqiHBtuc4wJFP9aX/AIQTVSP+PX8pF/xr9mT8CfCKk/8AFPeH9uzGP7Mt2CnjLDKn1HU7QAMVJH8EvBsaLu8L+HizHGF0yEkYx7dOeM/nUfUaPW/3r/I9P/iIeZfyU/ul/wDJH4v/APCCaqZv+PX/AMiL/j/n+XK/E39nmT4g6b51zarb3FmN63Hy7ig3HY3IZk6nAIOeQRzn9vpvg54ShhYt4V0GRWfOf7KiTnv8uCeoI/iBznB6Dh/2j/hP4U0D9mnx5cW/hnQrOb/hGtQlt3h06JDG620rb1IXK845z15znJq44aFN89NtNea/yInxni8bbC4mlTlCTSatLv8A4j8M9H/Zw8O6lI8M1zrFvewAedAZ4225zhlPljchwcNgdCCAwZV0rP8AZm0fTbsTWeqa9a3EYOyWO4RWQkY6hAe/Yjg12fifw3/b9gvlXE1hfQndbXcP34WyDgjoyHA3IeGAHcDGj8KFvPFcs0eq2bWU+lsv23r9nuFJ4aF+NysATjO5OQecFsoYnFVv4c2+67efp+XXz+uxWU5Ll6c8XRjFLVS118tNpdl13XVLj/DXwp+Jnh68s5tF1K18SWUtwqlNUBG1iSC5yxYxrtXhXJJJAQ4avt/9kn4f6t+0rrNxp/w91e4s7Nma38UePbMDGixHltN0mVlKyalKhBe6XMdpFIrAtLIijG/Y9/ZT1P8AbO1ZNYkbUtH+D+iS+VNfWsj2914wmiYqbSzkXDR2aMpSW5XBcq0URGJHT07/AIKT69q//BPbUfgX4/8AAuqX3hP4W+GNfGg694S0VY4ba9gnDTMyQKqpO7QRXYzPMQknkvHtdpZT7UVb90rX9Ervzt+Hbqfj+YY6WJqOpqoL4YuTlyrsm236+e1tD6W+EH7Cfwh+B3iLTdS8H/D7wvpOsaDCYrPUUg3XUYMZhJ887pGLIXBdiWbc2ec7fYoZd2dhZduV27x6g9OT04x079hmuIVhtpVdZIZGbEcvmBlYYxwBnuBwwxnHA+UBumAy2Sv5jFpDgMxzwcY9eOfzPXvXI5N6sxVkPbw/CGOJLhRngLK4UfQZ6UVfivIY4lVlutygA4jyPzoqQIrqyUTR7oVX7OSyjBfYcdv1GeuCRRbo880mQrLDCHwPvcnB3D8OOufm9OViSG0lHlgMrH02ksTktgfU5OTnJ45oZTelQrNHt6kfxbcnp05Ht36jigAj3XBm8lmiABAZh5io2APmAPrz2xjr0zBHGrv8sbP9qyuNhO8AHrj7vuSOuAecVJLExiCK+1cjO1cL0GeBj0HX361FZN5qN5iK8kIUg45JPT8OgBzzg9MDIB49+1/+z1N8SvDUfiDRbcHXtLDSOEX5r6EfwccllwdvqCQc5Br5k+HVyLnxlozLkH7dCCCOh8xa/QBI4kbzPlEnAdtvOxc4Unr1Y4GR1PJzXzH+0J8CpPBXxb0bxRo9r9n0XVL+2+1xKvy2c7OBnj+Fjj1w2R/EBX2fCXEry6c8PWf7qomn5O1k/wBH5elj5biTIVjoxr0l+8g9PNdV/l/wbn0+o23gjGNxyAoIG4EYHGcnkE/l36xPKvls+XdoznIVgAcHoucnrwOc9uakNu0G3a0jtGxUuAFLdMk4HQnH19B2jhlztjYLteThmPQbQcYGTknnqOhPpXxh9STG0ZxJjauPlTd82GJJ7gHkZ68DtznMbGaO2doVha48tvLSVyEkbsC4BIBIyTgkfWnuRjaqtGNvAx1yMcden079KS2uzK6bVZlV2VsHdvA6HPUcjGPqPegAumMcMb7vL3AEMflKngjPvwfTt9KDJl5AI5FbBxHHkgD1JUnOeDxVeW1aQXhuCrx5zGYnZmKjac/dBU7t3QtwAc84FhJ/sjGVgzLGoDA43kjBBz0OMc5/A0AORjcqsmcKx3S4bII5POcn8vX8KQAlwHKgjrJjdnvyB0A69cEnFSz7kbd/EzlCyg8YPJ/TGPwzVaW5kaORUb94oWQdGLDOcY46gdfY/WgCVCwjbzcKyMXwMt8vUHp/d7djx0GaRrvzdmeoXhkPzN8xGPbHv7UXZbenzJiNcsM8knjuPYnnH1qKwwsUfkqyqH3DzFLBQCMjnkeg9M+goAhurgz3ZhX5biVSybuD1x37HIBJUg5HUYB4X9q9v+MaviBGPmK+F9SJy3cWsv5nqc+/4j0K4Ky301wkhkWPY5CryCUGARyBwfUdDjjO75++M/7X3wg8d/BPx7ptp8XvhrNcXvhnU1jEHiGC8kVRZys7eVC0kzhVG4rGjMQpwpICg5XJWRthqkYVoSk7JNfmfllpul/b3kaSWO1s7dDJcXErBY7dACSzE8AAA9SOnYV9C/sYfsTXn7Z8+m+JvEg1DRPhBpN3FJp2neR5c3jEISxlm3YK2ZIACY3TBnYlcBlg/Zc/4J9+Iv2l/ij5njLSdR8O/C/w+9vcf2HqEXkX2qyYWRTfqpxGzqBIbcM/leYiOxMZZv088L2FrpIa1sbVbe3tYljWCFCkaqOEAH3eAuDjB4GegC1h6Kw8OWLvJ7v9F/X/AAPd4m4gnm1ey0pRfurv/efm+3Rad2/LPhd8YY/CPxKf4VeKPDOn+D7iGab/AIQxbFSNI17SI1zAtu21UjuoIhtlsx8yiEzIGhII8w/4LhaLaX3/AATW8dte2VrPd6bPpd3aySxq72sjahbx+ZGTkqxjkkUkc7ZXHIJr6C+J/wAHPD3x28O2+k+LNOj1CG0vYb2zlhnktLixuofmjuoJo2WWCZDuKvG4YAsA2GO75P8A+CsOu61pn7AfxD8FeKL2G61KaCzm0XXLl4rKLxFDb31tPLE4+SKPUY4oXZoEAFwqGW3Tia2s9aVnUi13R8xP4Wj6U/Y61i88R/sc/CG+1G7ur3UL/wAHaTd3VzcyGSa6kayhLvI7Es5ZmyWOck5OSQD6lbzxrP5UaSHbjcSTyWBGcnIweAQenWvDf+CcHjrS/iB+wz8KdS0m6kvrWx8J2GmyOEMf+kWlultPHhtv+rmglXJ4IGQSrbm9ssLqQGSNWVd2OVU5HzH+fTn09RgZSXvNFx1SHW6K9vGzXFwGKgnbbsBn2G6ipWRwfltQy9jvAyPpmipKIrd4ZEYxCM+d80hjOV355Bx3B4PcYxT5IUlRy0hLFcHBH3c5I6Hrk55/KmSTmERxxxr8m1Mk8YGDnvz0Pt146UfaRab33RkI2DuG3joO5we31GfYgiSKUYy25fu+u7BGcng4IPHfpz0qNZVnu/M8to5EbgswHlhueg4bHAzUkW7yCzqySEhQoJZV689OOMcHHJPtl+8LYqyKpEjZCBCucYIJ4GM5PHXqcUANjht7eZ2RrdrhsB1STkDsTjP+0AfbGag1HSbbUrbybiFZkbClG/iwQQO/Tk+oI696lilaG12tGGkjX5mAK8jAOOemccnP9KihQpHDwpIjHyLhFVh0H0/DjB4OcUATRy4MaqCowVOepYdTjHfknoMjgdhHfyx3Ukdu1vI2w70Yk4JUgj5uMckcHn5T1FPtlM1zvaNgrL5gZGzuBHOBj6Y5Pf2qeFvs0k3mBcxDGPLILHsOB/dPXoMGgCuIIkaGSSRQ+5toMx3MCDx15GM8dPlBxwKd5MbRs+1VJYvjOdvJ5HOehPUetMh3XDqG2/K5KALkHjbz3656Y/xWb9/NMPLjjYurYC7d42qu4/l15OBgc5wAOkZJF/jjOwFgOeM989zz6cCpPtp06VJ1DNJ5i7QF5GSADgehGc9B36VXaCbzY2aHvsDeZ0AGAfunPPUAjgnkkc2ni2TNyo5xmQYwCeenp16ZwKAITbgQyF/L8uMZO58ZYHJ5z1wB19Ac96JRHPcNuWNw2VclhznPTnpyeffH0Zvj+eGORVjUbD5eGIHQHnIx8vcH8ez7qcIIVZYED70VjH/eK4A574PHTj64AGxCN3VcGNoxjgYDcHgfTB6fj1p6gvCqiTakWRlxjPf+Y/z2gkhmmYK0asoUMD5mMk9iCCOw55yScAVPFBI0a7gBwMlsYPOc+vpntmgD4+/4KT/s+ftJftVxXXg/wB4m+Hng/wCHV9aR216s+o3UerayNnzrM0dqwjg4KeXGx3jcZGKuUT8u7e18UfBvx/q3wB+Dlldal8Q9avD4e8Ua/ZQNDqd/dW88oudPsZjIBb6WpjRnkZY5JfIeSZkhxBH+/kiiWZWZo4WY/KNynAOTgFSRnAyMeg4zgr5D+zl+xD4N/Zs8eeOPFmmwjUfFXj7XL3WNQ1W8toxcRRXVwZvsMTKAVgXAYrk73XccABV6qOI5I2a/4fzMZ07u56xJDDa2TRqpRpnMjsg27W6lmI9SG5yMkdepEl1HLb2zxW7LHLId24LuwR09yDgdh/JakubMyNHMrLNDIATyV25wT9RwCPqSSeMD2zSzrufMasAc4wvQY69Ocevt1zymxA0S6TY3DRNmWZiSTIPnfZtAHp0PTHU5PVqwPir8LvDfxn+GureF/FmjWOtaLrlsbe+tLgNiWPI2nOA6uGRGV1w6MqsuGUAdPfW8eY98iBIxlsD7vqc+wVcj2HIOCGSwLDdMyyGQF9wV1G0cHOSAD0z3xngADOS/VAfjX+1x/wAE5f2jv2Vfh1rvw/8AhvceI/GXwT1nVv7ZFposUcmqSTSRrCYbuKFRczbVjUERhoGEaSlI2+VP0E/4JH+Cfir8O/2MtGtvi1cXkmuTXEtxpVvfyNLqWm6a6xiG3uSw3CQN5zBGLNHG8cZ2FfLj+kmtmmBMc0btBhGiOSxwAeWzxkjrzx2zgrIrSSIGHzMwIEYbIbOMH69fbj8uipiHOPK18zONNRd0Qm31Rfu3Fvt7bovm/HDYzRV6GLzYlbfCdwBzvHNFc5oOlUOsO4A/X8KqOPNgO75sQEjPOCFbH8h+VFFADlYgQt/FgHPfJB/xP50y5bzNSlDfMC7ZB79aKKAJixFuOTy/Pv1qGORvN27m2/LxnjpRRQBZlRUnk2qB5bhUwPujOMD04qCR2a2iyT/qh3/36KKAJIFEVtIVAU4IyBj1pC5RY9pK5bHH+4KKKAHSH9xB7h8+/WkkUNZ3OQPu4/8AHBRRQA2GJZC25VbgHkd+aZHI2+4bc24LLg55HC0UUASGRjE3zNxE7Dnocpz9aSEbnUHnbkjPY/LRRQBMsEeFXYu0mTIxwfneodRiWOO12qq7YwwwOh83Gfy4oooAJGJ2/wDXUL+G5eKLc7711bkY2YP93eox9PaiigCxNChjcbVwAuBjpy5/mAfwFOvIEYE7F/eS/Nx97nHNFFAFbezPHkk/Lnr33VVtnJt4Bk4+Q498/wD1h+QoooAvxWscsas0cbMwBJKgkmiiigD/2Q==</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>/9j/4AAQSkZJRgABAQEAYABgAAD/4QA6RXhpZgAATU0AKgAAAAgAA1EQAAEAAAABAQAAAFERAAQAAAABAAAAAFESAAQAAAABAAAAAAAAAAD/2wBDAAIBAQIBAQICAgICAgICAwUDAwMDAwYEBAMFBwYHBwcGBwcICQsJCAgKCAcHCg0KCgsMDAwMBwkODw0MDgsMDAz/2wBDAQICAgMDAwYDAwYMCAcIDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAz/wAARCACCAIIDASIAAhEBAxEB/8QAHwAAAQUBAQEBAQEAAAAAAAAAAAECAwQFBgcICQoL/8QAtRAAAgEDAwIEAwUFBAQAAAF9AQIDAAQRBRIhMUEGE1FhByJxFDKBkaEII0KxwRVS0fAkM2JyggkKFhcYGRolJicoKSo0NTY3ODk6Q0RFRkdISUpTVFVWV1hZWmNkZWZnaGlqc3R1dnd4eXqDhIWGh4iJipKTlJWWl5iZmqKjpKWmp6ipqrKztLW2t7i5usLDxMXGx8jJytLT1NXW19jZ2uHi4+Tl5ufo6erx8vP09fb3+Pn6/8QAHwEAAwEBAQEBAQEBAQAAAAAAAAECAwQFBgcICQoL/8QAtREAAgECBAQDBAcFBAQAAQJ3AAECAxEEBSExBhJBUQdhcRMiMoEIFEKRobHBCSMzUvAVYnLRChYkNOEl8RcYGRomJygpKjU2Nzg5OkNERUZHSElKU1RVVldYWVpjZGVmZ2hpanN0dXZ3eHl6goOEhYaHiImKkpOUlZaXmJmaoqOkpaanqKmqsrO0tba3uLm6wsPExcbHyMnK0tPU1dbX2Nna4uPk5ebn6Onq8vP09fb3+Pn6/9oADAMBAAIRAxEAPwD9/KKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAor42/wCCt/8AwW5+Ev8AwSL8EWv/AAlbXHif4ga9ayXOheD9MkC3d6ikqJ55SCtrbF/l8xwzMQ/lxymNwv8AOR+3b/wcqftUftuazewQeO774W+EZn/caD4LmfTdiYZcS3ikXU25Ww6tIImPIjXpQB/WP8Z/2nvhr+zha28/xD+IXgfwHDebjbyeItdtdLWfbjdsM7puxkZx0yK+afil/wAHDv7FvwflVNW/aA8H3jOwUf2JBea4Od3U2UMwA+Q8ngZX+8uf42NQ1G41a9kubqea6uJmLySyuXdyeSSTySfevpT9kf8A4JaeNf2vPCmn69pviTwT4b0W+kcG41i7nV440m8hnEUMMkkp8wgCOJXkIy23YrMPPzHNMJgKarYyooRbsm9r2bt9yb9EehluU4vMKjpYODnJK7S7XSvr5tL1Z/TJ/wARRn7Cf/Rc/wDyzPEH/wAg1658Of8Agth+yR8VIlbSf2ifhPEXfYqan4gg0qRj6BLoxsfy5r+T/wD4KC/8E/1/Yw0zwneafql1run65HIk19I0axvKrMEZIxiSNZAkjBJBuCqpzhhn5lqcpzbDZlhY4zCSvCV7dNnbbdf5WZpnGT4nLMU8Ji1aSSemq1V9H17Ps01uj++nwd420b4h+HLXWPD+raZrmkX0Yltr7T7pLq2uEPRkkQlWHuCRWnX8F3wf+O/jj9nrxYmveAfGXirwRrkasi6hoGqz6bdKrAhl8yFlbBBIIzggmv1f/wCCcP8AweCfGT4Da3YaF8fLGL4ueDWlWOXVreGKx8RadHlQWUoEgugqhjskVHdjzOBXpHln9OVFeb/so/tdfDn9t34M6f4++F/irS/FnhnUAF8+0lDSWc2xJGt7iP70M6LIhaKQB13DIwQT6RQAUUUUAFFFFABRRRQAV5P+3X+1no/7Cv7H/wAQvi5r0a3Fj4G0eXUEtTJ5f2+54jtrYPg7TNO8UQbBwZAccV6xXwj/AMHMvg7U/HP/AAQ++OtnpNvc3Vzb2ml6hJFCm4m3ttXsbidzwTtSGKSQkYwEJJxmgD+TH9qb9qDxr+2d8ffEnxM+IWsSa54t8VXIuL25KhEUKoSOKNBwkccaoiKOAqAV6z/wSh/4Je+NP+Csv7VNr8N/Cd5baHY2lq2qeINfuoTNBolgjojS+WCpmlZnVI4gyl2blkRXdPmav16/4M+P28vBf7LP7ZvjT4d+NL6z0RfjNY2Nnoup3Uwjh/tK1lm8mzYkYBuFuZAhLDMkcaAFpFwAe8ftCf8ABCr9n/8AYZ/aD8MeBtCF5r2oaX4dj8Q6vrfi6SG5a5ubm7kS0SOJlFmEQafeny5YsHzFVzcF1ROg+Ol1N4I8TQ634E0vw9pOn+JIrW0ufDGm+GNPt9K1KTctnbrcSRfKjzNcxRuY0tgo2b0kMbVf/bg8e+Ifj7/wUi+J1nZw2P8AaljrM2j2FtqlzHDqenW9pHDAE3zBI/sEzW73kKBiitcO7Zkkcj0/4M+HPBtxpmm6T4q8OyeIrrVruOFtPvtRu54J5LS5TdLiC4jgCiRFYRljGGCbVfapP4R4jcSUcLeji05U6kuXa8U4q6unqr2eqWm+9mf1Rwbl2Fy7K8NiXRUqip3urcz5/e+K6ulp6Wte2hzX7LOs6t4P+K+k+MGt/C+pWTXBuZLB7q4t47+KaMNJCJFjnEqO6QO5li2gQBgEfayey2n7AXwS/wCCo3xP8ReE/i58E/hjpdxNo0+p6Trvg+3fw/rFhtmSEESJJm9A81TveMRxvCBJFieNF8x8E2Ok6Z8CdHktGsSs3h+yuV+14SPzEgSTzFfDbpTPIxAIGGX72enE+Hf+CnGnf8EwdOvfidqWk6742ay02702WGWGeSSY3MaPAhvf9XGz3sFnGzShylvC5RC+Fk+C8NuJ8xw+Z0MtdX9y6jTSS1bTirvVrZaWXd63b/jHFcZ5tnGOo18xrueiWqitHrbSKb1b3btsrK1vxh/4Ky/sEj/gmf8At6eN/g/DrzeJ9P8ADrW1xYalJAIJp7a5to7iMSICQJEEmxiDhim4BQwUfONeiftY/tR+MP21P2ivFnxR8eX0eo+KvGF59rvZI4hFFGAqxxxRqPuxxxIkajk7UGSTknzuv60Ppj9IP+DYj/gpHrX7D/8AwUa8M+DZ7qST4f8Axq1C18L6zZMcpFeSuY7C7T+66TyBGPQxTSZBIUj+tyv4aP8AgnV8ONQ+L37fnwT8M6YJPtmteOdGtUeNCxgBvYd0pA52ou5yewUntX9y9ABRRRQAUUUUAFFFFABWT498DaT8UPA2teGdfsYdT0LxFYT6ZqNnMP3d3bTRtHLE3+yyMyn2Na1FAH8YP/BZr/gkh4u/4JKftSXXhi/S/wBW8Aa8z3fg/wARyxAJqtqMFopCvyi5hLBJF4z8rhQki18g1/dl+1p+yD8Of25fgnqXw9+KXhix8VeFdSZZWt5y0cltMudk8MqEPDKuTh0IOGYcqzA/zX/8FRv+DTr41fsjarqHiP4MQaj8avh75jSRWthb7vE2mRk/Kktog/0rGQu+2BZiCxijFAHzl+zz/wAFrPF3hHwxovhf4weEtH+OXhjw+ETSrzUr2bSfFmhRoJQkdnrdv/pCorTMRHcLcRrhQEAAr9Fv2I/+Cg3wh+JHgfSdQT4geHPB9tDfyMLLxZexSa4ieZlI72TzMXnQRiULGJI1UlUJMa/g5qulXWhalNZ31rcWd5auY5oJ4zHJEwOCrKcEEHsar18VxtwVh+I8JHDVZum4yUlJJN6Jq2vTW++6R9Rw7xVisplJQvKDT91t8t3b3raq/TbZn9N1j4s0L9pH4y6p4f8AgB8XPgvqWrRM2pzadrOvQ6bb2M9w7sY7QwrcO4d3nk8lYHWLnMkYaGI+D/tr/wDBvd+3V+014S1a3m8Ufs+XmlalcrdS6fpOtal9s1Ah96l5rmyVCQ2GO1kBIHBr8Ca7H4XftE/ED4H6pHfeC/HXjHwfexEFLjRNaudPlTB3DDQupGCAfrzXJw34a5PlPLVcfa1k+bnldvmvo1G7imtLOzlpdtvU+TxuEwNbGPGUqEYNu9leyd73tstddEkuiR9taz/wav8A7cmlBjH8H7O/Ve9v4v0XpjPR7tT7etc3e/8ABtV+29YTbH+A2sM2M5j13SZF/NboivLvC/8AwWX/AGs/CF8txaftIfGiaRSCBe+Lr2+j4OR8k0jr9eORweK/Qz/ghP8A8FGv+Cgn/BQz9tjwx4X0f4vavq3gHwze2upeOL3WNFsLqzttKE4eSB5WtzJ51wqSRRBHWQ5YqyJG7p+gGh7h/wAGzf8Awb5/FL9lz9rC8+N/x68Lt4PvPBtrNZeE9Gnu4Lm4uLu4iMUt65hkdFjjgeSNVbJZ5i3y+UC371UUUAFFFFABRRRQAUUUUAFFFfnX/wAHCH/Bbyx/4JPfAq30HwlJp+o/Gzx1bOdAs5lE0ei2oYo+pXEeeVDBliVuJJFbhlikFAHoX/BWn/gub8Hf+CSvhRbfxJcS+LPiPqVsZ9J8G6XMq3k68hZbmUgra25bA3uGdvmMccmxgPyc+DP/AAe6/EbS/H2pSfEL4J+C9a8L3Uv+g2/h/VLnTb/TkLj/AFks32hLkhMjASHcxzlR8tfit8Tfih4k+NPj3VPFPi7XtX8TeJNam+0X+qapdvdXd5JgDdJI5LMcAAZPAAHQCv0G/wCDfn/ghFqH/BU74jXHjjxw9xofwL8F3qx6tcq5hn8RXCgSNYW78bFClTNKCCiuoX5m3IAftN+z58XP2Qf+DnLwLrF94g+BPiq6k8IKtrNrHiTRDpssDFVYw22rWUx3bS4PkmZWx8xi2nNfIvjn/g1v/Yz/AGqbq6X9n79qa203VftLB7SPXdL8X2lqATuiWKGSCcEdAXmYjHOa+Zv+C5f/AAXd0HxV4Lk/Zd/ZNi0vwT8APDkT6bqWoeHoBZR+JsljNb24UDbZM7uXbG65YuzExsfM/IgHBoA/aj4pf8GSfxx0jWPL8E/F74U+INPz/rtbj1DR5v8Av3DDdD/x+vEfiP8A8Gi37ZngfVGt9L8O+BfGUK7sXOj+KIIomx0wLwW7/N2yvbnFfBPwc/a7+LH7PTt/wr/4nfEPwOZMBh4f8RXmm7+uAfJkXPU8H1Nf1n/8EEv2T/jf8Av2R7XxN+0J8UPiP47+IvjyGHUG0bxLrVxfR+ErUgtFbBZmLfamDhpmY/KQsageWzSAH4KfD/8A4NNP21PF/jLT9N1TwH4b8K6fdyhJ9W1HxVp81rYr3d0tpZZmHskbHPbvX9IX/BLD/gmN4F/4JS/ss6f8OfBsk2qX00n9oeIdeuUCXGvagyqrzFQSI4wFCRxAnYigFncvI/0lRQAUUUUAFFFFABRRRQAUUUUAYHxW+J2i/BT4X+I/GXiS8XT/AA94T0y51jU7oqWFvbW8TSyvgcnCIxwOTiv4jf8Agoj+214i/wCCiH7Y/jj4t+JPMhuPFF+zWNi0m9dKsI/3draKQACI4VRSwA3tucjLGv7avjR8G/DX7Q3wn8Q+BvGWlrrXhXxVYy6bqtg00kIu7eRdroXjZXXIPVWBHYivxc/bq/4MsvBfjSW81j9nv4hXngu9leSVfDvivfqGljcRtjhu41+0QxoMj94ly7cZYY5APxF/4JrfsB+K/wDgph+2F4V+E3hRms31mU3GraqbczxaFp0eDcXjqCu7YpAVSyh5HjTcpcGv2j/4OSf24fDP/BLj9h3wZ+xB8C4Y9F/tnQFi12WKTM2naGzOGiYqAGub+bznlckEp5uVP2hWX6h/4IGf8Enbf/giR+yL8R/iF8ZZNBsPHuoLd6h4i1S3lF1b6HoVgruqJKFztZUkuX243BoVZd0Qx/Mv+2/+1Zrn7cP7W/xA+LHiKSZtT8caxLfiKR95s7fhLa2B/uwwJFEv+zGKAPK6KKKAP0Q/4Nk/+CeUf7en/BTHQbzXLRrjwP8ACZF8XayGQmO6mikUWVqTgr89xtdlbh4reYe4/rsr8l/+DOv9lC3+C/8AwTI1D4jz20S618YfENxefaACJG0+wZ7O3ibnB2zrfOCO0/tX60UAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAfBv/AAcw/Gmb4Jf8EW/jJcWd01rfeJLaz8OQlXKtKl5eQxToMEZzbmcEdxnORxX8etf2bf8ABc7/AIJt+KP+CqX7DE3wv8IeJ9I8K61HrtprST6osps7sQJMvkSGIMygmRW3bHwYx8vcfzeftS/8G0v7Yn7LBvLib4V3Xj3R7R9i6j4JuF1oXH+0lsgF5t92gXHfFAHwZRWp4z8D618OPEl1o3iLR9U0HWLJtlxY6jaSWtzA3o8bgMp9iK7T9jb4WWnxz/a9+FXgnUI5JrDxj4w0jQ7mOM7Xkiub2GFwDg4JVyOh+lAH9rX7B37O8f7JX7Fvws+Gq28FtN4L8MWGmXiwtuRrpIF+0OCODvmMjZHBLV61RRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAcV8c/2bfh3+0/4Wg0P4keBPB/j7R7Wf7Vb2XiLR7fU4LebYyebGsyMEkCu6h1wwDEZ5r4Q8S/8ABrl+zfo/7UHgT4ufDWPxD8MfEfgbxbpPiqLTrC6+2aLeGyvobqSFrebMkfmrGyAxSqsZYNsYLsb9JKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooA//9k=</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>/9j/4AAQSkZJRgABAQEAYABgAAD/4QA6RXhpZgAATU0AKgAAAAgAA1EQAAEAAAABAQAAAFERAAQAAAABAAAAAFESAAQAAAABAAAAAAAAAAD/2wBDAAIBAQIBAQICAgICAgICAwUDAwMDAwYEBAMFBwYHBwcGBwcICQsJCAgKCAcHCg0KCgsMDAwMBwkODw0MDgsMDAz/2wBDAQICAgMDAwYDAwYMCAcIDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAz/wAARCACCAIIDASIAAhEBAxEB/8QAHwAAAQUBAQEBAQEAAAAAAAAAAAECAwQFBgcICQoL/8QAtRAAAgEDAwIEAwUFBAQAAAF9AQIDAAQRBRIhMUEGE1FhByJxFDKBkaEII0KxwRVS0fAkM2JyggkKFhcYGRolJicoKSo0NTY3ODk6Q0RFRkdISUpTVFVWV1hZWmNkZWZnaGlqc3R1dnd4eXqDhIWGh4iJipKTlJWWl5iZmqKjpKWmp6ipqrKztLW2t7i5usLDxMXGx8jJytLT1NXW19jZ2uHi4+Tl5ufo6erx8vP09fb3+Pn6/8QAHwEAAwEBAQEBAQEBAQAAAAAAAAECAwQFBgcICQoL/8QAtREAAgECBAQDBAcFBAQAAQJ3AAECAxEEBSExBhJBUQdhcRMiMoEIFEKRobHBCSMzUvAVYnLRChYkNOEl8RcYGRomJygpKjU2Nzg5OkNERUZHSElKU1RVVldYWVpjZGVmZ2hpanN0dXZ3eHl6goOEhYaHiImKkpOUlZaXmJmaoqOkpaanqKmqsrO0tba3uLm6wsPExcbHyMnK0tPU1dbX2Nna4uPk5ebn6Onq8vP09fb3+Pn6/9oADAMBAAIRAxEAPwD9+s0uaTpSmgBM0uaXNFACA0ZozSZyKAFzRn/OKM4/lRuoAQnilzRuo3UAGeetGaN1AbNABmkzxS7qN1ABmgGjNBNACZ96KdRQAgpaSloASlpMVDqOpW+j6fcXd3PDa2trG0000zhI4UUZZmY8BQASSeABQBNXzR+19/wVj+D/AOx3dT6XqusS+JPFFuxjk0TQ9lzc27ANxMxZUiwRypbeAQdhFfFH/BUn/gsvefEeyuPAvwX1bVNM0dQsmpeIbPzbO+uypV1igfKvBEcFWJCySNhAApIk/L/XL+4upPLW5XY6Y2lv3gkO7GMjkcHJOR0PPb5HMuKIU5ulhdWt30+Xf129T9EyPgWpWgsRjrxi9o9X69vz9D7f/aG/4OHPjB471N/+ETutH8DaT5zW8cNnYR3Vy2c7vNluN33Bg7kSPqCVOQp+JfjX+3V8Sfi/Bbw658QvF/i+K1dmjjvtSnuI1UucyBHYhdxBAA7FVzgBTwtzrnlpdLd+XM1wuMOxaNi/y/uhwqttQOXzuJVQGLcVyPiCLzhdTTtIz25ZZIXk8vZk/cUfxYZjkDcc5JOMGvKjja9XWrN+n3dD66OS4Sg+SlTUV6a/fu/mTat44uLSZWae5tpMBBDvCkEttOApzycHnjA7A89h8JP21fiN8EINQt/C/jzxV4Ra9RYi+ka1cWm47xtLiORQ2F3Hb8xHI57eS3UM22JRKsaySb5CXHyjAKseOCRnjJx1zyCBrm3trb93BEszKcMRuVfu42g8ZG05x0yo9M90Kkt0zhxGHhtKOnofpB+zd/wcifHz4Wa1b2PiS+0f4haZHJHBcR6zZRxXMSIPm8ua2ETeY/A3SLKBnOGJxX6n/sU/8FxPgj+2Vq2n6AmqT+CvGF8qRxaVrpSKK8nOA0VtcgmKUhyAqsUkfqI+GC/zHiS4uzO6fKs5QyIJNockttyOFPX8BkZHIq1pmsyabLIqrNFJGxOVkKj5t2flwMfe6qcr06ZI66OZVoNWfMvM8TE8P4Sunyrlfdf5H9lYOaM5Ffg3/wAEmf8Ag4D134A+IdP8AfGPUbvxR4DuJFgtdbklkudR0IEBQSW+aa1QrgpjeoOU3ACM/ul4P8Y6T8QvCmn65oWpWWsaNq0CXVle2cyzQXUTjKujqSGUg8EGvfwmMp4iN4b9UfDZhllbBz5aq0ez6M0un50daM4o6fhXWeeG76UUY9qKAFxmjFJ3pwoAQmvzJ/4LOft+XV/JefCfwfqEdnY2b7PEl6RzcygjbaqeyI2DIepK7eArbvtH9vn9o9v2Xf2XvEnia1kjj1qSL7BpBZlAF3KGCP8AMCp8sBpNpBBEeDgEkfjd+zz8C/Ff7XXxOcWsltdalJJJq2oXmpzP9nRizNN57Kc4OXUyMpJ3LwSwr4XjPPJYamsJR+Ke9t7dEvN/kfoXA2SUq05ZhirclPa+11q38l+PofKn7Q/j2++EXgCbWJbc6ncXyzFLa5vJoPtbwW8t1I5KI68QwuUBHJ25YY55nWb68TR7ea70u1XUk3vNFp1/FcRvu8zbEJ2MPIwhG5VALJhiAXX9FPGv7AumaX+zTqnxC8Rapb3BOoQ2drb3tnGTdSKRcGUq+VaQGJHAQjb5RYYMYz8G/FHwjaW95qltDZ6eFkneS5int4/3ju5m3MFBDt5jyOSVYEnPVyR+d5djoVFGLjZ7311T2srqy/HrdH65T5qtWcqVS8VpbtJb6tXb1XWy2szw1vjDaeOruO0kjvmguIop45JrVYw8TQ28qkjefmRLy3G8x4AZtgYAYb4huo57qTbG0flkSu2zCmUZwOQGCjoAd3XOSMmumn+FsNtrUf2PRLa1jtZmKpY2/lgx/ulABC55Cx5AIwEjG75QVry+DBLcSQPvuk8nMIeIK0ai42EArgfeJ+bkbmx2+b7CnVpP4NEeTKjVjpWabve6VtDjdR89Z1l/dsLhPnRVI807stuPqDz26jGAcVDdS7bmTdC22SNYmMTnaANzEkn0wRnPLH0wB0ll4WE9yy3UqxbjHHAgj3iYzZ2lB1HXjIPOQe5rFv8AT44ZWWVYxCu2DeULeW6MTkLkfNgYOc9W69a6o1uiOHEYdT2Me/EuF+0fNLFJtYbjvGB93bnkDtnnqTjPGjFZ/ZjHHBKI3YCeUKhDE7iAM84b5iRnj5cD0q3BZ2aakWKb2jzcvA0O5ThT8vyvkhsr8wbI+YjIGDYttRW11dbifTYZIZMxiIiXZGmFC7SrBmwCFwWIAPPY1XtiKOUuVnUkl0e7su7snpdpd76W3IfLuBHNJtjjmjjALFgWw4OQM543OBjHryNxFfqJ/wAEAf8AgrA37P8A4vt/g/45vWj8D61ct9ku5lPl6BqErjBLEjy7aViQy4IR3R/kUymvzNlt7TUNeSFoYNP3RKy/ZtypKTv2n53YgYYDORknsOTpWl5N4ZeFrdFubiYFmke6P74gFt+VJ5BGQeMc9iACljZ0ZqcN10/TtYwzTLKOIpyw82pL+ZX+9XSf3o/r+xxRj618c/8ABEH9t0ftifsaafa6tqkupeNPARTR9ZknP7+5jwTa3LZJJ3xqULMxLSQSkk/eP2Pur7zD1o1qaqR2Z+L4rDzw9aVGe8Xb+vUNvuaKTd70Vsc4A04Gm4waKAPym/4L1/tER6x8TdH8BrqCrp/huGK6mgZC8L38oZgJQJAGxAUKgqT+8kCnlsfO/wCzj+1P/wAKS+BnjO10WxtbfXPF0ItJruWEfaLO32bpY4xgmMOXI24ICou0AhSOA/4KNfFKbxZ+1z42vluZIBc6zdA/wuqCYFUZgMYUIgU9znk7efH9D8VqiIbVZpJrEi7DXSA/IFUBWVmBVSwG5SOiA4zuevw3PpSxuLlXvbVpa9Nj+kOH8po0sspYaaurJvzd1L8z2j4u/tMazqHw70fwzDqWpXlloaO0EH2gyW32l5PkIHUZYFslfnOQMqpx8yeIGnvpTDI+8yNmeZQdyMuOFjH3lOGCgHgKAFOTj6M8AfB/UviBJJ5VrfapHNM5FxdsIVt4pWYFyqsFIIKn7oOWA9Kwvjn+zTrngGW222cMceoxmSbKssyygKqK3BQFVLjcWwVxuLFc1hgcF7KNorX/AC/rY+kjShGPu2XWy038j5z8WTRSQ3DWP26aS4nEtwJ4gvmIQz5Q4JH8AyFHGeQXBrE1GOP+y1kUySIqi6b91udV2/6xuPvDbjawAJBPBkKnrNa0a2ZJ0jWOK3uPM8071QhUBDceWcnLNwee46tjmNa0BrmOSSC5a6jaYCJYoiockEDyixUD5yx3HOW3HjLGvaoyRwYim27mHqmm3B1K8/ctcyXikGV3VRFMAVPOeMKHIweTtPJApH0aRIplW28rzHDRRI+JndxnyygbdtCE4bbkneM8gHbeJbC3SS4gmW5kdXWN3KzKrF1ZVKp8wMkh+Ytktu+8Tzl6jp0x1pQjWsl1HBBO8szeceVkTpjnaMrgAgDHBAJPZGTWh5FSjBayX/D9P609TP0PSm+zs0st9NpkzhJ5C7Iyxg73jQNklmZgdg43fOwUZarUHhh9SnN1H5enw4ZLG2Lhx8pY+WTkYYEDduU5yWYlmXfoajoNx4gvpLi6W9DqMsJAZmRiMg9TlVVs4Yk4xjnp0Xgj4d3V3LPfWVjf26Qxt5lyke5Y06gg7S3zYLgvgFoxgAD5YqVlFcy/r/g/0jqhjKfJ7CcXKHrq3sumkY6tRvbmd25JKJzWm+HL4zKrRrtZN7ARboE+QuwWV8KQAfvA4yo+YAg10L2iWECeTIiiOz2KsjKxk8xlcPIETcmV3L1ZsYAYbhk8WR3sE/7ixlbcm54BeFVdwwwofjEa/KRuIIReu4Yarp7RxSLIkaxzLEy/aCHmUyO/yjkMwO8SNxk5kIypG2spVJPVs5Kn1flcYQab6t6LbS1tfm+ttbXf2x/wb6ftI3PwD/bqtfDMk1nZ+GfiCz6Ldl2kRTNsaSywMfPJ5wWFM/dWeTn0/oHr+Vr9m34rL8IP2hvBni5rO6uZPDeo6drDxRbleRreeGTYxb5MyurHcudxfJI61/VIDgV9tw1iOalKn/K/z/4KPyTjPCqniIVV9pNfd/wH+A7NFN2k+lFfSnxoYxSkUdKM5oA/mg/ax1Bv+Ft66fssywNqEgjGD5ZRiXU7SDznJ4JXHT0rkvAuoLBq8MbRMs0hLQx3EiLGXXLquV3feK8bcZOT2xXo3/BQLwLZ+Dvjr4k0mzmuby103VLvR5L2ctCbuSG5mt52OAAu6SKTkEEZGSQQ1eJx63Hp/iKzaRrdZoyqxhUAWXDDhWB3BshQQPmOBnJ3AfitbD8lRwe99T+pssrKph4TXVI/UX9gltB+LXhDULa1iYX2k+W7Wed5lRwrEqE4cqQGycjBfgrtA7T9pn4D6f4j8BXkV1p0LzqjHfdJ5ewBTgMJCDkYIAOMgPnkE189/wDBJj4qXFj8aLeOe6hlW4tJo3tmnUicDDEsQTheAcgKuQSM9a+xv2j5IL+T95/pDzPILZ0lRlSMu4KA9yoCABvvA5yxGV+iy2jGph+X1Vul3r+Z4uLrV6eZKC+FpP8ASx+Nvxn8BXHhPxPPa3kLLHdh3TykkAcb8hmYjhhuQkjOBtYZyGPnGtkaxplzJDE0luQULyO2wIqliXB3HoSeWGASc5b5/t/xkvhnxr4+8QQXHhXw7r1xoeialq13cS3eowzRpDbTPA0nk3KRYafyYmVeocDdkjHzroXwvl+NnhHWNYutS0PQ7LwXLZabdahPYxW9jFAYL6Tz7iS3hcmQyWy24co880l1EpYkqh894V8yUXq77abb9unbQ9atjIJSUlZRtd6dXZWtfr3tuj571u9azjt55/uRyGYGK6Ysigo6KA2Cq8YBxlRgH5uDeQLerMvnyXFxZxLj92GHmliiqBg4IJPzHup+6CRXrWm/sx6NeLZ20fj7S4dU1yyvNY0qW00y5Glz6dZQySTXU87BbpQGtL5EiS0dzJanIVHila9qX7G0mraJY6xaePPCutWP9gSaukMltfWJu5ba3urh4YQ9ur5jtIYZ2adIFIvbfbhZ4nbo+q1OXmS/FeR49TG0U7Nv5p/5eT+5mX8Gfhpc/FPVtP0v7FcXOpX1wvkoN8vzMdqjy9o/iGNuMj5iDg8fsh+yl/wT1074TfC6O2urO1XUZbUxzzjM2TIF81T0VhlSM5+YYPy/dH5o/wDBO34uWPw/+PXh+61iazhWa7jtpWMXmLbtgoyhULYZchQR/CZDklStft0fGFhpmhWt9JfNJYrBuykiurKpBLgjjAyvUnnt8wVvOhR9pfmdlqfPcQYvEUuSnQW5+Rf/AAU6/ZC8P/CuwuNUs4xYTTXhWHTTmW13ElWdWcfJkk5XGBjIxgk/Cd4LeG+gjmgmjk4EnlQ4iTnamCeTGVZSS/Vm9yT9wf8ABWb9ofTfiV8WrfR9JZm0uxZ9ly5D+fNlt0nmjcGwgKgkZGCSdr8fC1uqahc7o1RJrm4ExQthlZssUBDK2OA+5OAOMZUk6QpuL5WevRlNUoue9i1ourzaj4ltY5GVplRjGVIZyp3nYzKzBcbsqBggNgj7pP8AW/jNfyqfsnfDNvix8ePBfhm31G2sn8V65ZaW5z59xbma4WNGQg7kKiYZDFhzg4K7a/qr7V9jwvBr2sv8P4XPz3jmabox6+8/v5f8gyaKAP8Aaor6w+BAnFKD0pelGaAPxQ/4LyfBGTwf+1neXyy3AXxhp6a5p5MOy3iSMRW13GjAEbo51glZmwSdUQDhDX5gaBrFvq11Z2Ky/ZxAojfy1KRykttAG4hht2nBb7o5yuMH+lD/AIK1fsmX/wC1b+yVqUPh23S48ZeEpf7a0eMJmS+CoyXNkDgn/SLd5Y1GCBL5LdUUj+Zv4j2D+GviXqDmZ5re9ee4+cKrBZGbIfAGGDAxugyQyMpG4EH4HOMB7PFSl0lqvXr+P5n7VwbnHtcBGD3p+6/Tp+B9AfAn42XnwK+Jlhcabb2sc2mxuXV5xcRuCoBUyodrhyFCnLqDkjHU/YXxb/bmh8ReApbqN5nVoWjWGT55rdpMrsKNtKMTFjOADweo+X809R8c6Lf6hHcWK39zNFEbd5w6rEqMHBVyq/MSoyuCFII+UEFDJcfEh9Z0GZXVg1rMsMm9ldmBTG18EH+Fn45IUjA6jz6MqlKHIlo/6/qx95zUqkuZ7o9W8WftA6hZatrN3puuNa3HiOyudMkA8ty9vKR5sR3L5aghf4iCJPLZfmAY8pb+NdS0LwprnhXTZpGsfEGpWd3ffaQ+27aCO6jiikw5EiETsXXZu8yGNvl25fiv7UZ57y4uiywiXySIcImDKysrYJPK7lOTk7c9QxOjBdq9jHLfXq3VnHE0dltwsVpjOSJFGQxLdfmGGYA5y1ccpTWt+/47hVVOabsun4ar7jZ8bfGPxhrfwy0fwmt5p/8AZi2sdvaXEFhFHcizE6zPazTLEJXt2mlWbyjI8YZVONyDbzuq/FDxBBrul6nceKtcbVNBjitdMujqTB9OERaSO3h27WjjjJwiKFVDIdgIIas+yl1TVN9pby7Li4BukMG1SrIrbtpO48r5ingctkg4JqE6e0ehtM6RTS7pLe62O7bnQgkjYRGSpK8ENwcsDhQd41J2Sl/X9dDycRThH4UtddvvOwX4p634h8cnVtWmvPEWoTSRm81G/lNxeTlY44UMku85bogC5Gz6Zr3Qf8FHvGGofCJvC8d9J9khtGtFkaIefcqm5X2gcthSq8DIU9ulfHsM8MFsrzSXEF5E+4FcbVzncORnIyAAAQc5IABJbba59kiuFt12bmyiuQyLFhmKtuGTktnjHCYFXGm7uSev9dThqNJWa0PSNT12PxV4pWGcXFxF5TSqxnQJOFGcEuNxBzx7/TK+zfBf4J30Xwz1DVNes7O3ttTja3i8mQsHgKhsggsQSVxtPA8tQFzxXy7YeObrT9Rhd7mO4ZsOzz7po2ZZBJsZCQrDcADkYyx9a+nviZ+2JZ+LPg7Zw6ZDBouoSeZDdW0ShmJVBIX3ED93znGwENu5yAF5sRTqwcVTV03q+39fcZupbbU+gP8Ag31/ZbX4v/tmWviL7FJN4d+HzyavNNcRkrPKE8m1GflKsLhWlUMDxavxzmv30xXx3/wRF/Yqn/Y4/Yp0c67ZXFp428aKmr60twu24t1O429s47eWjlipAKvLIp6Yr7Eziv0PJsH7DDq+8tX+n4fifj/EeYLFYxuPwx91fLd/ff5WHCim4z60V6x4IdKXFJnilFABzX4of8HC/wDwSYvtI1e6+M3w9sFbQ7tprnxHaR4iTTrhxlrnKjOyQ9S2VVupClQP2wqn4g0Cx8VaFeaZqlnbahp2oQvb3NrcRCSG4jYFWR1bhlIJBB4Oa5cZhY14cr3WzPUynNKuArqtT22a7r+tj+OO/VbCeRXjihmhm2BN20EqTu3YORgqfz4z1qa0vXtECtOFWZDGVjYL5m47vm45Bxg7ucYGe1fql/wWM/4N9vEfhG9vviB8G7O98TeFFzLe6JbRrPrWhoDvLwhipvoVAZQpcXCqYlDOkfH5DwzTeG7aX7R5V7aySiNLmJhGF2qVycjcMjn5lVgAvBByPk8Rl04e69z9SwfE0Kq54O6/Feq/r1Osj1U2N/bywlYGscyL5J+Uv94EgD7xORnPy5GMBQCR+JZ7wwyzKskttiRB5ZVSdm3sAANm0ADnhehzjmLDxPDt3FpGZmVIycjcoA+Y9hjPbGeOQMYuyasuqs6wFv3eMOFYL15wP7vOM+px71w1MLNS1R7VHOKU43udAfEVxcwR26q0KqJHLBypDS7NxH02kDBwD25xVddbuLeDzLaZ4GZdnyyDdtxgk7iT2JIUAE88AAVktfIsflsyyRqORgbVHKtnIOCT0/xplw5025kyvnRrtUNuLBQecr2LDJ6en0qPq3kKpmFO173Ll5qO6+KyKreZgxgMVjxk8FR25POeMn1qhZyoke13aTacKHAjVsHGcjGc5ByOvBB6VUudQYSpDD8gugxx5ZOQVIAzyeDtPHr2OcVItTku7qYRZ+1EsS4iGQigg5OTuCjj+73PTjpo4Zs8TF5rF/AbTTQ+Uv7yZdyYaQR9tvOQeynIH0HPQV+nv/BvP/wSrn/aV+JVr8ZPG+g/8Wz8MTs2kQ3pbb4i1ONgo2xtnzLWAqSzMxQygRgPslCS/wDBJv8A4NyvEXx41PTfH3x0t7vwz4AkWK8s/Dccxj1PXlKll811YNawkMAcbZW52+WNsh/d7wP4H0f4ZeDtL8PeHtLsdF0PRbaOysLCzhENvaQoAqRoo4VQAAAK93A5X73tKq06Lv6+R8jm3EbVN0KD1ejfZeXn59PXbU4pc+1Jk+lGTX0J8SG0H+GilyfSigBAKN2KMZFLigBMgUuaOlIBxQAdTXxv+39/wQz+B/7fuoXWuajY6l4G8bXR3z+IfDEkdrPfsA2PtUTK0U/zMCXKrKdgHmBeK+ycfWjGDUyipK0i6dSUHzQdmfzaftWf8Gxv7R3wQ1mY+C9P0P4vaDvklj1DSLuLTNQt41Of3lpcSKqu+T8sLTnjr0z8SfFv9mb4ifs16cs3xC8A/En4eWupFrazl13w9NaR3EgHzCN51iVzjP3c8YP1/sm20mK5p4KlLoenRzivDfU/iiTxfA1jHFv3GGMYlZ8dMkDAPrg59Sema7f4K/s/fEj9oizvJPAfgn4keM/7PiWGWTw14duNTEOT8nmtCG2/LngjBz071/ZMBRisv7NpXubSzyq1Zo/m3/ZM/wCDZP8AaI+PetW9z440zSPhL4fk8uSW61i6jvr6WJ1/5Y2dvIWDpgBknkgPIwxwRX62fsEf8EDvgV+wxrVr4iFje/ELxtatFNDrHiIRyR6fMgTD2lsqiOIhkDo7+ZLGSQsoHFfbhWjbXRTwtOGqWvmefWzCvVVm7LstA3UZzQBmgDFdBxi5o6UUYzQAmDRS7vY0UALRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFAH/2Q==</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>/9j/4AAQSkZJRgABAQEA3ADcAAD/4QAiRXhpZgAATU0AKgAAAAgAAQESAAMAAAABAAEAAAAAAAD/2wBDAAIBAQIBAQICAgICAgICAwUDAwMDAwYEBAMFBwYHBwcGBwcICQsJCAgKCAcHCg0KCgsMDAwMBwkODw0MDgsMDAz/2wBDAQICAgMDAwYDAwYMCAcIDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAz/wAARCACnAIIDASIAAhEBAxEB/8QAHwAAAQUBAQEBAQEAAAAAAAAAAAECAwQFBgcICQoL/8QAtRAAAgEDAwIEAwUFBAQAAAF9AQIDAAQRBRIhMUEGE1FhByJxFDKBkaEII0KxwRVS0fAkM2JyggkKFhcYGRolJicoKSo0NTY3ODk6Q0RFRkdISUpTVFVWV1hZWmNkZWZnaGlqc3R1dnd4eXqDhIWGh4iJipKTlJWWl5iZmqKjpKWmp6ipqrKztLW2t7i5usLDxMXGx8jJytLT1NXW19jZ2uHi4+Tl5ufo6erx8vP09fb3+Pn6/8QAHwEAAwEBAQEBAQEBAQAAAAAAAAECAwQFBgcICQoL/8QAtREAAgECBAQDBAcFBAQAAQJ3AAECAxEEBSExBhJBUQdhcRMiMoEIFEKRobHBCSMzUvAVYnLRChYkNOEl8RcYGRomJygpKjU2Nzg5OkNERUZHSElKU1RVVldYWVpjZGVmZ2hpanN0dXZ3eHl6goOEhYaHiImKkpOUlZaXmJmaoqOkpaanqKmqsrO0tba3uLm6wsPExcbHyMnK0tPU1dbX2Nna4uPk5ebn6Onq8vP09fb3+Pn6/9oADAMBAAIRAxEAPwD7Q1SG6sHktbpTGy5TO/5HGRjaenfr9asaNYrcXWVjaR1O4/MCo4wTwe2B146dOKnXTr7VCWnE8jKRhth9Pu4x9ePr1rS0u4uNISbylZW24JRAShPUcjg4/Gv1WNd8ln8XkfKqm+fRaeZUfSmluS7Iu49jGC2DjB//AFnPSoDZQ6lZq0cqvHIN6GJvkYYwCD05B6+9actzLLNvkUx8fvHYYLH/AOtxTrXa0uVwq7gcH7p6YGTxjjHT8K3pYjXUmpRSWhVsrRbeVUbCxgZO3jJ78nn1/StnSzGjnEi7CT94nkZ9SfpT4rWG5cFljT+6A27IwOuP61MultMVKlVBOMA9T/kYrOtiIy2RpTptbs1LHVLjT7pZIZGXByuG7c8D0GM8f4V23g/VpH0/zp8mZ3bGD1AY9OxxgHGT2rzqHRbpMR+WwV/vKqZOPw/pXT6X4fks2jaS+eNQOVGV459f8+3SvNrx5lZNHRGSTuz1CPWjcJE3mC3ZWUsclmHTIGeoxwTnPP5ZfiTUbPXLDyXaOQb/ADEZiTtYHhuMDjpg8EEjvXLz6zIkLRibdDGSCwYZAPoevqc/r0pkbQ3rL++hWa3IclgV459sd+eMfSvF/s2KfM2djxbcbItapYWf2pnhuLiXBZlHl9B1OAfYHv2NZsiL5zSL5qKx+Ung59R3zn16+wxV+d5LiBjtWbacIyj+fr36fzFZ8ljsCiNpZGUfdKNkndgnv/L8a6qOFhGXMc8q11YuS+YHuMyfcbLEgsrnJ59x8x5Pb34BpV99kuPMaMPIBndgBlOB05A69PQVhwXLNKuHZg3ygE7Qeufwxu61PHcO0qt50m0A5Lnbu6Dr7cDt0FdVTDKas2Zxny6o6OC9WS8aTbwXHyBjgYPpz7fn19Na31Dcsdt5iRsqmPcihtwz6Dj04zyK5G0i+x20bRyZZX2qzuW2ZB6884x+lXbCa4vb3cs22ZpBgpny+vOO+MjofxrieBsr3L+sLax1KX0UaKpSViowTs3Z/HvRWVsmX/lvJ/L9KKw9j/eX4l+08vyPOp7LbE6+WkZjAPlAfe+b14GeOgB4+lXLPSZ7uTasNu0cZIG9AVznkkHkde3vXP2vjWzvYLaS3LOt1EsrAx8gEZGfQ7SM9f8AHSk8cOIA+xlwCFX5hnOMfXGa6rysrN3KUk90huveHb9riNF8m3XIQrEuOcZ5GfY5x/gRh3Gi3GnIobduZifkG0N36Hp+X5Vvx68t6F3qGkwACrjPuM/T+VZl95KSRs9xsVhgxxgEqBwNwzwOB2PSuqFSWmpLpw3KcNibZwx/eM4Uff5xx/PPb29hXQaeLV3U9JGwzKvqRk9e3v71G2nxabFHO1550kygrH5fzL+OBjn0/wD1zJa+f5axKrMxyMDBxgnjnrwR+FTKtKa90fs0tGW/FXj3Q/BGjS32rahb2FpCmWmmkPAGWJAAJPAJxg5r5G+MX/BcnwT4Q1u5tNB8I6p4kWzjMzzPqMFhvGcKFX53Ofm427iQBio/+CgkGtfEL4r/AAv8A2Oo3Wm2mtajNqOoG3uXtZpraFCpQMrDcpywYEZJKYZTnP1F8Nfh98Nvht8OV8N+F4vDsM2kBYriC3vEd4twDASEsSOMn5uSeTnOa+G4h4mlg6/saNrpXep9RlOQxxVP2lTRbI8z/Zc/4KV/DL9qzUrfQ9O/tvwj4ovlZrfQ/EFp9nmvgseWMMilopOPMAUkSERudgANfRkWmqsXKuw3uqHBU45xn6jPGMD3r8af+Cs+p+Hdf8Tw+KvBviLwpqWreH7jzkfQdXguXjAYkiRYnPQAnJHGFGRX6o/sN/tCL+0l+yx4R8cXEP8ApWtafsulkTaXuYZGhmYDH3WkjcgjggjHHNenw9nk8fQ55RtJdDyM4yuOErcid13PQXs5LKGK6hhm+VXOQTtiboCcY5I46/yFZUxm02YySx/vGYEnHyZ2k+vQYH/68CteeZJNGlFnJsZ5DiJz5YHPB56g4yQfT1xXM6rczRTr8ymSGNd2yTcM45HJwCM+/Pr1r6WjUb1aPHnFJKxc+yLBqDPIzSGHiRwmcEk7h6Z55Ge9RJ5t3HthWQee/lqclNp/yP8AOKyLvWngdFWRv3x+Ybg2TyMDvnbnk+mORxUyauElmaPc0cZAQKcbsEDPp3PJHYepq5NmfodZocCre29vdNKsRxOxKbweAD3+nJ9B1rrlt7GN1jjGIQAFj3Y8wZ4yenHPUcDnHrm+D9LjtvCP2q8E63ExZmLA+YqFs9TnuOo9RzyazdZ8WwRX3ysyyMuQi5UgKOVwOMZz/kc8fv1PkdXs4xVzsP7U0m0/ctcOzRfIW9SOM9aK40+Kppz5i2JZX+ZWLj5ge/Sis/ZVPP8AAn92eU6NpWi6XeXS6jeOi290RGLSFMSW7AMhUMRwMlOBglHweMVn3+vTXszL5aSRW6FleEMu9cYIJP3hkE9F4PTmsvUp1j1uLm6WS4XyZCUDLuQFlHHIyMj35OQFp0DRxTyRsqn+6VGAmM9s8Yz2/wAa6qMbvmbCe1kiY+KLgxDyWWOMf6wABTyMY/Lj8+tR2OogyZm3bmbAZHBPHTjHH69TWbPaQyOsm5tysWbcyqDxlR2wM+nOSc55NaQ0WSxMY863jeRd6JuGWHfAJ7DHTp+telGVNHHy1L6M6K18WSXVmsCruVAcAp8wB6Hgn6/WiHWriOWNfMPlsysV5+vrjj8elZ66RJBLuZV8xST8rbTx1O3Pf/PSremRxRW8lxIVLbSyDfnaMZ3EDvjPBI61zzpU0mzrhKTOH+L3w1g1T4v6LrVzb6ZNb2WlSWK3Do4uLMTN8+19/ljO2LqhIwcEDIbkNR/Zm8I/ATwx8RtbuPEE11qHijw2Yk+3SxQwQiODYbiONAiqXb5j0AZmAIG0J6d4xuG1LRZfLjiuHjXGG+UsFJfjAHRl6jn69/F/jT4f8TfGPwprNva6b4H8UeGreCWyMN3ao9xtcKHPmefG8TBkAIUkkLnBIBr8H46wVXDY6U6vw1FeL7WtdfJn7DwjiKFfCKFlzQdn5+fzPkX9t/8AZo8F/DnwFpOtaHr+t3n/AAklnEmn2M199ot44JIwWKMSSM7jJiPC5kbCqu1V+5v+CRd7rXh7/gn/AOE7HUFaGKG4uF02MxKjw24lJKsAAMiXzxwDwVyS2SfhfwvHf/Gr4ieD/ht42vtD+32+q2um7rWJbL7FZRsuQ2CVMhQFQEGCSFHt+smlyeG/gx4FstF0vS103TdPtjbWNuD5ixIr4DAnk5P8THJwx+bmvouBcPiNa07uOqXne34HznGFXDyfsqSXNpfytf8AMunWFE6zu6xhGDjzB8pGBj2OMH05Gc1Q8W67HcTLJJdRmSRcyGUjockr2yMjp6L0rj9Z8Tten7LHeLFJIMiIN8qbs4H14P16+9cj4g/tFrZZreSS4aMMIY87QQWJ4zx78jkDHU1+pRptu6PgOVcup3U17b2UUkEYUwQIXQM3AI6557lvxzUng99Nn1qOHULu6S3mkXzX/hEYO4gbfmHPHHXOPp5G8dwklpBJEsd5bKVuFTG52OAPu89h07fmNjRrG+s4F2R3cS3LF4yY8quTjr1GSR1wTzV1KbtYmnvZn0t448XaHPGY7bVbXdGWhWCFgFx83zAd8dm6cnk8Guf0W9ju9Ra2WMzR3DKkIyzMc4yEUHGSWHQc856ivP7LVEtPCclrqEENrcCVhHOzBbh/lC7VIJXkkN0J6jjIx0Pw6+L9q19b2+vamzaLZAyJap5htjLzn92uFA+dmxtxzjByccH7ynFxiv6+SO5uDWrPYYPgV4ikgRvsUJ3KDn7cR+maKzof2tNFtIVii1qfy4wETfLOzYHAyWYkn6nNFebzY3t+ZVsMfPnxi1LR/DnhWa8t5rq8uoZ0uMIoVkCvkkMCCMrnPQ7S4HJArPu/E1prWjQ3FnYyxtcQozIXVXVmA4ZSCQ+7I2k5BJ5OKqav8LfFGo6fcPcX3k3FrGqKioSmxtoByR1IYcrnGOnSsDwV8Mda+HkkluktrHDY3DRH7TtDqW+YfMV4zuUhTyM8nNd9OpGnLmTuYyjzRNi3s5mdcQSLKR91l6DucE+39cVHdQrLIPMuPLmkH/PUKQc5yCccdx7UT+IPFkfnfZ9LtpVxuMgjxIOMrgsMHPP3ST14PArlNSfxd4nluWsbVGhiJV1ARmDYJyecZyOgzzwffpjjoydpaGLocq0Zva54wGm2awQzPczK4BdvnYnHH1JxWXbfFkwrcR7Wt2jQsXbO0KAcknPr68D8TXkXxsbxF8G/AupeLtWMkdppcJeX/SFyMlVAHIwScDaMjr2xj428fftf6h4giul1TVpo4rgi4FlB832eIsCFbaMyH1ySPk7gZM1MdShG7Kjh5SZ9f/GX9vLw74A0/wCw2OsSSaldzRW63KkusJeVYzgA7nYdVCgqfXjFfQn/AAUw/YL17TfEttefC28lt5PF10sCxvdeXHEmxncyliG+VBI6thzthcEFsNX4jeKfF+oWfxJ8Lbr681L7PfrqsrvblYpkhZWjVlUnCBsgg4ABHtn9t/2pfiN4h8c/t/8AgbSZfHEN3pvw80mbWL+6m09YktFaLcUmcIij7Sn2cPKBsjWUhY9yF2/PeLK0MaoQmvhatt1338kfacNYetCU5xdoqMpPRvbbbzaV/M/J39sP4EeKv2K/Dj/8JRNZT6p4saaO3uIJvMMkaSqrkBtrqjRsCCyA4cblU5Qe+fsp/wDBajS/E9vp+l/E63ulvo4IrJ9TggMlrcY2jznGcxvhcNt3KdxOFU4Hgf8AwV2/ash/a4/agih0Z5ovC2nxKmnx+ajrKjFiJmAAMblcHaxZhnB2nIr5/wDClnHqYuv7PjDacqpCp5WOV/4wB2Ge+CDzjNe5luKdGmo09rHg4qLnUk573P3Y8Ca3pfi3Rj4m0DVtN1i0u3mjikgkSaKHBGcGM4LHDDHAGO4HJ4j8UTabDM8N1IZs7FkmUKq+mAMcnHQk+tfjT4F+NniD4C3LalofiKfS57WL5vJYspBztVk6MGIPXI+UZxxX1X+yZ+2hq37ZGm6lYzzR2+vaNCGnUKAl5CWwZFDZxhsBgCezeu36rC5lGo1Tas3seVVw3IubofSvjHxh9jt5zJeR3F0JSzEsWZT9QOeAenoOlYel/GCS80lLaaCV5pPmWZfmVQfUDkgjA9OuDzmuJvvh9rMV+0P2xY5I2wV3AEEjgAZ4A4JIGec84xXofwN+Eun21nrF94w1bybezAZN820qvQ4C8sxwi49GY5IFdDl7Nc8znXLsjpZvi+3jGwt7SS9VLeHIA3nLNhVClRndw2ASuB61tWfxN1Cx05YbO802K3tVWGN5EZJCgwSQTnk5Q5Ofx5rhNE8afDrw74L+2LPJqdjJdLbJYm8SK5W6eLHmY81GGwM37wAoWYZDA4O58QvgRb2/g+PxN4f1izu9BnKRXlpcXsMt5oVy7S4hnVTn5hEWUlFyrdMq2Zo4mjUqJf8ADGsuZR0LM3jO5Mrf8TC1bk8+eOfzTP50V5wNMI/5fwPrdR/1bP50V6HLHyOfmZ5V4d/Zd+L3jB9P/s/4hatbzRSD7Qtzrt4WXONzBNoOD1ALEsCOgV2Ghf8A7HHxXvvBaw2niTUrq+utQee3luWv7aS53IVeI5X59wt42jzgYEpJU4U+kaz4+8VQ6Tq02nx+IpZ7VQtzJPZ+ZNptud7FpSpIC7VbhznbsGF2YXg1/a61S98XpayW6+dqV0kG2wt3jH2hcqkrPOxc5eXIPTDNjaC2fg58RVW+WKs/VHdHCStqbPhP4FfEn4YeBBu8ZaTZnWbSS1a6vo5p5tPO4P5gFxIiqxXaAxwnyqdp2yOnmXwF+Dv/AAn/AMSbdfGXxb/s3StPkIvdupy2V3cfNtVkupYPIXI+dyoZtqlQpZhnJ8Q/tHXHjHUZF1DWri41CCLyo7S7mluPs5DlRG5bOCAXbB4GCMgkA+f/ABC+Jqx6lOPs9vcHc0QdSGUFck4AA+Xtnpk+nNeZLHYqpVuo6ebOiOHXLZsxv2vX8Jnxn9g8D6h4q1TTtU12PS4bvWZxKtwrttEsYjVWXd1XcBuUHK7gceX2F/8A2L4k1S3M8s7SKqTtMTuaQbnLHJyRhlGD6H3I5z49fHQ6r8RbeG1htbSO1voZ/LTdLbwhFMZ2iQu2ctI27JIbBXBCkdB4o8P29j8QvEEckiyspMm5CGwgAxyCe4xk/wBzk9RXTGtUqu9R3Z1fV/ZQS7mD4D1oeMviNrF4sm5IzHAqPs8zA3M23IyAWPIBAOMnJAI9k8S/GbUG8EWOn3F401xBAYNwk3STFAVVORyVUKuOhKg4wAB86/Be3hjvW1BbplvZC+VUfOVJwAFJwTwTx/eHpXcS6jE8MluL64vfsoLFpo0hkIHAJKBckyENzlm53Zya+ZxmH+s4tc3f7j7rB4yWCwUo03ZOLT89U/zRX8P+BYbO8XVrrbHZvJJcRxvJ84HBV3Lc4H+1129+7Z/GdjoelXUlpaw2aRFhbJHHsbORliuBjvgY6behOBx3jXxnfT3EOmzSSLBt8yX5+VTIZfY5Jwe+PbFc5rniNjDcRu0jnzCAQccnH81H4YHNfU88IR0Ph/ZTk7dWUtZ8Uz6jNOzMzNcSb5QWJyMABc/nnpz9BXof7JevnTPibb6fNM1rb+IYvsDutx9n2CSRRln2thRgNnk5VfcHyea4FzdGTCrz1QAdOOwArc0bUv7H1i3ubXJjRozn7pXaR0+mD/h2rjjUkpcyep6VTCQdPla6H6j+Cf2IvhzpmrrdSatp4jXZPa6jfYuLTYMMZGVVPmvlgAu14thJKnAy3xL8RPDnwe8JX2h+EW1DUF1p2kvL/wCyOt1Ll9+1h5jL8pdgWVVMhyWV9ua8OsP2gNcfS2j1PRHXyU8qN4ZGt1jkVDG2VwFygAyqhCQxOQSCeO1z4uNql/DJDZNZyyW4jkP2lnWSQJzIo9CSxGM4z1NdMa1RwtN6/wBdz59U9f8Agi/ET4ix6pqc0djax+TwPM+xhZGOVYbm3su7KckBVyWwFUlar/D7xVdfAzx1b+JIf+J5pN9mHUtLjeS3h1OyZGjlt/usFdkGUk2sUliRxhkGW3N5Hqc0alY1dVZGfPmZ7bs8E5HTjgdau3Wja5ZXqqJFlWBhKIGiMix/McBvM9TxgkjA5Izg4c0oSvdnRyq1i3d+HbW4upJLPRLyS0kctA0+nusrIT8pcLNtDYxkDjPSiuuHwpZxuuL+xtZ25kgEX+pbuvyqRweOCRxxRUfW638wctPsftV8FP28/gz8SfAtzc+EfEGm2dhZsz3FmIhC1tJKd5zER8jO/c4y245BBNfFH/BQnUvhv8f/AA/qreFdBj0Dxxb3cb6fqlpHHDBcN5uXWcIpG075MkLvLbWJJJB2/HH/AATlH7GMHxa8Qahr1jf+BG8J3kOioqrHfabKLo3FqjgBRJkiQbzgszEdcFvzV1H9rXUvhno8enpp13eahPG89teTXjo0XAXDhlLPgqRksMDb1BNeZPD2cKrj713tpb1tuelRjGrOVOm210vqej/GH4LeKtU8V3l/Z6Ct3cXkCTyzWKNcLHIE2yhU27judiSygHB5AB+XyDW7bVtC8RR2t1YfZhOrqJruF7fZ5QRiCDwrAfKflIw5HPAHu3wi/bC1af4frrWoIiQxP5c0kOZgrbkQIADnccpx+Gam/b3+NPhf9oD9mbRdJtdP+0atDrKXdw4LQ3E6rDKFTGdoj3NyW5JCHI4FejHFKS63f3fgc/1RwnyvofnDql+dQ1ma4YFDNM0m3dkrznH8q928ZXa/Df8AZ8ha4ZW1HX7aO2QKyuwDKrSA+qlSwyM4LY6DNeNeLvD8ukaoVazXT1YZ8sT+YOBglcktjjPfrUGs+ILzWdJsbW6u5rmO2D+UsjswjDYzjdxkkEnHGauM+VNHpVMP7Rxa2R0OiSQ6NpMMbRxxvcKsZlbD/e2lhjH6e3ftoaz4vjtdMuIlRI2M5ZhGT5ca8nYu5iSAxIUkk88k85wbTU1t7+1MNwzNHMk0cuW3hly2N3XIIByO/fIGIviVqEep+Jr65sUnXTLq6lktTM2ZJEDELuPrj/8AWetYx92pt0ev3G1SLnDkb6kcsslxpF5dTqvmXjb1wxO0ZwB07gke4PNYtyyyTBlA6ZJBzknrVq/vJvs6x7gseMAA7iVGMdef68d6d4e8M33izWbXTNLs7m+1G+crBbQJueTALEgdeACTgcAE9q1qSjv0Rjh6d37SW5RX5pArNtDEDdjgf1q1pfyyruVGbqDk8evt6etdZf8A7P3ijT/B66pNomtRlpSrobGRVgjAUiRmxjaxfjGQcVj6T4MuL2J5lkCtGu91Trg9OBz26YrGnWpz1g0/RnRKWjsevfD/AMVya94X06FZbiW/t0a3jxuMgYfcBVm/uhBlQMhR1IGOp8LeFNQ1G6muLvydNtnkEVxPcYiXJ+65UnIwCxDbf4G7rxyP7OHg7+27S4m+0rGtviRFVlV1bKDGGHAyeoIwATkAGvaPDngCxsp7i6v49QnvGcGJBH9qa4VtpLlgOhbYQv8At5JAGa68PFPc+fxUuWbSO1+FPgWHUtQiks9FtdStY7+HT7q7gUzWymVWZVLEgGRtjkAygMInwCASPsyb/hE/DX7N2pXmm/8ACM2+uXFxHbzRJ9kN7dRI/mDz9sgdIxmPaBuDNHySTkfJfgjxBcfCvXoZrNVtZLRvtds9ovy2bDfhgMhC+duc8nnpyDtQ+OG1LUry6ury/eZp/PmdMyefM7Fg2fvYypII49CK6amDqTV4Xa9PyPNdTW53158VF1C8muJvDOj3U07mSSYXdxbiViclvLjuVjTJ52oqqucAAACivINY8VwzavdPcL9oneZ2kle+k3SMScsfn6k80Vz/AFOt5m3tvQ+ivj5/wUc0r43ag9t4l8PXWh6xaOYZdMu/30UTbmDLHMY1YfLtJ3hMk4wRktxK6J4L8a6HJp6aHoTFoyPLurKJsyArgAMNpLbsc7j69jX0d/wVZ/ZW8I3vw+vPFVnp0MHiCGeINcQtHAlwrNsYyhUPnMFyuCVPyqdxwyv+dWg+IdW+Hp/0O5LW/wAokt5skDGPu9cYwOOnHQ159SdSNj3afs5L93oz17Xfg7a+EPBFxo+k6Cv2Wa4YS243pbqXL7ArK7bSysp4yQwJ2AELXzX+0j8KvEnw80Lw/cahpq32ky3iLJPaS+YkqNmSOJgRvVmKjJwF6AE54+gfg/8AtGxXd0bWKG4W8ZhG+nXKqqu3Kv5eCRkfPyeTnJ25IPvPgbRvh7+0Po9x4Z8TXF3o82tQXFl9pmKxW9qzKxBR9jKGUhWBZBtZF+9xVU6sJJwvZ9jKUZxmpyVz8qPi34Du7/w5HqUDI9urGQ28cXyj5TnnryQSOox3zwPI5pmu5WkPytjGFGMAdhX6Q+Fv2btM0Dw78TI/FWuXUsnhCO40ex/skqY5rzzJIWleR15g+Rht8tS6OzZXyyJPgL4meAI/A/jDUdNhnaaC1fEc0o8tplI3AEc4baQcd6mjWVRyUejselTvTtGXXYxbSZ7GJcuieYpCttEmwEEH5T3xkZ7EZGDVuWL/AISvWZksbebbM+61tI1JMbvtGxVBY4B+UHqQATjoOq/Z4/Z/179pPx/b6DoUMc0zIXnuLltkFpEu3e7HliFyOFUt6Dk19zaj+yH8If2RvD+k66tnN4ivrpReafdapIWaUhVYMsQVUMZyCNykMORkYY+fmOb0MJJRlrJ9F+p7GDyqviYupFWiur/Q+Z/gJ/wTY8ffF57SbUtD1fQdImtVu4ri4tGje8R1RozEkhUsrqwIcZBAO3cRivqn4ZfsceHvg1HNZ6Hptvq/iNYD8mqtLJI0seWaLeoAjIyAMw4ZeTg4BreIP2+L7x/pWm2eh6Tbaa1ldS2U1xbQJbw3IZ2dHfa3LkSZYfeZg7ksWOPoL4d/tFSah8CG8Wakv9oa1o6G4uIJJlW4eQx+YJCGywhYsyIWPRMc7TXyOZZpjqj5Z7N2stPv6/idlHCUY6dV1PnT41/Y/GdnpOnapI3h+TXtK8qwaOR1jikidkkhKMEztcYVsYkU5G3Kg/MP7XPgu40jWD4gWO1sZ7+785Y7KERx27lQcADohbzQuc58tic4Ndr8Zvi/qX7QPhLxJreqCGO8tdUWcm2UxrEk8RjCRDllUNADncSxJJyck42n+J4fiP8ABfTbPUP9P1OG9/s+QzSHcVbLo7E5zyvAOCfLPzYLK3sZTRnRhGfZ2a9dTy8dKCbgu1yL4Qae/h7wZpcljcXX2zUG8++WOXy2wpUIwyq/dCkBsn5juHHXtxu8N3zXmpLLBcMVCy3TuTdqNwDJg5ZSU27wcA549P0Nl/4IceFdU8Ff2jp/iLxIL+4USCSWRGhYbTsJTy0xwR0K4AzuG45+YPi3/wAE0/F3g2WZrF4/FmnW7bFmsAwa4AdlztOQG27MgFuf4mJOPq8PjsLHdu/nofJ4mhUk+Y8c8OeO9H0HSZCi6jHfNK9xPCkR2Ty8k4ZuWJYLk9c9Tjr6Da62vxC01ZLfUZraO4tkFz9rtzbuZSoysbr945B5bB9scng/FHw71DwlbQte2T2b3KqzjVoDG4wMME8xVyoywDBuSvpkV1/w/wBO0m00/wAzUC00UispOY7mOc7RnC53Sg7VxgkryeDzX0OFaqJwpv8AM8upG2vUZB8IdDuoElaG8kaRQxfzYTuJ5znb3orvYdb0+OFVi1i2ijUAIi3sSBB2AVhkY9DyO9FZ/U5+X3le28mfan/BQzxWuq+Bb638vzISRsySdjCQD39CPYOTxjn84fF3hz7Tfy2snkrcACMAv1Y8gkenT8++K+6P24449ItLyOO8WaJVOUSQ4X51XDcnnGD+J7jn4tvbQSanErrIjLIDIOuAGxnpjoRjr6YrxZQuk/JnqUanLoeO+OdOaPXtQaJvO3XDCFwOHAJIz948YOQT2Ndt8M/2hvEHw6vUh1CVtUtYjny5pNsqEDHD5DAAEnA4JHUdazNbtgdcs5VWbbM77kQkHAc8ZY9MH88jJGc3rXwZDqccl8FmaTa0IScj5zvJ4zyDg/oetctJKULs9KUr6M3fjV8b9J174sDV7G4urefUvDiz6hDAiwxGWBpVDuBhWYo6nJGctI3O7NfF3xr8RjxH4pur3zNrSStj5cMwJ3ddoyRn8OcccV2PjHxlN4k+LPiO3huNkcmmzWSM7dAm1c+xJQkj0xXkl/rUuo26rNJIzL8pU/dGPT0ranTjBWX9M095tNvsej/stftV69+zT4tV7KZJ9FvbiObULKePzoZtvAYrlSexK5CvsUMDtXHV/Fj9s7WPitYzf2xqT6peag5lLhTuU4wI0XhIl+VQQq5bC5JwMeAEAfSrGhca1b7jtVXByDjBAyP1/lXJWy2hUqe2lH3j2qWYV6dL2Sloezfs2eMbyx0PWNRnjM1rHqEDvLtJ2ExzYA52rnGQcfNsIzjp9IfD3xeqfDPxJpcmoLD/AGl4dt5CJJ93m+W7ZbHHzFZW+Uc5J+tfHPww1e5tPCmuxRuytcTQSMxXqFLAjPHd1P69sH3qz8QQW95HbtysnhVGWMAbZm2xdc88nrjmvCzTB3q3Xf8AKw8LXUYtPy/FmJpK27aX4m0fT7hri3udKF1udMbpIZAOP+/pOPpnvXnXgnxhdeFPEUU9sZGZZw/lRgtuccKcDuu44+pr1H4NeGW1qTVb5Y4Wj0608iRicMfObC4HTsPoMV5PY6dcHx82npB/pLXe0RtziQZGOPf8Pw6ejgZR9+F+zZwY2LcuY/U/4B/8FqWvfh9b+GfGUMNur2sdnLdQyGWPy1G1vlAYklCRt4APOc4r9BP2YPjt8N/ifoGk/wBjapYSXX2cvLGkitGxb7zFM8YGFzwAcYHGa/nd8LWd5tVrW6uo14jdSPvsOuDnHPoM9cc16F8Mviz4j+G/iW1utD1C4gkAL4ilNuXGCFyFOXAHOMkgZ7ZFd9bK1Je1W/Z/ozw6eKVuWX3o/pI8W/APwZ8dfC7aPrfh7Q9WsZsAxXduskbttxlRnCkZ4IwQc+9fMPxl/wCCA/w91O2a48E3moeGLpX3fZJZJLu2dAG+T55BKu4seQ/Tt2Pyn+xx/wAFi/FmhXMOm+IYlvbcINk6NumVMblz8xAZvnz05U9sAfoN8Dv+CkWg/FrTGbzolk4EkNwQrwM2QiFc7l+6eSBnGcHIrnjiZYZ2np+RpKiqqvCzPix/+CDXxKvnMzeMNPiaY7ykdtOUTPOAdvQUV+lB+MMcp3LcrtbkZlPSiuj+2p9/xMvqS/pM/IL4x+MpLpdRMdrc28HmsYIZwZAPn574AVt3ucds4Hkv26AaJqGpNIrLbwSBBGDIyscIin+787geox6V0+vfEXSfGfxBsLeSa00jTbwSO7zPthtmJLZUFQFHJ5A+mDhTq/tLfAzSfBnhZrvR77Mlxdpb3ASQNGzKrOT6scGMggYPByQMjf63CpC0OvQ3lgKlGf71fPofOsb7/Jt1ZcyMIokAHzFSSe/3jgHOfWuk+IN/D4M0G91uaMeXptqWj3ts3qACFwD3YKMHH8OMEVV0fR1uL21ijjLyLOwdfKLMSu4cD69/c455rj/26vEzeF/ggLG4WRZteuUhRHBz5cbB5CCeu1gi/wDAjx6TStyzXU2jrJHyL4O1CQ+MHZdym4hljwM/88zgH8RXOu+9mY9W5rU8GOv/AAlVo0rfu953ZGc5B96zd0lncr5eVaNt24Pgqw5yDjOc81udi/iW8hueKn0udLXUIpJGKohycfSoGbcTzz1JqWwh82bBWNl4L+Zxgd+aC2dT4Nt2tdJ1RYwN0jLuG0btgw4x/Mj0/CvS7/xUs2t+H5I5tq/2SLZi2cHZnj1wSox9elcN8PYIb61u7eb/AEhN2w5jGEyflIPHfI7/AI9tJpGi8RWMDM0ixxDYwJbA2c4PoM/yrzcRFOfpd/gYqTV16H0N8BNJbSfB+oSMFaS8CzMjEDzApyOPYfqK+dtevpLb4nXV22I5vtzTZjGSv7wNgA/l0r2P4f8AxFk8F+FNZvLpljjmgEIncIW8wfd2KeGPzA85Hr048Pu7w6p4kWZtsnnzbjsAVRnk9AAB9AB7Dtw5bTaqVZy20OnFS0ilufSGl/s4y+N7P7VYr52yBJUjdvJQKw42KT9ec4GVB2jBrL1aK88F26Qapp+oWcK3Qit/MgZosbSzFXUFGBODkMScLxngfoP/AME2v2ING+KHwO0fxH4v8S32gxzW0cUVhCqQyEqQoYvhuG3A5AXAbPPOPofxt+zl8H/Cmm3Gm2nh/T9fdgr3K3kC3q3Q3Ag/vQwVchW4xncPmx092pnWHoQ5ZJ839dz52ng6s3vofmb/AME8vhP/AMLu/bF8AaLd3cl5ptxqCR3kLw8InV0ds4wADgHaT+WdT9sO8vPg9+2l46j8KzSaLY6NfQW1tDbytJ5CmCFujscJuaTknu+MDIr7k+Bn7P8A4F+FHxv03WtF0HTfD+qtKl3DarI4KqzxRmRIzISo3OMsF2gnGFblviX9sz4OeLvF37UfiTxFaWM8ml3+oKYpYZI5I5GiiCv5yZLxqVIALAA/e52HHPh8fRxdXmlG66rcqph6lCN7l6H9vnx1bRLGsc8ixgKGBVQ2OM42nH0yfqaK8zm8F6lHMyrJCqqxADXESED3BIx9MDHpRXT9Vyz+T8X/AJh9dr9/y/yOd1r4m3iX832i3eKWNmimX5lMRIweuSvPJyeD75z3nhj9qp73T9N0XxxeapfeHYJES3ktpzusNsYQAoR+8TgYBPALAZ+UV5fqkMM880eUhtgxVSw+7hup4OMn8u/fGbqukLFprw4WRGO1SrAHJ4/ix8vv+leIo2+E++qRjVjy1Fc+nNCl0m1tIb7R/Om3SSzQuuXWNJCAArg8/JxgDAPuOPj3/gpR8Qx4n+L2k6LH5yx+HdKhikWQ9JZd0px6/u2iGTzhR6V67+yn8WG8C+PI9N1dnm0HUv3UplDt9i+U4ZQoIGTgHjp7816n48/4JMf8Lb1HVvEGma5NPea7fC8LyzItglrJgjy2VH8za2AoOzKsMHIy2uFclUu9Tw8VRhQktPmfmboRWPV4GkOFDgnjr7frVe4/18mP7x/nX6FftO/8Er7X4C/s+6v4mgvJbzWrWOOMK6HywPMRndR1XEaMT8xBOTgZAX885U8qRht24PIx0r1oyucsayctAdVAXazE4y2R0Pt7Ve8PRo92NzbSvKnHcf15qmTGIMLFIZ9xZm8z5duBgBccEfMSc4ORwMHOn4cs916qOwT95glmwF6856dv/rVRUtjd069uLLXYpGx5ZTaxRQisBgYOAM9Bye5z1JNdC6RaZ4rXefOWFQQc9jyP0IH/ANes7WdM22XlmZW8lg2Md/Y/5696raDetAlvHG23y84w+T3P48nPsRXLWpuSujH1Ox8e+JrdtHis5JJdrPv8mIZ6Zxz/AEGc/ljj4Jo7XUY38xJGSUBtnzbWz06YOcds9aj8T6zLe3LbkSEt1Ea7V7Dp+f61n71LrHCzSTM3ysR0PeppUOWm0x9Uz9aP2O/28/DsvgzQvDviaH+xbjR7f7Pp+qw5NvId+I0m6bQMDDEhTznaev1x8PNXbX0htZmt9T3brm8u5twby/mJYkAl2OANoGfmYj0r8bvDOmx6fokJVZJpAymMqoIDfNkseh52jvkMeRjn6R/ZY/bvvfgFqVxb64NWuNFnSONyZPO+wrGxYmFQwA3E8rjJA452mvFrYfn1lqiKis7wVj9erDw22qaHb3nhmHTLSRohYv8AaPMn81gCVLb8PuDliCr/ADEEHIwK5v4c/sIapbfFaXxJ4kk0u6uZI5EhittIgjiXcsfLbmLFgyZDH7u5ipG593l/wO/aY8PeL4l8SaNr9ndCSOMuUz5bpuEqgjPzn5lJXJZS2CAdufpL4I/8FDfAfxK159D1C8t9B1RZCsS3BWFZVyR8wb/UtuRxhgFwFAZicAhh5KV4Tfkr2/IqWItFxcV56HG6l/wTP8C6zqNxeXWhWDXN3I00x+yHl2JLdCO5PYfQUV9bItnIgbdE24ZyWXmiuj6q/wCm/wDM4/rC7fgj+X7xToGfE2oRmNI445pMAHO0D+fGPfmqWh+CLzX7t9PhdnjdMqpIxgYJJyfr69PeiiuetUkp8qPv8LTU6XM/62Ow8NfAa40JpLi+WLeo8yIqcscg5GQRtPOc855H1+tP2NPj5cfA+RdJ1qRdW8N6mVkSGQbvLkbGGPyE427RtAxlRnPWiitYylF8yeqKrYenWpunUWlj23/gpvHY2v8AwTr+I2qWlvBdLNpEccCpF5Y+e8hj3YO0cFicEdM9TX88l5aGW/kzu+c8AY/qf8+1FFe7Td1zPrY+Gpe5dLoy1DpX2iaPdLIY1UpjG7HXgc9Mk/nXoHjnwxaWPjfULjT/AJLHzkSNlJ+bdGMcEA9Qew7cAUUVE5NTS/roVGbd12YuuaAJFmjs/OkQDKGQhTg/dJAPHXoCce9cpBolxc3MdvDGzM3ygBwPm/E46miinzNDiN+xXqhGxu3RkqSQflYYJ+vPXqDyK2PA3hG61vUoIYLcvNcSLDEnmKPNckKoycY59fSiiorVGqYuY/Qz9nv9je1+I/w21iPUDNZ+IrTa8UUbRkKPm2xluVKkpjtzz04Pn2vfCa48JX1/pFyr2OoWzyI8XnKyqUZ1IUjd0KseTzt78ZKK8anUbrSpvZWKlG8FPqzqf2bH17wZ4stbPT9Q1h9L14R2TG21OSFpRuJSQAsFEgKjDMpOCyn5GYH7i8KeEodCtUt7r+0LdrURqEmvHmaFlAcozbjvO/q53FsjJKgKCiuyNOKi5LujnnJuWp6tpMF5HpVqsPivUIYliUJGPN+RcDA69ulFFFHMTyn/2Q==</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1[int]</t>
+    </r>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2[int]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3[int]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4[int]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5[int]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6[int]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>7[int]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>team[int]</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[int][PK]</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>team[int][PK]</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[INT AUTO_INCREMENT][PK]</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[INT AUTO_INCREMENT][PK]</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>sender[int]</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver[int]</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1[int]</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>c2[int]</t>
+  </si>
+  <si>
+    <t>c3[int]</t>
+  </si>
+  <si>
+    <t>c4[int]</t>
+  </si>
+  <si>
+    <t>c5[int]</t>
+  </si>
+  <si>
+    <t>fc1[int]</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc2[int]</t>
+  </si>
+  <si>
+    <t>fc3[int]</t>
+  </si>
+  <si>
+    <t>fc4[int]</t>
+  </si>
+  <si>
+    <t>fc5[int]</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>state[int]</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team[int][PK]</t>
     <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
@@ -2096,6 +2341,10 @@
     <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
+    <t>動物園</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2125,6 +2374,18 @@
       </rPr>
       <t>慈祐宮</t>
     </r>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜一站附近景點</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠孝新生_光華</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh my God</t>
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
@@ -2178,264 +2439,7 @@
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
-    <t>市政府_台灣微軟</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>忠孝新生_光華</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>/9j/4AAQSkZJRgABAQEAYABgAAD/4QBGRXhpZgAATU0AKgAAAAgABAESAAMAAAABAAEAAFEQAAEAAAABAQAAAFERAAQAAAABAAAAAFESAAQAAAABAAAAAAAAAAD/2wBDAAIBAQIBAQICAgICAgICAwUDAwMDAwYEBAMFBwYHBwcGBwcICQsJCAgKCAcHCg0KCgsMDAwMBwkODw0MDgsMDAz/2wBDAQICAgMDAwYDAwYMCAcIDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAz/wAARCACtAIEDASIAAhEBAxEB/8QAHwAAAQUBAQEBAQEAAAAAAAAAAAECAwQFBgcICQoL/8QAtRAAAgEDAwIEAwUFBAQAAAF9AQIDAAQRBRIhMUEGE1FhByJxFDKBkaEII0KxwRVS0fAkM2JyggkKFhcYGRolJicoKSo0NTY3ODk6Q0RFRkdISUpTVFVWV1hZWmNkZWZnaGlqc3R1dnd4eXqDhIWGh4iJipKTlJWWl5iZmqKjpKWmp6ipqrKztLW2t7i5usLDxMXGx8jJytLT1NXW19jZ2uHi4+Tl5ufo6erx8vP09fb3+Pn6/8QAHwEAAwEBAQEBAQEBAQAAAAAAAAECAwQFBgcICQoL/8QAtREAAgECBAQDBAcFBAQAAQJ3AAECAxEEBSExBhJBUQdhcRMiMoEIFEKRobHBCSMzUvAVYnLRChYkNOEl8RcYGRomJygpKjU2Nzg5OkNERUZHSElKU1RVVldYWVpjZGVmZ2hpanN0dXZ3eHl6goOEhYaHiImKkpOUlZaXmJmaoqOkpaanqKmqsrO0tba3uLm6wsPExcbHyMnK0tPU1dbX2Nna4uPk5ebn6Onq8vP09fb3+Pn6/9oADAMBAAIRAxEAPwD8i7S1SDQJrqYSfZZpfIYifyYpTuXaWYjbw+GKHONpOQMsOT157eK6mhsBJHCGLXDuxLyyDtkADvngDnk1694nurXT/DVnYxrutZrgTSboyoi4ZVG8fOQQd2x2GAcj75WsTXfB+l+IL3zJrmSG4mdfIKxIY9qRqmxl4IJABaTlm2jOTknw414xn717f10M5SSfvHlsyefOGDhmYBmOcNk5J689T+deg2ngy3Pg37V/a8f9oRlV+zsEjVA/IMbHJIBVySo6A9OQW3Og21rYzR2du4km2eS3k+bGdoznLZGDgHOBkH8KvQ+NGtdOhhXT7G4ms3kuBLJB58aBvLU5AAXdlFAbAYE8OOAOmdVSS5TaPczfFMs+mfYV+0LqUNxZxsZUkZnthkjyTgBc/wAXKjIbPOatabpaz6Zc3Vmsk0iOoMblVUklsfIvt8pwRwB06iPULk+JNSmuNR8tkwbmSJYEiMgZQ4YBSRli5PTt6nFdd8N7XTJIvKVWube4uEkRnXy0RkV+AV2BvvL2xwOOeL9m+W7Iumx6aNeaZoLSSSXEcscYED2+X2LuznI4Cg7m4b75zxzi34K1cWbW6ajp8MiXT+YsjxbJtu3bkOuH4XPQjGc9DitbXde0W7na3itWtZXQJLcGbzQh2nzHxvIIfqxzkgfKFxtqfRNJs9SsYprzyZJXG5M/ICOFUcnoOOQSPvdMgjai4yiJ+TP1Z/4N7v27Y/hN8b7n4X69qVu3hnx03l6RLPbxNc2moK37mNroFWeGYNKqoQ+2VowgQNIzftxX8k3wysWsVsJrw3VrczSbpNhMgmRihZzuyv3SyjBBU7WyMDP9Cv8AwRq/bVm/aj/Z9m0PxBrFnfeLfBkwsggSRLm709Y41huXMhzIxcSIzjByqFwC4Z94tbImLfU+xKK/MPX/APgt5Z/Cv/g4d8d/An4lePvD/wANPg54R+HsFrZ/27PaW9jqniSVbLUhdveyRK1r/oNzNAIpZ/JZrYEfvZUSvrz/AIexfss/9HLfs/8A/hw9I/8AkirND6AorwO0/wCCq/7Lt/dRwQftJfAOaaZxHHHH8QdJZpGJwAALjJJPGBXFf8Eff+CmMf8AwVQ+Anjrx3a6TZ6fpfhv4haz4W0m5tWlC6xp0BinsrtopVDwyNa3UKuhJy8buAgcRRgH1jRRRQAUUUUAfxawaGf+Ega0tbzT91uFihEpSZb55HMmV2qQpO8g5JwSo6DjO0zwk2r+JrG2+0afp8jlRHPIH2zRj5V2kAhsbdvzEAg4JA5r3vVPgppNx8eNYi0+Ozj0S7xHYjC3DSXEcEDH55Bj5BLIxOdxEeSDwD474ku4dO8cyrZyw+TdWqFJ+fNEZTyymQTgEIxKrtwAozjaB8/TqqXvrt/Vy61NJa9G/wBDJMmrat45v1Mj61LepPe3WYzLI7SB3dm3febkEnBJB3YDV6N8D7LWvFfw51TRrfw7a3Gg+WyXF6YPtD2DENuZQRjcqvuATBH7vGCSrcHrr2nh29tJFuG228rMv2QbIcMRllXkhTjpgDCDHq31F+yVqcXxA+HN5a26skklyHR7fyoCm6OFFALbSWxGM7jtQBAMZJGeMxHs4KSje9vwZeFUZVOTy/Q+eb/9n/VNM8QQwalp9vNdXlvCGFn8rx7pCxkCcBmCIyFRjazoOMjOhqnhJdORbW2jS1tb6382MQo27bvBYsvP71RnPLYXHORivQvif4C8QN+0Hb6Tda1bxf6u0mVreSI7otsUjLlS21pAdh9WwoIADcn4wtzotzNusVk8mIWnmpK7N8smwlFYZG9VLAtglCBzk59KlXc7a7q5MqfLf1scRqGhfYra3ZJVba25ojtjbbxgk57lucgjgYJya7u1jj1i3k86S+urnzGDTtKGXcTlnwW3dQRgsD8wyxPAzZNGt9P8QWNvfL94Rl/KcMZInRJlGQCuSrqT1Knrg9bNlqFvodpb28q3Fv8AMshMse8vluAM/K3C89f556ubvuY9Du/DGoSaJdytHbx2/wAhcRLbssSElSTuVi/ykg7chdwA+YA19X/8Exv2z5P2Yf2gNB8SQz+Zo6zG21W3jw01xZyhFmQhWG4q2HjViFLohP3Tn478LX8viWeC82RC6Xgy3I2Rt85PVjtjwcfMeAQMkAjb1/hLw5qWpeI5pJIktVs40mfy1Ee9WaPYGJUAErInDYC46ZzVU4xTsxOOmh+z1n+wH8VPDn/BUrxJ+2h+z342+F/j7RfjRotro2u+EPFkt/otvDYwWthCstrf2qXWbrzdPGRNaARLJMhUscr+Xv8AwdSav8S/H/jb4S2PxQ+AXgX4BW0+vatDD4z07xdD4itPFG5rRJLmUW1lFepFEoSX97A0rLPgR71ZKo+Kv+C7H7S37MHhPRfgD8BdBtZ/FHi4R6lZ6rBoz65r5meRU8iztCrw7mFq4YSQzlllYqEYBq6b4Y/Ca1+Jvie+vv20P2Lf+CiHx28dKfskmqT32peINP0oKHlkbS0tI9Pjhhmnkb/R/NnijREMbk7gdttGVF3Vz9Yz+zn8fvhX+zD4m+HfwU+Af7JXwfm1rQ5tIsb+x8dXt5b2DtHIiXE1o3hhEvGRpZH2zsyuzsX3BnDem/8ABJD/AIJuaH/wSr/Yp0H4VaVqC63qUdxNq3iDWBG0Q1fUZ9oklEZZtiLGkMKAY+SBCcsWJ/HP9iX/AIKn/tJeAf2tbX4P/sk+GPj18bPhN8NNGax8Q+C/jfpFlb694YubaaeS4sxqdkA1pIYbU2tqt4zpHLI0X2dvLjA/Z3/gn5/wU0+G3/BRbwdqs3hWTVPDnjPwreS6b4q8DeJLcaf4l8LXUT7HjurQksELcLIuUJ3ISsiSRoDPoeiiigAzRRRQB/Ijd+OpvBh8M3/iDXbq0t7o+U9qYm8mOHauJkeQbHPlueAQVOwEruwPG/EQ0/VpLa8t7sGzkieRhCHxGrSP8m4seeMkHv29fYv2hPEHkab4JstHgKT6NFcPdC/i863jRvJ2hI3Z9qBIW3LGeMMQCQTXinhCw1LXdQu1tVurnUbj94kMSm4+TpvbqSGdgORkEqe5FfO0EnS59m+nz/rU0xHKpuC6FtLa2udKb7KkcM1v5zLb3Mis0gfap35A+UdV3YUZJHJOes0f4gal4Dg+3WE1lZ27OGgj8lYgpDKR8xPJBTduJUnAAJO0VzV94ea50TT9QmuI45LuRhsjdiUVMqFYNkMFzyQ3TA4O7E+k6Jqep26r9nvHumhW5M7yOY7TBxmSRWO0syLtYkEZ4B3LVOinpLVepFOLR12tfGfUtZ1ua81Bimpz8l3cCRk25L7XLEHO4YBUMRkkAZElnY6nqnhu+j1TSobXSbWCWSYvEFuo5Le3kELGSXlYzO6Kyqyq24AjciFcDU/B2taRc2uoSRSTf2ioW2LILozSFSxXBIBV2bPyFiMgZz97J1nRtU1ey1S4vWtbSG2gEjqkPliaYBpFVAAAjFQxxgABCOB12oycbRjawcsr+8dDruia9o3xA1XS7jSdYttSkdbWOG402WO4zJhFATGctuVAABkuuOKx9dk0+18X/Z4rrUmsbeCImeeFYWW4MStIi7ZHRo1k3BJA37yNVfYhby1frMD+FbPUiui6xHasRJbXstvPFDPmVSlwpKhV3IAM4x85AHOBzGo+dqdzZxxyQXk14EYRoNstozHGJCQM5yrBvuYIwccD0qckxSXc95+AUVvqN+kl9D5MccRCZyDO5AK4JJ5VRnAGDkA4ByPtf4cfDvT7LxTp91pMf2eWfSmsLqa3vNsd3DGiR+S4CH7sahWKne+4qx2rur5b+Ekej6N4dt7W3j1JtRjt3acTxwqLd9+FdEVw+EBjDkK3zSHgjaT7H4X8ayfDrUfEGu30dxdafD519Yq1qsTToiiNwjYwGKiNgw5UDaeHNeTisRKU7R8/md1GEVH7j3H/AIJC/sfaRqX/AAW/tfiVqmppBZeCdJ1LTPBWmaZmR5JGhnjkkv5JM/KsNzeKgixuIhJKhXR/24+N1l4u1L4MeLrfwBeaPp/jy40W8j8N3WrKzWFtqRgcWslwFVmMKzGMuFVjtBwCeK/Bv/gjl+142iftuaD4j161W10nVNTmiu7wgxWtiLlHgy0rZCxo0yH5jwF5IBLV9sf8Fo/Fkv7Sf/BQj9lH9knXdavNA+E3xgvNU1zxt9i1CSzm8SwafbPNb6S8kbIy288kZjcK252liK7WjUt7kX0e558WeSfsZftf+C/2GNG1P4KfsX/Dzxp+3F8ZtV1H+3Pid8SItVjstC1LVbiG5mkur3XJzLCHZoT5NuHMTq8g+1SXXnGX0W3/AOCMn7SH7ZH7Zfw+/aE/aG+OHgz4beOPhrJJDomm/BTw4sE8NsYflD6tqCvNIrTPL5lpcwXVuY3nRNoupQP0o+E3wg8KfAX4e6b4S8D+GtC8IeF9HV1sdJ0axjsbK0Du0j7IowqqWkd3YgZZnZjkkk9FVFBRRRQAUUUUAfxk/ELx3Drk26a5uNQ+wuqWyGTe8abSq7vvBAMgYDEAsOe52PAfgefQ/EVpcXN1HI6EI0lszLCCjgzLu2bcqQqkZKYxkMNuONt7G30nx09rrPmJbx+Y0DQT/vZI5EbyhtfJXGxHJAfaTtbBIUeheHvFuj/Eo36yXU2m3NuzSr5sISNp13lW37/nO0IWLBfmUFQMuT4dS6tJK/6GlHlfUueN9GsrT4a+G4brbZrc3DQXd9sVo4f3jrHJ8ykxiVQVC/KilVYnDVxXh3SZdL+IlnpsLC5XUmIikT7siF9u5Sw+XLkcMMY5B9Pav2pfhfpuhfCrwf4feF7XV9YkgQMNzEwhFQsWWM78SujAKqsc7SrNtavNm8AeIfh0+neI7xY7i68JXkkF7GuppcwtcRzG3kVo3HlxyKrxqANwcbHyd43YYWUPZ87erbt9+h0Yim+dpra138j678a/AmDWfC9nbwvHpesLOLuG/EIeYRou1gQNhYHk5c4Py5AG4H5H8K+BpfHnxQvtK+0W87T3c6YtZxbiRFVlC7yWDKFUkZLcdc8Z+y9O+IVo+rxWx+2fuIJIHXUFEETFZHeWVmQBNpjDkjcfkCEkbgK8z+C3gDxB4F8K6Pq2laP9h8YarqslzLNqjCaCIrCqQRXEe12WNjdxZRwS7TGMhSAK4suxDipRm+1vxudWKo3alBev4EHhq8a+8W2OqR+MtY1GxuNPeRP7Vs7c6fNGYwYB5LQho1LLHMUjCqzkH+89fPPxo0XST4s0fX4dRg1Dwr/aX9ioBI32jTY7eO3kaOSJkUIha5KqcnOxzgHg+6fHr4Uan8H/AAb4U1DR9cv9Ujurb7Pa3bpG0tq1tgQqsqERmGSARFIg7MGSYk/vBXzR4t+GWoaf4ckg0+6vBpNxp1vJ5JSWZZ5t5gkO7ACKdnOQTny8DONvVg5RjLmT02/T7zGtGTXLY+jvDnx/8M+FNfvtHs2j8O6xbTmIX8WrMkO2RInjmJTCSYkDOwRjuEEY2kgq/eftPeJ9FuP2brNrzRdUvnt9Ktm0rUUtlSSCWQQuiGd1WWQbCrxEb90YmBVUAdvz98P3cnh3TXivLCG+tSBGodCbi2XczgJJgYyw5znjpivVP2adE0v4peLYfDUkdlozXV0s1rdvdw28iPj5YN06xZjdiyuBIeo2rnIfaeDjTftU3pZt/wBP/Mzp4hy9zudR8P8A49eKPB9zAmoWh1CSe3+2Kbob2Cs2AWkdWyMAjbnbhzk5HH6Ofs3fsual/wAFwv2HdU8N6P4mm8CfEb4IaraeKfhf4qtHmx4f1KQzNPZyXGDcQQzPFbS77dtySRQzqrtFJDJ8B3miJ4am8ReH2ih8vULiIPbwQ8eWm5m8uQzFipaSNSvl/wDLU/ONuZP1d/4Nqf2vfhj4Zk8Q/CSz0trDxt4w1u51OzvIkVkvbS3tyFgdmO9TEkUkgXLj/SWIIBNd+H9k5KcVZ/192pzSpuO4z47f8FIv2qrj9gH4yfAr43fsi/GbVPjTrHgvUPDWn+J/h34dl13wv4iN7BJardtLa71tZEimWRo1MgZo34tyywr+oX7IfxC8U/Fn9lT4a+KPHGgX3hbxn4h8MadqOu6ReW5t59OvpbaN54niPzRlZCw2MA69GVWBUeiUV6JAUUUUAFFFFAH8Q3izUtQ/4Wdp95HNfata3EeUa42fvDjDxkLhfL8wH7owVI4JyD6v8KbPQbho/wC1pppLW3u4pboQufKkQEEK4PLKRvJ4DHzTksNucXxr4Ph1e0aN45PtkkLx3KEq0aSqXyw2IpjwAMg52guMjjJ+z7jxLosmk/aorXUtNIS4jZDK11bkhBIPlIyu4JyQFUE5JKqfEnVSoe9pbt27mlOL9pZH6D3WnaT8XvGXhW5VNN0PxNp9zJqHlzYkuZoRA4ltGWd28pSmzDHLEspU7wpr5z+IvgxLb9pbxNe2vh67uvCuuXE2lagVP2NpHSBEuzCNw2zed52xpTskyik8lh7BpPxe8N6BZabp8eoaXpmuX0UbhDDyRkqQ0iklVZtq7ccs2FDbWrmPGvjqH4sfEVodKuodQ1jS51iMcCBZ5g8sTSFgyANA2IUQ+WS2zgyIDIfnsHWkk15fcr3PYrcktE+v42/rQ8313+2vBPwq1fw7eTKBp8Ooafp87qIpL+IKQ4SM5AwrAMu5ijP/AHiCPp74R+IdLs/itea1qGlNZ6VfWF7AttpV3LcBpClmhK7wAMxwyDIyMtjamGx5fr/xT0Y6leQ61pay2GsyvPBJfWX2mfRtT2cSKNyODNteJfKCsHGAzNL8uZ8KvizNDpt4L6GztdesLSaO+tTaMrW0nmld5dkIVHCAryWYM8ZZfKzW0byi5Pzu/W3+RMYpSUV93oehftf+IbrUvAvhm8vo9Ql0m6vxcf2tdTuvmTtHPsbe5HmOu2Z2chlBaNUUSGTZ88fCTwRa+MviLqENxPrFjZaSHii1LTn/AHaRmNcIsjKFeMux3AgFkGS6E7m7bUfDniD9q3Rbrw3pOiyX0ek7NbkMUTTSSFVk/wBJUxDDAoGj+cKGOyHDvIlcHZeFNU0D4qWPhOxsdf0nVJNZGnz21np9hcah9seTZGsatEWmPltOqwBkGWQAoGAco4ha0qWs7N/Lu93+BpUw75k6jsrr/hv6ZT8RfAltE8dao00Nii6rHFqchFuoiRyyTymJZQoUNudCrgBVx83znZ658K/APgr9q74hXuoeMG0P4f6QrNax3sWiWcEFxcIsSxqbeCWOJIgqktJbQ5dlbJLupWe/+Hvx++Hnxjt9PY6paeKPFD3d5pTXfwW0C1mv2to5rpxb/ao0YSLHb+YqR4IZo0XMhVaoftR/sNfFzWPBc3ibx1p/xcv9WmkjjW61TTVbToZPLmnlZLOS2iRYlh+1OoiYeSI3YgLjPkTjjK9Xm9oo6W5kptr5Omk1p3/E9ijRowg6bg31teKv6e8/1OX8ERz6Z8f9B0vRW8SQ+H7HXLd4r+TTZNKjnt4yxmkRGbZHJ5LHaqPj5R1ck1i/Ab9sbxJ+yf8AHe88XeH/ABFJo/jTT4r22TV5919NPGdtpFZwwMfKBCPlnlZgsaKyKHiUS2rH9ieHS7vxpY6bY2XizQdM0KHUry81qJtEu7Wea8soQbMWlxLAHAvrTb9pYwxpczhkDoCOT+DXwPbTvjZZ3l94V/ta08Pr/b97YW6tcLLHFMkohkAR1Ebxh1digVQcttxtr6nB4inC8nrdb6K/4p9ddDx8Tg5t6Kzvs7vf5W7bs/TT9mL/AILi/tS/Du9m1jxzpvhP4meE7iWL7Ss+taRbX2lxrO0TmL7AFIJJIYSwyYMakbAWDffvwT/4LjfBr4kWumw+ILq88Iatc2X2i8SSGS8srKfzdn2UTIgd3K7ZNwiCbG5YMCo8V/ac/wCCefhnwF8cfjZeWvw502PwTJ8I9W8QaZfQ6HDb6dourQ+QLeGB44xsnHkzzHa43JKVKkbi/wCSia08d0jNJCsckwKjG1gB9xc9wTnnjuRwa+myujKpTkq+6fTtZeb63PmM2xHsasfY7Ndf6/pn9MFn+1n8K9Rjka3+Jnw/nWFBJIY/ENowRTjDHEnAORz7itHwx+0F4C8b65Dpei+N/COsalc7jDaWWsW9xPLtUs21EcscKCTgcAZr+aifxrLaRJ9jvF25BEQYjc/YgfxEZ9uOvrU1h8TtStID9lupIY43DPEsjfI46Eg8Z2k4xjBJ+o71gU+pwf2o07OJ/TT/AMLA0H/oN6R/4GR/40V/Mt/w0B4m/wCgxqn/AIM5f/iqK6f7J/vEf21D+X8T40+H3jKMeKQt7cSLGtm1jezuvneV5kThhuiHAILgq2du3O7jhnjzwDeeGX8MzLpcsV5dWMl9aSIVZb0SDA+R+QQQz5BYfOpUphTXuH7LutR+GLH4heLLqzkvo2UwaNJO7TrFdJHLDbwCMEPIhFxFGVjPCORgA5TxrxBr2o+KfDOj39w95daxpzyW810F3RAb3ZBGQdqoW83KqFQDJGSx2/E1JtVtPhWnrofSyiuW+/n8ztfht8UPDttoKXTRzW+pPbNPZTlRdRRzxBTPbFiqNG5kzIGBdVEiMfMJDi/8Gok174g3V0+r3FvrX72SynkbBuBHI/8AoZRJVLnCZKIBnZIVBKRuOCuLOSwe6m0uCDUpFtmu7+7imjtjIWlGwxEuj4YblKqpZgzDGQdh4J+J03hmzjaNjM1ioaaNk85gqBSxw6kq6IhbaflwsmAdxVvN9jebdPRdf67HHGt+95ux9beLfEeratpdrp9xrF5Z6PHFLPLDeK0y3EccexpJjIzIm5RvZkhCAKV2MhZn+f8A41/tC/CmbX3udDXxJp+p3CpFcXEFoWby5CgmmjWR4zvMfKFZFGI2j4WUSRS/GX4nPe/DSOO3uLqG8vLZ4RJ5kKzI0jbpw6qxOAoaMqFVWEuVb5SKp/AX4WWnxButP1JvsNxqmh2qTWL6j4k0/Q4op4hG9uf9L3m5DlWUxCJVG1C0qq5xWHw1OHvzvu12Pcp1KlaXs6au7X9P8jhNI+Ndo3ihdc1KS41TVPs7/vLzw1a3CyI4IYGP7UsSptLHPlnBJwASTXrXwY+I2p+EfF/hr4ieD/C/iLWJfCOrWWtQh4ZUsrmezmjniiuGgnkJXCMxDDcVXjGdw++PH3/BPH4Y/BPWNY8OQeAdWa7vLC08J2uqz+NLvTBfxyT+H7I3YAgddrSa4Q6sJoQdKjURjzHCc18YP2MdC8EfsGfBf45aFpFt4XsfGhtvAmp6Fr63OuS2USprEEeuy3cTIzMtqttKsENuqIYY8ZUFGVWDXv03ZrfXp+Gx7cMben7LkhZ6L3E3fS2rcnqjyX4qf8F+vHHx6+I/h7xFrXwv8J6f4p8DzTnR7izvtVtX0+SVGjlbCA7t0bFCrHBVipBUsD2tl/wcFfGT4jaP4w8P67B4f1Lwrq9k2k6hvkeza2juFVZonmTTNwkA3JuCqAHO0syq4+SdLuteuvHN19ltpPDuly311cCUaffta2fmlWkEBR5rja2MCR8yELFuO5SR7d8KdM8L+GPAfirQfGVs2vahr17HrFnf+HIGtdSgu479LSbzLu4tLjzYpLcfaxuJGYyCqyTK5ipioWbg/wAd/u129TkjRxFOSco+nuLRvbdW39PI9B+JX/BQTVvjr8NY9N0n4Z+GtD0/SbY/2fJFrmq3+mpKI7m5knKHTxL5jR20y7Vnhjyq8BUfHj37SvxcvvA3hax024EumyaubvSbuG3lk1CRhaBVUK80MJSCRJYQzRrk+XkMxaRE/Zb9hX/gnv8ACuH9kTxfoeoQ+BfH2u3VtM0GrR6tp2vajp/2izkhiSO4+ww/Z9u+QIrQ8P5jbTkg/g7+3r8Abz4OftgfEvSVuGsdA8O+IL6w0G0W5N0LfTvNuPsqB97MQIgmQxLAP8x3bhVYOFOXLzNJPWy9bf5a2SOHNOZuzT5lZO9l0v0St6F/4XfFnVPCfjm31S40nwy0omiuo7qbSrW5hVQyOpRCNhyTEwLI5YIAQwG1fRPFOvR69cWt4trZ27TIJFjhfzsScBwCAvBJwFwMDjk14trJstN1jRbq1jkuv7Qs4bi6hiVTHM/zb5CVG1ujgFflwi8nJr0DQ9UZ2ure8gjWRlVNzqy+UFJUYCnaD8owcncRzjdk54XGwweIWIjpGW6XVbXt5HyeMpPWDd9SbUbnz4tsch8mXKK5wWjcHoT16A5I4IPrnLRr8kcjrJ5yttPlvGuTHwOnAyOgxyMdwcYdIXk0rUrGaGS3vrIJ5bxMJftD4IJHIDK+1skFwcDGa5ubyXQYdg3lgFFh+abk7gwz7Z7n6AYH6FhcbTrXt00/4J49Sk4yTa3Nj+2R/wA8W/77/wDrUVX+xL/zz0//AL5H+FFdnto9zP6q+34FPUfA/iD4Tfsv3Gi32j6tNHcSxajqFgtq1s4klgmYSSDydwCi08wLtYj7OH27AS3zfYeLLzQtLurW21C5tLHUmb7XBDI6m9RZFaJH5IYLJGrkPwu1W5JxXpXiHx3HZfDGx0yHwZY6V4gUbrm8bU3jtLiUuQ0gs9uVchQpaKRQC8gXZGfKXj/F0l5451eGT/hHdH8LWrLDaLLpxLIQYtzbnLiM5IDYwGGAhb5SK+EivdlzNWet7r9fz0Pr8RKMqfMpWOb07xRcRQXZj2sBsimCjCElmLHgDaMbO3v2xXSeCLaO8voBeKk9uuxlLsvlq2wxhmfadu3cG+YY+TquCa4uHw3q7TXNjbpNezWqyXOy1ieRNqxyO8g2qcqnLEkbdq5zjBrc0WHxNLKkcNnf3ciuF3QIZWlLoWUI4HzblywAJyF4yesSptK8Gjgpxlpyanf+Ivgp448ZWdtBY6fbXF9NEL6RfPiillhlXdFIFcqwjK5OCoB3jlhjFvw5+zZrmvyQ6bfeH9astXRktpHOmXYtAiAjJkWNo+cAlgSScjG4gVrfsefAuT4++IPEnhnWlsPtGqaU72k19azzx6dqAZ44ZpCiM6KjOQ5b5F37myowfddD/wCCXvjjUviZ45XxfrkOsa74oWTWb270i6uoFnumiuZx5vlRiI5vJLSQxxpI6RlD5cfmIxmvWajyylbVLRddOp9RlscNGKlOm5PW/v8ATyXLvp1b9D9l/AP7dHwj1fTNFGp/ETwnoWo69Ar2+l6xrFlZal8+VG+3eRWViUPy4z26muv/AGgfi38SNI8DeH9A+H/hjRPFEtxq27U7PUYZGlkiMkaxww7cIHciclpcRAeWSyoS6/z8WHw7f4dfFyLSZFun1jwnNJDb3kdnf2qxpEYn3Osdm6xqkUsD5SZ0HmqwK+duPvWtftI+PDpmqal4z8Y+J9L+IWiwy2ln4P1C2E8Q3x3cEk7QSyOsLRy2kaNbzoJUMtvKCeqcn1hRi/bq0UtW3a/obZrh6WFprEU5xalqkmpNeT6H1Ba/8Fkvhb4Q8V31nq3wZ8M3Pjzwz9q+x6xZ6dp7Nc6hbhBFK0sWVhLOH3tbtMq4DIzAha+YPH//AAU08WfEzVV0m3k8M+F9L0s3V7pC21uJtXVHAdpP7WkWSQTNE5D+Wy7k3q0JU7D8t+I/Gl5c6lr01zCbnVJr2W5hSaCSRJXQyFi4JdGx86fOHO6VgXYkMOAsLu11DULfULCxtZNSsQAbOW2ZPLURljMTny3VSjZZyeqkhznPjYeFepLnlJ8vS1n56vt0+8+WhjMTUS5nZPayX4n6yeHf+C2n/CU/DqxtPFv9uan4m1rUm1C9k0a8aERIbqIwRC3aNfLZVjt1WRSxDQlwvJL/AAb+2n441T4p/G7xF8QJo7e4tvFl7INVYGby5poi0QkTzPk4VUUkBQfLDBVBOOD8Pw6jqt3Y2TabdRzPKsdlavbzP5ck5jWFwHLSFCcYAAVlEQbcH59Q8c+Gr7w74B8SaQ1nodyv2ciM2+biRGjaQzbZBHlUAcYKFS6yPks5BPRg8O8PWdSn9re+3XRdu+mx6dbHYivTVOX2TxTxHO134h0q4sbtfssWn2wiZWWNkYA/8tAc/KCSFXPI6cEHo/CursVuo/tga4Uu8kbsRbyrtYEHAI3k7SBgghRzniuXNjpFx4g01bfbN5M7FbZf3bTohQtGRjHIDDHylemSQFrZ0t5ri+tVuplhmmt1nWJI9pvGYK5IZACzBtn3skfJ746K/LOmorpfpr/wfwPHqVFVbmjtYfE9tHq7SLd2toq+T59vDb7poyM/MyiQMAz7SrNlwISCACdsN1exy3IaZ7OS5ijCtMs0rNIcAZYNuwRtOAAOp5K4AXwyk6QefkatosNu321pYlkltgG2YlYBwhDyIoJ4zKgwhYqLOoafHqsszWL3MN3Hllj8sBJeCHOz+Ejg46ZOcDqPSyvHUoOFSve6Vr9O2un33ukctanKya2KfmL/AM+7f98rRTf+Ffax/wBA2x/8Cbb/AOKor6j+1MH/AM/Y/wDgS/zMuZHO+GfjVdaB4eksbfTdPv7O8tt1kkUBjWINI7yBAo2scS/MpYbCApUsCD5v45+I9lq8lxcyef8A2ntmSW1WFTazA/KrKSWcYBQhWjBYjGetela54ikM0+o2Kx6jqVpAn7mS1HkC0WIx/NIBtfagiQMqAY3hiACTqfFnwPD4DvpIb6zhuptFnSO3guY5XWG4M0sc+wQmMWi+bCziI/NGERdxG4V8Lh6vPHmqx0v1/D7+56tGnUxMbSVop/1fXt/keX+HL7RNMOq3Vx4a1a3ntbsBNXtNYSWOKYRuESJo1A8t3jkJdJHbCAK20v5nca1dWmk+DdItdHn1ea30+IXMtvftD9lv1Mkc0Mb+QV8xlKR7pJlO944zhCcLh6p4p0PwzZaZp9rDDbS27tM97Epj8xyFyqqpK7VIABOM7QdqljS2usnUrOG1hvFtpvMZXzJJGpjVQduVVySuM87+uccYEYnNKlr0I+787adv8zDFZiqSVPD2duu+/T5d111PVfCv7SUnizwvcRJrqaD4liuYri3uJ9Uht2tfLYDymlkhHnIxQyuxf5ZQHwpZ89p8Kf2zPi54S0nbpczeIrfRzdqbnTUh1GO1EsUTJGioAEVriKOQlX3MJZAwlyAfl/RNOvtN1S4+3LaraqZJI5be7jCXK+aGV3JwEBKwnJ2MAqZHNdN4v1zQ7KOz1GLw4ZHmt1YfaGSSO6lV90jlI9gC7XQr9w7QnyoBlsvrVXnXspc1+lov8dH+bVlvY1wuaTU42fN3WnTpr0t0PtbSf+CkPjT4Ua/rXi7R9L8N+GfGjS3DWmvf2F5+q28FxLEjRrIXnSUCOIRspUIFgj+fAXHhvxS/alm+JvjbUfE3izxBqXiubXtTmur43cIis7meRJI3kkI2xRZiQgIoLYVQpURolee6t8b9f+Iejaxfa14fj+zafao8U4iT/iXJ57wg52n5FZ1A2hSDCBlN2yuX1jT7LTtSitZrnVLxYbYTRzpbm1dJYwWwxYMw2/dYDGPLBwPlevPjl+IrO2MnJpbJNW/X89OhnUo1qrbq7dNlu+ttD1D4P6pa6us1xDazyXyQm3ZBJ/rCiuY8TKTu2MFBOTuBUnDYK8X428AtfQ6PY6Ho9vdX17O0gcxj7RL5oVBHG7Nu3As3AAUgqCMrmsXwvY297rGlXNreW9jcSXJAg852gVTsMe941dkjfds3AdWAPBU16FrepHTvDcLLcJNiJhJDJKGMaNsK5lRMYPP3c7sArmvUwtOlSbpxd1a/y6+p2U1CFP2UXtr95g6H48kgvNM1eexs5JVgR3SeBgjSRjy+MDaNrorK23j5sgHJbc8PfH67awutQ1iPTtUsCHa4t0sUSeNY98u4yLGSsgc70BLLn5sIwLVwzvdT6LbySXWmwxywXCRRQwyIpBkYNlR8u8Esc9QNuMkDK3VtfaFocdzZx2un3SsstuDCGUhptyPgoW2jBGDlSCBgkEV2RgnGz2OiKsZ/x38Faf4M8aXVxo801xpt+xFpK0YkURNlozEoOG3RmJth5VldTyhJLbXI9fItri7txNbjD2xfkNxh0VjncAgB6gA4OATnY+LVtrGl2d5YahJJFeaLe3FtcDzo7iOCRZwPLSRS27EhmclTtbc5BOSx4fwfCtlqVxp7CG3MskUqTByptiMDChgMhgRyxC4dcY5IK1J+yvLdbPy/r5nJiaMb3ij068tYRqbTxTSQyNAQLFra2cEDAaR9xCtnIzuBxnccgKFzdQ1670zxDBCtr9smXJgaLy12HkIX24Xt8zDIJLfM2OfT/CEegzQaFHcXFnLaTSzJq7Nub7T5cW6N4okG8sPKlOE3ZLLhSG3Vynxe8IWfhm+sbXSW1C+jtbCTddTW7sFRkCwrtZVJG1GY5RSm4HaOQOfL6isqcu2v9f195pWw7VFS7HK/8Ld9r/8A8Bl/+NUVz/2vUPSH/wADo/8A4uivV+q4Tsvv/wCCeRy0jvtK1aL4eGD7Zb28TR+U9/YKbydJrx7eWGMv87QyAqjySuMb/NeNNsZZRJ4j8Tww6NNodj51lpt0sMU9tPDHALtwnmH/AFQbGJIkUMrkskMIcsyAL0fii08P6J8L7GxsbywuptcMVxqsgtg81vcIUwjySKgVjJj5BlQkcKrKS0yHyjxnqt3fy30awyRzpJLHPJHaFFlWMEfMTg/KrD5sZO5QcBgK+Qx1SpUm6NHVLWT/ACS8l1t1W/U2zaVaN6dPZaO/XX0Wny7nG6lpX9qMJlYN8rBZJVO1JAcjYSO4ZcHI+6OfmyM/TvhlLqF0sl032qS2Y+VDExDFmbHzliqqBgscYLe2dyu8OeI2n8Qx+TNptz8uJbm5eS2hhORs5zu/uIq4CqcHGCRVrRfGS31wLL+1riNbppI5kiV4IZGGAjAhkyTg/KQdvlofnLOo9BU8VC8KW3o/02/B9TyfYVlNxhov+B+H4HSag1rocVxtmhurq1aO4FtdjzS6jBBYfMu1QCxC7QQRjg8xWV9DNYwSXEK3EEskLvBFeyu2zaw3xogwrBN7ZKnBQHByUfhr3SrnTHk2yGGKFFiiCL5oYuzuT/skZfnJOSoIxnHuX7N/7Pth4y8UWd14u0PWLpNcmjhszEkNvb6jKwSSJZGK7lh+/wCZND+96IkbO209WGwaow1lfz6+i9d999D18voTguVO/wDX4dzY+Dmlf8JH8a9N8Nz6HCbXWpbjTruS01FEhs45oXjXazD5QDIvVWJVcqHZgy9V4n+Eei+HPBfhu/s70XXiq80y5e6t/tMUcllN9q2wSo5kG5CIpSCwVRG3U8kdh40+F9l8BvEdjdeHxDN4k8QTx2Fhaf2o22GNi6zGIOsZiywgZZI0LRlIiwDFy3mOvaB4UuNSjfT7w3Wm2GnTmS2uo1jIljheULGdx2795CruI3gKqsSueatzTkpUna297vutrpr8D3XGUE0rX7vpqn5dvxOF8O+Bpp/H8K3FlI2kWdvKbi1uPvWrIpRBIBjC7QDkY4xwu0g9V8U1tZNPuLWyby7WzslaF5rgTEoc7WlZVQebkZIKqwyAwyM1x91DP4dtZLe1muo7jUp4rWRAS1rYAxjyF379/nHY4Kgc7WwH2YPWeA/Btl4hg1vTNf1u4jsbOKS2a8tYprlbghy8ZTaSy5iXBeXacZZyoXLVGvGaUoeSb7/19+x5tKupv3V6vp5Jf1oZ/hXSovHei6Ho+mxzJJHuDxzPmNZZHXdtG0LhmUDaAxCqpY966bUdMbRdZhne4uFXarLM6ef5sKE7Qsn/AC02pGEIBYjaR83Ss3UG0/wlZw2lrq819FhEnt2i8mNM7mXfgkkBUd2JU7TznOAeovbTT7rRtDtVezktY4JReT+TBI9yrvCkku3cZItuCxMgDbFUY2MrV01JSjbltax3U0ne+5wfxi0j7PotxCojvF/tSUR3CqDGNq7BJkZBBO7BGQSrHLd+Y+AHw+i8Z+IrpLe8j097G7uBLMuN0KFdyS+Wy7SnzRDapJO1sKPvLo6r8TrdvKj1DS9P+zwmR18pTFsDFj0+YHaox0JJTJy5Oa/wZ8b2Pwv/AGlfL1Cb/ikPHH2e0uGtrtESzDgeVKWzjEaPNGwLZAZickbT6cryjaa1/wCB/lcz0ume1fBWytbbXLuG9huNNt/D7FrOOMRTR3VsrjdISOFkkBKspQg+a7DY6AHm/jPF4q8X6jqF3NeTTQtNZXIujYlFvZEhEWwFVALjdt3EHIHUciu28Wf2b4Cnj1KSG7ku7nUFgE1u2ZBZYnV/4trc7SN2GPlqVyDk9T8d4dMh8I3k1hqWnpC62lyp5Zbh2QPtU7cEkMMfwkA/NXkVGqeI5o/aT1t2tdHZyudCUe3/AAdT5k/tC4/599N/8BE/+Iorsv8AhIdN/wCgXp//AH/k/wDiaKz9tH+V/geB7Nf1/wAMcR4o+JMN82mmCaWWCHZHPuu5GjeQSs4ki3Nt/u7VZchQQGJY55L4gX00ujrM5/tSSSI2z7rby5lfKkuDypbDcsPvArgDDFuhsvC+pa5bJIJNPvLe+jkkW3spx+6eNeUZGHygou/cAyMpI3ZyB0/gq2sYvB9/pN7Du/tLyfsj/wCtlscb2Y7MAbWyozuDBUwQxBFYShSprmtqvx+7X+vI1qRjOD51d9O/4dz591/wPp+i+G7e+tbhhND87RlBOkcjKoO7OMZYLgP1AAIOaseGfC//AAk1vfSRz2ts2/7QsM8X7plRXIXduHLbAueRkjpnnqvGiR+EZPEHh3VIJDqmm3k9vmS5CJOrK+8EsoLZUhwMnsANxArPtdNs/Bml2cdrbQxTS2sbzuYmbzCzyH+LgHLKMhRwMcnOfoMJUq8j9pe97q9tn0+XmYUeZK8r99fPp8jV0WyXxnqtrbWkvmfaciXcw/cBeWLhvQEnnhsAjOd1fa/wh8JW0fwbkTxBcaXHp/2CO2tkubE3US3EaLiVhGm5QJVdiwEpCqrdeF+LfhHo1rdeO9Hmhhh2yfajLHI+xSscLOpwqkllI3AYwWwMjqPu7wd4ZmufBGnxbg0LzKJI8nLLkZ47KQT17HHoK5sXJrSOx7GEjFx5ir8WfCunySaxPqtvdRwWFo2sxX7xvcKLqGJ2WQjGN6lEKjOGEhwFDHHyP8UfG32Dx9qWrXGmzWel641xeRRO6hbZWlVCVlj2b8DIDqikNwERwNv018QfiBq+qa40Ojwva6hpl9LZakXiVftsc862/ny9cyRFYWjchSqBk6NXgv7cfwpuPgj4h0jQbiWOSOTSxPEXjTZb5YRMRhg7AYJJKEEqCqj5gnDFKdZU5aqWlvQ0xVGU6TXTr/X9fMw/g7qKWMdxqGqQ/wBsabZ6XPEEguNry3PlMluzSBSWVJdm7BwVPyhsZLfCPiDxZfzXWqRwyWaXOoKtymJLe1wywhf3iMsKbWeMlmXjzCc4NY3geaxkha00u8uLebXg8Iby/NTz4/LdWy3l7VdtwOSuAGAJzim+I9V1mx8EGz+zajbfZ7x7XUYcSYkc/uoUkZuJn2tIqopY7Gc5A3LVVMLFP2MYqz30/r069NjzKlOKtTitOvqdj41Nxf2mg37stkuoW48qzuofOkiWPMY2Im4/dQPggnB5OxgHtaZrFn4dtb2P7VPZ6frFkY7mOVSbeYiJisvl4KK5V/lA3EN3+XC9Todzp/i34cQ/2lqwXUPOjidtV1DzbzTmjhtwYVhyQoMkG0kkDaIgSsh8o4up2lp/ZselSyWtvYtFLcJNMHnh81cRPGWf7yEgtkJnMrDoEqaTi4qPbz/4c7qN1one2hmWPwox4yTU72xX+zoIjI1ukySOh2sIyy4OV3gZ7NnG7LA1yvjLwTp+naZoNneQ6baw+ItOjCXjSFvscjyySKSWZFi2jkhnO7AYEjeldr4Ue41LxBp8cbTW9q1gYZPLtPL+0xCAylmXKjncgbJY7drfNkKcn9o34ZXEltaQWt0z3ulW9rEPImaSTULD7JDIrwkhDJGx+ZQVBJwG2EMqehLmk1GT+ZXs04aq573o/wALr74gfCayaa7W8vbOzmlmleX99dKtkDDJvyVbzGVgQSOGDHbgZ4L9oA6t8OvgPb2OpfaFuNA10aHcMW2RzxKkpjwCu8qYvLGOExGD1JDewfsdfEm6vvhvb/aISPs9xPYRzAqyyxgoVAAwNgaQIMbiAhPJzXn37R2tXE/xA8QW9yGGl6xqsa6eQHURXdpbWspVWUfL/rU3lBwoBBKlc+Dg8RVlXnh6yvyXfrr+tz0cZRpqgqkPtK34f8A+ef8AhIYv+f7T/wDvj/7Kiug36D/0D4f/AAXTf4UV2fXKn/PqX9fI+Y9/z+7/AIJxdprt54ZiDWsN3DpurQrDFBcQjywrAucsVPIzwUYHjPXFeleC/jZHomr22oWNq09jHaO5jkZgsLy7g5X5XDM4yOFBU7cDAIHnNr4XZ7uRvtkzfOC+8biwK9MjB7d89vxV9Ajik1TzpHM0ul3F/GbdI4EWVd2S6hTvyOMZGOo6CtJRTaivi9DaXNBe7uP/AGrfDWl6Zd6bdG61SfXNRkkvdRmurRIZJjIC8YEe4gbWkZS4wCGBCkKAcXxZqMd3/Z8SW7WxiiCxl3/eH5sDcV6AFiAR/CRgkD5avxx8T6hrnh/T7i4upJGuHgj+ZVJVFVkRQcfwiPqMZ3c579D4T8H2Pi3RZIryORrpNRFn9pEzlmWSG6c5UsVIzCvGOcnmvQ5vZYZSqbL/ACQ6FF1P3UfRFf4YXE2gfEHQri1iilmhuNwhkIeOTdvDAqeGyvG3+LgV9t/CvxpBo2iw211KWUBj5hA3O/yjB8sYyWAGRgdPu9B8a+BtEk8H/Em3WO4866jkCLM0Ywo2spO05GeQQTnBHQ5r6Ei1NrPSLOGFVhjbTdzqnAk2INufYEqfX5OvJrDFe9bl6nfg48t0za+E8Y1nWdUu/Msz5mo/adsiZE7xSpK3y5yw2mXgghSQwyRivn79p34tal4r+LOradeWcM0Nvf3SW1ldMsy+RLPLMgEjDeq7pmYDOcv3GK92/Z8ni1Dw3rHlwiKW1uZIQ7HzOHDxNjI+XI549x0NfN37cMSWf7TPidIY1ht5bjzViHKxHKAAE5JA2rwSegrDCwTxKpyV9L/c0dmIj+45ul1/X4HXfs/XOn65rOn2uoLbte2OpR/M8QmMsb4jaNRg7sDdtXryx4xVz4oQWmh/EPxELOP/AESFWs7wEeYkYDN5VwAQ2BH5jAbfm2hGDEsQ3mvw6uf7C1e31CJdrLfqyKFQ4dPuMd6srfMRlWUhl3KQQ1dN8TZhN8Rry6dVVpBcjyovkhDK8wY7eTyOAM8ALksRkvEYezUFs/8Ah/0PNrcsoKCJ7ebUNK8Y2lil3JEL5HSRnYSxtG0gwGDErIGUIOV+ckZGWIPsPg7whpus6DCsNzbR20IlMluk3mXE6ZSPziwHBDAbyAAuxgNzBQfDPEF7Jq+iafHF5dquml4IlSGNV8tmecKdqqW27toLFiFCgEYArf8ACmkXGurpupPdG3aOSWOGK3DxrFK2cyZ37ipjypQnBJLEkk1yxjaO/e+n6f8ADk0dGkv6/q6Ow8P/AAzbXfEt9o91dWdjPHaCC3kli+yKzR2yKrOWSRNhccs29iCByWwvRfET4VX3jfw5rWrQW8WmXHh6WKzuNKvT5zXRilYh9ybiwSMMryNmQxIAVIKgXvCWl2ura7pfnm+j1TS71Ua+trgQtM/2oQySBNpRGdlkZgBsIkA25Xeaf7Tl8vw/+PHmWMfzNDHZ3yEIkd40dtvSTaiqEIWNVwODtU+obtqSqKPtJbLr6bnU5ci5+m5R+Bfxm8N+ELO3s7aSe3jltFs7e3gYi12PcTYZ/MciPLTySEISNrqASQsYd471zT/FHxZ8YW8F1fX7WsN4/nwwp5Sq8NpaNxuz0TA27iCVPByw8n8LNa+H9e0kvarcXSS3emNN8qborcwRxkDaRu+cFicghFGBjNVY9auJPE1vqissMyzQXMOwFTFNJJtDE5wyruJ2kc+orH2VOjXlV3cl/X5fPqFXGNU+WWyaD+y5/wDoL3//AIDx/wCFFdl/wjo/6Bvhf/wDvP8A5Lor0PrFE5/bQP/Z</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>/9j/4AAQSkZJRgABAQEAYABgAAD/4QA6RXhpZgAATU0AKgAAAAgAA1EQAAEAAAABAQAAAFERAAQAAAABAAAAAFESAAQAAAABAAAAAAAAAAD/2wBDAAIBAQIBAQICAgICAgICAwUDAwMDAwYEBAMFBwYHBwcGBwcICQsJCAgKCAcHCg0KCgsMDAwMBwkODw0MDgsMDAz/2wBDAQICAgMDAwYDAwYMCAcIDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAz/wAARCACCAMIDASIAAhEBAxEB/8QAHwAAAQUBAQEBAQEAAAAAAAAAAAECAwQFBgcICQoL/8QAtRAAAgEDAwIEAwUFBAQAAAF9AQIDAAQRBRIhMUEGE1FhByJxFDKBkaEII0KxwRVS0fAkM2JyggkKFhcYGRolJicoKSo0NTY3ODk6Q0RFRkdISUpTVFVWV1hZWmNkZWZnaGlqc3R1dnd4eXqDhIWGh4iJipKTlJWWl5iZmqKjpKWmp6ipqrKztLW2t7i5usLDxMXGx8jJytLT1NXW19jZ2uHi4+Tl5ufo6erx8vP09fb3+Pn6/8QAHwEAAwEBAQEBAQEBAQAAAAAAAAECAwQFBgcICQoL/8QAtREAAgECBAQDBAcFBAQAAQJ3AAECAxEEBSExBhJBUQdhcRMiMoEIFEKRobHBCSMzUvAVYnLRChYkNOEl8RcYGRomJygpKjU2Nzg5OkNERUZHSElKU1RVVldYWVpjZGVmZ2hpanN0dXZ3eHl6goOEhYaHiImKkpOUlZaXmJmaoqOkpaanqKmqsrO0tba3uLm6wsPExcbHyMnK0tPU1dbX2Nna4uPk5ebn6Onq8vP09fb3+Pn6/9oADAMBAAIRAxEAPwD9dPLZJm+0Sbt5zllU4LNwoI46EAYycAZ5oDsHdbfa3nIEdc9FBJbH8zwM4GfaKOPy2Lb5WaTEiAr9wH6exA55680siyhWZfLVSMYPOMnBPfoDx647V82eoNRmt4mVRudyCfMYMwBx0PAB69PXv0qK1WO4SNv9W0ID7WQMFzkAjPfB6ZyA3bPNmMtMT/FtIBJU7ckZyD3GPTOP0qJZY1ud8c0bRscAKNwm7qd3bj19aYEsZk2r+8Zo8BNpAIGCSWHHqRyTjgUhZXdWg+ZlAdSvSQENjj8T69j9AWrJukdpPKYYUFOhOOhHQHIz1/nVDX9ftPDn2Nr29htFvrmOxh3jmeVzhEXGSSc9BwFBPQEiqdOVSShBXb0SJqVIwi5zdki8FmtrlZn2rLkh03kr2PTA9xz64I9IUhil3Q4AZ3KlVG4ONoJz1GOcHJ5yBzmrAbJXJUl1LcL0OBkZxgYJ74yO2c4hvVjCxJHcKksLKzLt3AAYyuCc8qR2wNwPWoKJ2mdDtRt2MOQMDsQOB/IflSRXKs6hcfeMbsD80ZUZ6dTwT+Y7c0hjMk0LI3yrkEFMhwBx0PUHB5zxuGOchiwKiny5Nyq5YAjd1JBBzyOv1/CgCOfzrw3Ef7y2+ysFUtGyK2Ap4yAGGGA+UkdRkEECdXha58yZYyrKA7MfkzlflOefm9+PpSTW/nRFf3ckbLlg4x3yeD26fiacUijJaZf9H3bSu7G8cDGffpxzQAufIHC7VkyoQ88+nXOMfh9KZLd4jlkEYdlIOwtjAztJBb2z09Rzihna4jk/vKfMJChtuT/L+h4PGabLCpuflZo/NGNo5C9cdev9cegoAdeja+3aT5iDzMqeR93+fGSRnHXio4V2Rx+Zmd1bAwcErnrgnHAyTj8B2qQRNKV2yBjt+YHgjjIPHfk/5zTYovsscaRxoNgPmFCCF5yf5fn6dgCe6g+yXassaxKoDcHCKpGc/wB0k8HPHUnvTUXzZD8v3VJ74YHPY/r6Z6UnnwwyRqoyJhGnzfNkqp3cEDrgn8utZfiXxHY+B/Dl7q+pXv2ex0uB7m5mdSPKjVGLkgDPCqScdwfbABeN8GtPMk2q7vhcfMoOADjrnBVsgY+7njmi2hRWkLBRC+WHy42c5Iz3z1wQP5AZ+teMtH0DwReeIrvWtLs/D9naPqU+p3N5HHZwWioZWnaYkKsSx5Yux2hQSSBk1578fP2j9K+F/gPQ7zw7dW2r+JPide2ui+CmsbQ6vFqF1cqXjumihlQyWVvD5l3O4lQC2glZXBK5pRvoB5J+1l/wUi1bwh8QtV+FHwH+HevfGP42WNuqX1jBF9n8P+DZZYPNtn1e/dkhi8xBI8cKvvm8lk3xM8ZNL/gmz+2D8VPGfxa+JnwV/aMtdD034y+CLx9esJdHtjb6V4g8OXUh+zXNiWffPFbzb7dnKKyqbdJS9wJyOZ/bn+BPjD9lf9rjwr+1d8KfDOu+NtVYReE/iV4N8P2MBvPFGjSgJDqAO3Ml1aT+SS23LQpGpkgghkLfm7+1z/wWhh8G/tV6b8XtWt/Anjb43eE9OFn4P0jwfci48I+DbK9SZ501PV4XW41zUESSKIw27Jp8TPM8cjSNJGvVTpKcbRX+d/8AIxlLld2f0ENPHbvJuKpGiMr5OAASDk9gTg9fTrUdvsgaRvJzMyghio7Nx3G3Hb/6/HAfsm/tQeFf21v2c/C3xQ8Ez30nhvxZbSXNuL2LyLiJ45GhlglQkgSRTRyRkozIShKs6kMfQYxjy3ky21OcD5euAfzPTg/rXJazszZajR9jiG3co28Y2jiiof7euF4NlcEjj5XQj8CTn86KRViUPDYxxrmSV/lVsgsd2cn1wB+QB7cCnrMsUsnmbiMlGAIOPyOfQj298ZbeRtDcQr5ceN4Ej+ZkKODx39D6YyevUmj85fLWRlZk3HY3K9xn0ySOBxzigkbAySWzMqr5akKAy7TnJAHt/hip2hFtaNJskXc5XceGYrjI468Ee44HJzTJJEtVzNtjjjJZtw2rENpIJ5+UYyc/4mo33SgosccKoCsKj7wHXbz0/XpQA19Qgs7F7y6uJY9sQllEz/JGoGSx+b5cZIPB7cmvkv4ofG6T4qfGvQ5LWdv7G0e+hXTyYtkjEtH5kpxzlmXjgAKF+UHdnsf2vfj+uJPCehXjbizrq00Q4I6fZw2fYl9vsu4guteEeBjjxto//X9D/wCjFr9g4J4X9jhZZpiV70ovkT6Jr4vV9PL10/MOLOIfa4iOXYd+6muZ92nt6Lr5+mv39Btmu9kZHDFlBU8AjOc4x7HGf4fapbWyjmnaVo3ZoULbwudq5wecDAJxn6DjikBWMr/EoXYu75g+AM5OOSQc59/c0SOJV3eXHtbDPIQArnB+br2459ua/Hz9PGK73JjwZ1ETEEb8Fxt9M/Nz64/QUSuCZAjTGNXVMMQcZVQMAYz82fU5wM4GKVU+yeYzHcYwSfMHyj5jtPTnnHHbPpTok2z5bbGWHcFcjAIyP689OTjBoAqmdS6gN95fKwI2GSOuOOOvHIBIHXirMkPnS+WyGT5h8sfzc5+U49QcYz3pzzqUj7bTliByOQM/hnv7Uskkhdl/5aKCMx42rxwTn8TQBFKXEEkYLSOwwWaTy8njPTJGeegIz+j5MAqI2uN7Bwy712lgVAz9BnnOPbAqM2qrLu3TMZnwvO4EjPXqFPTr64z0FOkRZdkmB5YLMh5AXBB68Z7nBPPtgUAV5Jw0uEyrY8xsRn5hggYIB3fxYGM4I4GaniLMny9SNx2HB5POO+Pf0NTb2UHkcnbnB9R+P9aSXMUUeGzGwLDyyNxIwD+XqOeaAIY7lZjuSRpl3ELggqVzgHg4/rye3Nfnd+3N/wAFfV8efAH4l6d+z14D1740WPhfTroeMfGloPL8IaHp8e7+00hvnaIXt8ls8bpFAHTZOswaVYXib76+Jfw20f4v/DvxB4V8SW0mp+H/ABJptxpOqWzzuj3VpPG8MkX7tg4DRyMpKkHuDnGPyi+HPx/8Vf8ABMP9l/4ufsf6h4J1j4geLPh7pmp6p4R1DTYf7M07V/CN9DeXs2sahe3LeRbLZyNcQyHIVpnt4IhIyvLWtOKabtd9tiqc3GrFp213te3y6/qefaP+1P4u/aM/Z58N/Anw/wCJotN+Hvxev7a01fxQ8cyzaB4ekYG/jgkAISa4V0gEcqsCss4YKgeSL7Z/Yk/4IbfDX9hb9rC4+I3hXxF4n1TQbWG9fwt4V1WcXVl4UvL/AGJeXVrKfmLyWsVtbLuBl8pCJJZiUMf4t/scftBeGPBnja5+HX9vQ6hJqV7cXltPbRNDo1ncP5bGwsd5Z2i3Gcq7+WrFRtVjJub9nv8Agmx+3cb77L8PfGV+ftACw6JqMrnc4GCIHbswCgIScH7p5A3YRrTpP2Er+Xmn+v8AXr9nnWTwxlB5vg7XX8SMdeWSSu1bo936372+2PEvh6z8V6DdaTq1nb6lpeqQPb3drdos0N3FICjxSRtlWRl3AqRtIZgeK/lI/wCCxP8AwTb1L/gmj+1/qnheKO6uPA3iDfq3hHUZFJWayZz/AKMz5Iaa3YiN+QzDy5CqCVRX9Yclu94jIqsrNgHdIFIAJ74PbgY98YzmvzB/4OyPAfhnX/8AgnZoPiLUDZwa/ofjK0j0S4eBXuJvPt7gXFokmC6I8aLM4BAY2ceclVx2YOo4zt0Z8JWjeNz4m/4Nbf8AgohefBL9pS5+A+vzQv4J+Jzz32mB4UzYa3HApyZGdf3dxbwNEU2yM00dqECAyFv6FHuB5O7GY1BJLKc56n1OMnr7+oNfyEf8Eu9PuNU/4KV/s+xW0M1xIvxH8PylY0LkImpW7uxA52qqsxPYAnoK/r6WFgsa/MzKVYYXkj+9jPTIxnrk/lpjopTuuosPJ8tiWMNKit5Z+YZ4XP64oqql6rorLc3BUjKlSGUj2OOR70Vwm5PHm4lb5fL3Z8va27K52jkj0xkDoc9cUMEsmkLLuaaJUVx94cty3fjnHGBlvwaslxLJI8qrtVwVZG3GQA8Z6EDjO3p79aQS+X8yLIy4JBHPJJwO4xz17e3NAC2t0LNWlZmLE4XB+TnBwd3XPt6ceh8y/aT+NX/CrPBaLYXbf21qgdLQ+UJFXBAkdgw2jaG4z1fbwVDiu58ceMbD4f8AhW81vUWmW0sUDt5S73kyQqoozjJYgdQOeuK+G/iJ8QNQ+Jfiq41TUJG3SnbFEGJS2iH3Y19gPzJJPJJr7jgrhd5niPb1l+5g9f7z6R9Or8tOp8jxbxAsBQ9jRf72e3kur/y89ehj3t7NqN5NcXEkk1xcOZJZJGLNIxOSxJ5JJ5yateGdTj0XxJp95KrtHaXMczhPvFVYEge/FUaK/oCVOMoOm9rWPxSNRqXP13PqxP25/CRvS7ab4iEbDkeVFuznj/lqB/8AqA5BNNm/bm8LyxkfY/Em48AiCBdg9v3mOOTz365FfKtFfD/8Q5ybtL/wI+v/ANes07x/8BPq+L9urweg/wCQX4g+br+4h6ckj/Wjuf8APSopv23PBl1ZyW82k67LbzIY5IntIGjkDZ3AqZcEHPI6e1fKtFH/ABDnJu0v/Ag/16zTvH/wE+6Phr8W7L4weF5tS0m1vlhs7g2zC7VVkchUJI2sV6OOpHIxxwa61I1+0eT5kkcbKZAgOGAyu44bPTPU5Hr614j+w7KW+E+rRgsp/tR8Mq9MxQ/h2/8A1V7eLT7QDH5jRKXA8wZ+TGCdvT6471+L8QYKlhMxq4aj8MXZX16H6tkeKqYrA08RV+KSuzjPjX8d/DH7OXhK11jxXfS2unXF0tjBNFbvMxlZJHUbVBP3Uc5PHAHcCvLl/wCCofwZjuGkXxFfKzcbv7KueR75Q9zn+vauR/4LFTiX9mHQ/l2n/hKYWxkdDbXeOPw9/XuK/NevmsTipUpcsUtut/8AM/VuGeEsJmWD+sVpSTu1o1bS3eL/ADP1U/4eg/BiAMIfEF9GsmTgaTOu1jyW+53Yk/Uk0yD/AIKhfBtkRm8Q6hG7ACQDS7npkn+705PpX5XUVzf2hU/lX4/5n0H/ABDvLv8An5U++P8A8gfqmf8Agp/8GY52H/CSahJCeGVtJuBvzyei4x1HTOMV8Pf8HAHjn4d/8FCv2Kks/BfinXJPGPgXUBrmnaWLO+S31tAjRzW7RBhE0wjcvFK8byBo2jQoLiQnw2irp5nUjJSSX4/5ky8Ocuat7Sf3x/8AkT8bdN1K40bUbe8s7ia1u7WRZoJ4XMckLqQVZWHKsCAQRyCK/T39kz9qnTP2g/BtpLHeQ2viuwhVtRskYpJG6kAzRjqYy2CCCdpYKTnr83/ts/sIappfia78V+B9MuNS07UpTNeaXZxF5rKRioLRICWdGZiSqj5OeAg+X5M6GvoalOjj6SnB2a+9eTPgsHjMdwxjZ0a0OaMt09FJLaUXZ/k92mr7f1SfsZf8FMvDL/DSaz+KnibSfCtx4Zt1Ztb1a9js7K6g3LGpklkZVWXc6rg/fJGMtkD8bf8Agvn/AMFlbL/gpL8QNI8G/D1b21+Efgm5kubeW6heGbxFqHzxfbmRmykKxEiFWVJAJpWkALiOP872d7iQbi0jHCjJyeOAP6V97f8ABJP/AIIZ+IP+Cg/xGvv+E41yf4b+F9CSC6ntntg2ua0hm2yRW8LkeQAiODPKrBGkhIimVm27UsPChaVWV3/XTU+fx1VYurOrhKThDdq91G/nZWV9l8j3D/g1R/YF1j4mftN3X7QGpL9l8I/DpL7R9JljvEWW91me2SKVGh2szQRWd47MSY8yTQbS4WUL/QPAqMzzTXHKbWWMMOedv5EZzg/Toa5b4KfA/wAJ/s7/AAn0XwP4F0Sy8N+E/D9t9jsNNst6LaoCSx3ElnkdizySMxkd2Z2LMxY9RAPNkjf7ikHcOCwPXH8h27/SuGtV9pPmMqcOVWJ4pp4Y1UXEuFAA/eD/AAoqo1/p7NlpIdx5O6Uqc+4zx9KKxLsSpCY44Wm8osFULtAwq5xg8nnA59T/AHafHOLh2QtGB/Dzk5H4+ox9ePSoL1Ihcwhm3NJIAqmMnB9cc49M8DoOCRnyL9tPxlqnhv4aW9paxvHa69cGG5uvP2soALCMLnLbwGBYcbUYEfPXoZTl08fi6eEptJydrvp3fS+my3b0RwZljo4PCzxM02oq9l1/rv03PG/2mvjR/wALM8XNZ6fLMNE01vLUF1K3sy5U3B2jnK4Vck4UEjaXYV5jRRX9PZbl1HA4aGFw6tGK+/u35t6s/n3MMdVxmIliKz96T/4ZLyQZrmfDXxp8HeM/GWoeHNH8WeGtW8QaT5n27TLLU4Li8s/LcRyeZEjF02uwU7gMMQDzXTHpX5p/8E1v+Uwvx/8Ar4h/9PdvXPmGZSw+JoUIq6qNp+Vlc6sBl8cRQrVpOzppNeetj9LKxfH/AMSPD3wp8Nyax4n1zSfD2lQsEa71G6S2h3HOFDOQCxwcKOTjgV8Z/tw/8FXfEXwV+N2veAfh7oHhW61DwfZrfaxqPiTU44LeYGJZWgto/PhMsqrJH8qu0jMJFWI7d5+Xf+CnX7cmpftm/Cb4faho2ly6V4GLO15FKzNLBr0YcTWzPkLKkdvLBIkioMrdHJDbo08vM+KsLh4VY0nzThpazs3ez18up6GX8M4mvOm6q5YS63V0rXWnn0P1z8EeOtF+JfhSz1zw7q2n63o2oKWt72ynWeCYBirYZSRkMrKR1BUg4IIrVr8ItUu/iN4I+NnwJjXwTpWj69otjpU/g/TEkeSLWY5NRmureaUtOxzPdTS7gHjABwFjAFfub4Su7+/8KaXPqtvHa6pNaRSXkCfdhmKAuo5PAbI6np1PWurIs8eP54yg4yha+9m2td0ra7Le1mc2dZMsDyyjNSUr22urPybv6rS9z63/AGF5JU+GGq7Q23+035HRSYYuc/l3Fe23EYvD5e/ysMGYjhuDnH0PQ+2a8T/YbtY7j4XXzPGsjprDlCf4T5MI69s5x9Cc8V7hJPslMmF3ryFlbqRg9D78entX4Nxd/wAjnEf4v0R+w8L/APIqof4f1Pkr/gsWcfszaHu2rI3ia3baG3YH2S7/AKnqOtflZ8a/i/p/wK+Hd54l1S3vbqysnjR47VVaUl3CDAZlHVvWv1R/4LEpIv7NOimRo2H/AAlEGNvr9lvM9z6Y49K/Gn/gov8A8mna9/13tP8A0ojr46tTVTFQhLZ2/M/duG8VUw3DlbEUvijzteqSM74ef8FI/AnxB8baZoa2PiTTbjVrhbWGe6t4vJWRzhAxSRmG5iFztIBYEkDJHX/Cj9qvSviz8bPFXgm10vUrW68Mmb/SZSnl3KwypDIcZ3IfMf5Rg5UZJUnaPjP4OWcHjT4vfCjTPiBGum6PHZRpon2O3SVtUBu5vJSdwzMqvPvQ8cAD5UDtKOyT9pvxh4D+MfxuuF1rUr630GDUE021uLlpLezkbVLe1ikWNty5jWTIBGCBt6E121srptuNJa26vTe3b7+xxYDi/GcsK2MmuXmd7RV2lDmaavotfda1kfdteY/DP9qrQfin8aPEPgexsdWt9U8N/aftE06Ri3k8idYG2FXLHLMCMqOPTpXx3pvxe+LGiaB4B1PUPHWoXGi+OtYluoYUum+0oYbhYJVdtoKxEk7Y1cx9TtBrnvHOteJPDPx8+Mmp+GtYm0WSwvb6S+mglaK4kt21WFNkbqNysZXiJwVyqsMkEq2VLJ9XGck3bS1972OvGcdS5YVqFOSSa5k7XcXFyVtdNNb9j9C/it8Z/DPwR0a31DxRqi6Xa3c3kQuYZJjI+0tgLGrN0B5xjpzkjMniX4NeEPGWqvfax4V8N6rfSAK1xeaZDPKwAwAWZSeBx1r8+/2oPFHiL4k/CL4U+Ktd1eTUG1XT7608kjaFltrt0abA+Xc8bQqSBkmLntX6C/CPwtq3gn4c6XpeuaxLr2q2aMtxqEhZmuSXYgksSeAQOT2rjxWF+r04zUvebafydtD3snzv+1cVVoTpL2cYwkrpfajza6vVp6WWlnd7DvC3wk8KeBtSa80Twz4e0e8aMxGex06G3kKEgldyKDgkA46cCu++G3xI1j4S+M7HXtBvJLHUrBw8br91x3Rh0ZWHBU8EVhUVwe0nzc19T6SWEoSpOg4Lke6srP5H7C/sl/tR6P8AtRfDSHUbTbpupW4+zX+n+apkt5ePun+JCMMpwOAeBg49TaQFNhK7th5wOBnOM5PcdOvFfi/+z38c9f8A2fviPa654fYSTMPs89o4LRX8TEZicDrk4wRyCAfav1x+Cvxc0n45fDjT9c0pvLhuCFuLd2USWk20b4nwfvLjt1ABB549vD1VUhzL0f8AXn+H4v8ADeKMheWYq0XeE7uPdd01vp36+t0uzEEMo3CPcG5B45ooE0ijHl2jY7sxDH60VsfMjZpftUrkO7spK5cMhYj5c+vJXr3yOuRXk/7VvwQuPir4ON1YyzDW9Di861tyx8u5zneijsxCg5IOdqr0LGvVo7sGZvLVojEwjYEYAAPPXrk5GeRxRJJG7bZ9rJGhYKB8qgE46d8+nOBxjFXTqShJTg7Nap+ZM4RnFwkrp6NH5z2tx9oi5VldTtdWGCpqSvbP2xfgH/wieqSeMNEh/wCJfdsv9qxJ/wAsZGIAm+jk4P8Atc/xHHiSOJEDL0Nf0bwjxFHNcJef8WGkl+TXk/wd+lj8K4myGWW4m0f4ctY/qvl+Vutxdu7gd6/MGy/Zd/ak/Z7/AG1/ih8RPhz4C0u+j8VatqqW099qdg0c9ncX/wBoRxGblGVjsjPzYIBIIB6fp9RXrZplEMa4SlOUXBtpxaT19UzzstzaeDU4xjGSmrNSTa/Bo/JD4sf8E8PjlpXxRtfipcfDLwl4wvvFkst5rfhkzG4hs72bCyGZFnViryu0ytBMypghtiDadf4uf8E1fjX4s/ZV0HS7TwHodrr914w1XX7rRNK1G0gt9Gt5re1ghiBkm2H/AI9iQFklbaVLsXL1+rFFeT/qfhPfXPK0/Nb3Tbvbd29NXZHqf62Yr3HyRvHbfbWy36X9XZXZ+an7ZX7GXxmtviR8AfHvgzwnD4g1DwH4Z0LTLix+0I5s9RsZmmAnUOoaBmkC743IHlvlkGxm/RvwlLqE3hTS31eNIdWe0ia9jTG2OcoPMAwSMBsjgke5rQor2MDldPC1qlWnJvntdO1rpWutOp5OMzOeJpU6U4r3L2a3abvqfUn7Ek6W/wAJtTZ/urqzhuPugxQ8k9ByBz2Ga9yRp5JpIx5bMw4kYkZzwMddowe2a8R/Ya4+FOrFVRpP7SfAY7Qf3UXfH+c17csM/nBYY1a4/wBWin5VbOOCM4HoDxjrmv574u/5HOI/xfoj9s4X/wCRVQ/w/qfJv/BYtn/4Zi0FZd3mL4ngByc8/ZbvP9Bj2/Cvyf8A2ivgz/wv74T6h4X/ALS/sn7dJE/2n7P5+zy5Ff7m5c5246jGa/WL/gsbIrfsx6FtbP8AxVEI/AWt3jHt3/EV+atfD4ypKFaM47pI/oLgrD08Rk0qFZXjKUk1to0u2p80az/wTzuLi88D3un+OG0/UvA9nFb2850cTLK8VzJcRybDMAuGkwVO4HaPpVP4gfsgaH8MJfih458Savea1ofia2uXu9OtLUW1xarLexXIeOUyMGeNowVDKFYgZwCRX1HSOiyKVYBlbgg96mOZV7rmeny733sexU4Ty7lfs6dpdG3JpPl5U3Fuz03T36n5beBfD9j4x+M/gfQ/Deo+INcVb2CMS3lkIfskRm811SFJZdsceZZHbeB8znaMFm+qtS/YJsvGHjD4lXlr47tXm8YtKk9vFp6yNpbSahDd4bE/zEeQUwQuck9tp92sfg/4b8L219/wjuh6H4c1C+tZLX7Zp2nxW80at7oFJAYK2MjlQe2R5H8D9Mbwp8WVt9UvP7Ju7fdAbWQMGu2ZSAmR8u3owJPzHZtBzkewsXKvGVSlLlcVtZNvW/b8vnofEvI6WV1qOExlNVI1pWupSjGPu8tld3bs29XrtHXar4x/4J6W3i/4HeDfCTeK5YbrwdLdtHfjTw0dwlzKZXUw+ZlSDsAYSEYVuDuG3274TeC7z4d/DzTdG1HWrrxFfWSuJtRuQwlumZ2bc25nORuxyx6VvNwNtB4TH+f8/wCfavCq4qrUjyzd1dvZddz9FweT4PCVfbYeHLLlUb3e0UklZu2iS138yTdxQDmmEbQB3Ndn8M/A11qepWpS1mlvLp0WxhVW3u5I2sB75G0c5znHSlh8PKtLlj94s4zihl2GeIrP0XWT7L9ey1N74H/CDVfFnimzs7C1e61bUsxW9unVAQMsx/h+U5Pouc9SB+o/7MXwBs/gB4HSxtxDNeTBJNSvTn/SZAWGAD/ChJCjgnB6c1+TP7D3/BSTxpqPx88J+Dfh34F8N2ur+MtQj0y/1PUIbrWLm2t3kUyzRxwy24WOGJXlcMTkRkl1A4/aHT4sBUjZmjmXJIbaMA9/oAOuO3TgD6KVF0Yqktj8Bx2aVsxxEsVXer+5Lol6E0EapAitDGWVQCTK5JPvk5/OipGhnDHFxtGeBg8frRWJyEdrcNc28bAOisg4YjLHOC3GeDzj2PIFOUJKjLt3MoBGcc4II5Ppjjn8fRLqOZmjVtwXcAMckgAcd+mfb8BTLmRo43kRZPvbl8vLYBP1PAGTz0GR6igRHfafDrOmXFpeRQ3VvdR+VLDIQyMrLtZemSDz19e2a+G/jb8Hr34GeOJLGbzZtJvD5thdMm0OD95T6MGz9QQejCvutIyIPL8zzGkIUtkcjnPOPwzxxjqevLfGv4VWPxg+Hlxod4yRXSsZYbgESNaS8bSowMjru9Q3Qda9bJc4rZbi44qj03XddV8/wep5ubZZSx+Glh6vXZ9n0f8AXofCtI7+WjMeigk1NqmgX3g/XL3RtTjeK+0uUwSbv48dGHqCMEHuCD3q34VsY9U8UabbTLuhuLqKORf7ylwCPyr+k8LmdLF4JY3Du6abXquj9Hoz8FxGX1MNi/qlfRp2/wCCvVGH/bcO/ady/hThq8ZbG2T/AL5r7it/2YPAqTBm8M6a2UB2uhGwkdGPX65z0HTvL/wzJ4BtY5G/4RjSyGX92QzDOe+PwYY78c9q/Gv+IlZr2h9z/wDkj9U/1By7vL71/kfCx1qP5fkk+b2HH15obWokJ3LIu3jlcdgf6jn3r7is/wBl/wAAyP8A8ixYdS25g42duOeOB9acf2YfAckz7vDOm/MQysC/YDIGW6kZ65xnPsF/xErNe0P/AAF//JB/qDl3eX3r/I4n9g+8iuvhdqrKit/xNGOSD8x8mIjp/wDW5Ne5zNJEmIVHmMwJJ6EZw3T26dicVieEfhrpPw+037No1vDY2s07TPFCg+clQp6gkYCr054Gc9DvSLFFKzZ+Vfnbys8DqfXsevX2r4jMMdUxmJniqtuaTu7bH12BwcMJh44ene0VZXPnH/gpd8F/Enxy/Z70/T/Cumtql1p+sxajNF58cGy3S3uQ0n7xlBw0ijA+b5uh5r8yT4D1ZT/x6N3/AI17cetftxcquoeZHPAZopBsZZV3pIp6gjkHgd+Oawbn4MeETLGD4V8PSbSwkAsohtGRnJ2jp7ev5eXUw0Kkuad/kfZZTxZjMuw/1ehGLV29U29fSSPxjfwPqiHBtuc4wJFP9aX/AIQTVSP+PX8pF/xr9mT8CfCKk/8AFPeH9uzGP7Mt2CnjLDKn1HU7QAMVJH8EvBsaLu8L+HizHGF0yEkYx7dOeM/nUfUaPW/3r/I9P/iIeZfyU/ul/wDJH4v/APCCaqZv+PX/AMiL/j/n+XK/E39nmT4g6b51zarb3FmN63Hy7ig3HY3IZk6nAIOeQRzn9vpvg54ShhYt4V0GRWfOf7KiTnv8uCeoI/iBznB6Dh/2j/hP4U0D9mnx5cW/hnQrOb/hGtQlt3h06JDG620rb1IXK845z15znJq44aFN89NtNea/yInxni8bbC4mlTlCTSatLv8A4j8M9H/Zw8O6lI8M1zrFvewAedAZ4225zhlPljchwcNgdCCAwZV0rP8AZm0fTbsTWeqa9a3EYOyWO4RWQkY6hAe/Yjg12fifw3/b9gvlXE1hfQndbXcP34WyDgjoyHA3IeGAHcDGj8KFvPFcs0eq2bWU+lsv23r9nuFJ4aF+NysATjO5OQecFsoYnFVv4c2+67efp+XXz+uxWU5Ll6c8XRjFLVS118tNpdl13XVLj/DXwp+Jnh68s5tF1K18SWUtwqlNUBG1iSC5yxYxrtXhXJJJAQ4avt/9kn4f6t+0rrNxp/w91e4s7Nma38UePbMDGixHltN0mVlKyalKhBe6XMdpFIrAtLIijG/Y9/ZT1P8AbO1ZNYkbUtH+D+iS+VNfWsj2914wmiYqbSzkXDR2aMpSW5XBcq0URGJHT07/AIKT69q//BPbUfgX4/8AAuqX3hP4W+GNfGg694S0VY4ba9gnDTMyQKqpO7QRXYzPMQknkvHtdpZT7UVb90rX9Ervzt+Hbqfj+YY6WJqOpqoL4YuTlyrsm236+e1tD6W+EH7Cfwh+B3iLTdS8H/D7wvpOsaDCYrPUUg3XUYMZhJ887pGLIXBdiWbc2ec7fYoZd2dhZduV27x6g9OT04x079hmuIVhtpVdZIZGbEcvmBlYYxwBnuBwwxnHA+UBumAy2Sv5jFpDgMxzwcY9eOfzPXvXI5N6sxVkPbw/CGOJLhRngLK4UfQZ6UVfivIY4lVlutygA4jyPzoqQIrqyUTR7oVX7OSyjBfYcdv1GeuCRRbo880mQrLDCHwPvcnB3D8OOufm9OViSG0lHlgMrH02ksTktgfU5OTnJ45oZTelQrNHt6kfxbcnp05Ht36jigAj3XBm8lmiABAZh5io2APmAPrz2xjr0zBHGrv8sbP9qyuNhO8AHrj7vuSOuAecVJLExiCK+1cjO1cL0GeBj0HX361FZN5qN5iK8kIUg45JPT8OgBzzg9MDIB49+1/+z1N8SvDUfiDRbcHXtLDSOEX5r6EfwccllwdvqCQc5Br5k+HVyLnxlozLkH7dCCCOh8xa/QBI4kbzPlEnAdtvOxc4Unr1Y4GR1PJzXzH+0J8CpPBXxb0bxRo9r9n0XVL+2+1xKvy2c7OBnj+Fjj1w2R/EBX2fCXEry6c8PWf7qomn5O1k/wBH5elj5biTIVjoxr0l+8g9PNdV/l/wbn0+o23gjGNxyAoIG4EYHGcnkE/l36xPKvls+XdoznIVgAcHoucnrwOc9uakNu0G3a0jtGxUuAFLdMk4HQnH19B2jhlztjYLteThmPQbQcYGTknnqOhPpXxh9STG0ZxJjauPlTd82GJJ7gHkZ68DtznMbGaO2doVha48tvLSVyEkbsC4BIBIyTgkfWnuRjaqtGNvAx1yMcden079KS2uzK6bVZlV2VsHdvA6HPUcjGPqPegAumMcMb7vL3AEMflKngjPvwfTt9KDJl5AI5FbBxHHkgD1JUnOeDxVeW1aQXhuCrx5zGYnZmKjac/dBU7t3QtwAc84FhJ/sjGVgzLGoDA43kjBBz0OMc5/A0AORjcqsmcKx3S4bII5POcn8vX8KQAlwHKgjrJjdnvyB0A69cEnFSz7kbd/EzlCyg8YPJ/TGPwzVaW5kaORUb94oWQdGLDOcY46gdfY/WgCVCwjbzcKyMXwMt8vUHp/d7djx0GaRrvzdmeoXhkPzN8xGPbHv7UXZbenzJiNcsM8knjuPYnnH1qKwwsUfkqyqH3DzFLBQCMjnkeg9M+goAhurgz3ZhX5biVSybuD1x37HIBJUg5HUYB4X9q9v+MaviBGPmK+F9SJy3cWsv5nqc+/4j0K4Ky301wkhkWPY5CryCUGARyBwfUdDjjO75++M/7X3wg8d/BPx7ptp8XvhrNcXvhnU1jEHiGC8kVRZys7eVC0kzhVG4rGjMQpwpICg5XJWRthqkYVoSk7JNfmfllpul/b3kaSWO1s7dDJcXErBY7dACSzE8AAA9SOnYV9C/sYfsTXn7Z8+m+JvEg1DRPhBpN3FJp2neR5c3jEISxlm3YK2ZIACY3TBnYlcBlg/Zc/4J9+Iv2l/ij5njLSdR8O/C/w+9vcf2HqEXkX2qyYWRTfqpxGzqBIbcM/leYiOxMZZv088L2FrpIa1sbVbe3tYljWCFCkaqOEAH3eAuDjB4GegC1h6Kw8OWLvJ7v9F/X/AAPd4m4gnm1ey0pRfurv/efm+3Rad2/LPhd8YY/CPxKf4VeKPDOn+D7iGab/AIQxbFSNI17SI1zAtu21UjuoIhtlsx8yiEzIGhII8w/4LhaLaX3/AATW8dte2VrPd6bPpd3aySxq72sjahbx+ZGTkqxjkkUkc7ZXHIJr6C+J/wAHPD3x28O2+k+LNOj1CG0vYb2zlhnktLixuofmjuoJo2WWCZDuKvG4YAsA2GO75P8A+CsOu61pn7AfxD8FeKL2G61KaCzm0XXLl4rKLxFDb31tPLE4+SKPUY4oXZoEAFwqGW3Tia2s9aVnUi13R8xP4Wj6U/Y61i88R/sc/CG+1G7ur3UL/wAHaTd3VzcyGSa6kayhLvI7Es5ZmyWOck5OSQD6lbzxrP5UaSHbjcSTyWBGcnIweAQenWvDf+CcHjrS/iB+wz8KdS0m6kvrWx8J2GmyOEMf+kWlultPHhtv+rmglXJ4IGQSrbm9ssLqQGSNWVd2OVU5HzH+fTn09RgZSXvNFx1SHW6K9vGzXFwGKgnbbsBn2G6ipWRwfltQy9jvAyPpmipKIrd4ZEYxCM+d80hjOV355Bx3B4PcYxT5IUlRy0hLFcHBH3c5I6Hrk55/KmSTmERxxxr8m1Mk8YGDnvz0Pt146UfaRab33RkI2DuG3joO5we31GfYgiSKUYy25fu+u7BGcng4IPHfpz0qNZVnu/M8to5EbgswHlhueg4bHAzUkW7yCzqySEhQoJZV689OOMcHHJPtl+8LYqyKpEjZCBCucYIJ4GM5PHXqcUANjht7eZ2RrdrhsB1STkDsTjP+0AfbGag1HSbbUrbybiFZkbClG/iwQQO/Tk+oI696lilaG12tGGkjX5mAK8jAOOemccnP9KihQpHDwpIjHyLhFVh0H0/DjB4OcUATRy4MaqCowVOepYdTjHfknoMjgdhHfyx3Ukdu1vI2w70Yk4JUgj5uMckcHn5T1FPtlM1zvaNgrL5gZGzuBHOBj6Y5Pf2qeFvs0k3mBcxDGPLILHsOB/dPXoMGgCuIIkaGSSRQ+5toMx3MCDx15GM8dPlBxwKd5MbRs+1VJYvjOdvJ5HOehPUetMh3XDqG2/K5KALkHjbz3656Y/xWb9/NMPLjjYurYC7d42qu4/l15OBgc5wAOkZJF/jjOwFgOeM989zz6cCpPtp06VJ1DNJ5i7QF5GSADgehGc9B36VXaCbzY2aHvsDeZ0AGAfunPPUAjgnkkc2ni2TNyo5xmQYwCeenp16ZwKAITbgQyF/L8uMZO58ZYHJ5z1wB19Ac96JRHPcNuWNw2VclhznPTnpyeffH0Zvj+eGORVjUbD5eGIHQHnIx8vcH8ez7qcIIVZYED70VjH/eK4A574PHTj64AGxCN3VcGNoxjgYDcHgfTB6fj1p6gvCqiTakWRlxjPf+Y/z2gkhmmYK0asoUMD5mMk9iCCOw55yScAVPFBI0a7gBwMlsYPOc+vpntmgD4+/4KT/s+ftJftVxXXg/wB4m+Hng/wCHV9aR216s+o3UerayNnzrM0dqwjg4KeXGx3jcZGKuUT8u7e18UfBvx/q3wB+Dlldal8Q9avD4e8Ua/ZQNDqd/dW88oudPsZjIBb6WpjRnkZY5JfIeSZkhxBH+/kiiWZWZo4WY/KNynAOTgFSRnAyMeg4zgr5D+zl+xD4N/Zs8eeOPFmmwjUfFXj7XL3WNQ1W8toxcRRXVwZvsMTKAVgXAYrk73XccABV6qOI5I2a/4fzMZ07u56xJDDa2TRqpRpnMjsg27W6lmI9SG5yMkdepEl1HLb2zxW7LHLId24LuwR09yDgdh/JakubMyNHMrLNDIATyV25wT9RwCPqSSeMD2zSzrufMasAc4wvQY69Ocevt1zymxA0S6TY3DRNmWZiSTIPnfZtAHp0PTHU5PVqwPir8LvDfxn+GureF/FmjWOtaLrlsbe+tLgNiWPI2nOA6uGRGV1w6MqsuGUAdPfW8eY98iBIxlsD7vqc+wVcj2HIOCGSwLDdMyyGQF9wV1G0cHOSAD0z3xngADOS/VAfjX+1x/wAE5f2jv2Vfh1rvw/8AhvceI/GXwT1nVv7ZFposUcmqSTSRrCYbuKFRczbVjUERhoGEaSlI2+VP0E/4JH+Cfir8O/2MtGtvi1cXkmuTXEtxpVvfyNLqWm6a6xiG3uSw3CQN5zBGLNHG8cZ2FfLj+kmtmmBMc0btBhGiOSxwAeWzxkjrzx2zgrIrSSIGHzMwIEYbIbOMH69fbj8uipiHOPK18zONNRd0Qm31Rfu3Fvt7bovm/HDYzRV6GLzYlbfCdwBzvHNFc5oOlUOsO4A/X8KqOPNgO75sQEjPOCFbH8h+VFFADlYgQt/FgHPfJB/xP50y5bzNSlDfMC7ZB79aKKAJixFuOTy/Pv1qGORvN27m2/LxnjpRRQBZlRUnk2qB5bhUwPujOMD04qCR2a2iyT/qh3/36KKAJIFEVtIVAU4IyBj1pC5RY9pK5bHH+4KKKAHSH9xB7h8+/WkkUNZ3OQPu4/8AHBRRQA2GJZC25VbgHkd+aZHI2+4bc24LLg55HC0UUASGRjE3zNxE7Dnocpz9aSEbnUHnbkjPY/LRRQBMsEeFXYu0mTIxwfneodRiWOO12qq7YwwwOh83Gfy4oooAJGJ2/wDXUL+G5eKLc7711bkY2YP93eox9PaiigCxNChjcbVwAuBjpy5/mAfwFOvIEYE7F/eS/Nx97nHNFFAFbezPHkk/Lnr33VVtnJt4Bk4+Q498/wD1h+QoooAvxWscsas0cbMwBJKgkmiiigD/2Q==</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>/9j/4AAQSkZJRgABAQEAYABgAAD/4QA6RXhpZgAATU0AKgAAAAgAA1EQAAEAAAABAQAAAFERAAQAAAABAAAAAFESAAQAAAABAAAAAAAAAAD/2wBDAAIBAQIBAQICAgICAgICAwUDAwMDAwYEBAMFBwYHBwcGBwcICQsJCAgKCAcHCg0KCgsMDAwMBwkODw0MDgsMDAz/2wBDAQICAgMDAwYDAwYMCAcIDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAz/wAARCACCAIIDASIAAhEBAxEB/8QAHwAAAQUBAQEBAQEAAAAAAAAAAAECAwQFBgcICQoL/8QAtRAAAgEDAwIEAwUFBAQAAAF9AQIDAAQRBRIhMUEGE1FhByJxFDKBkaEII0KxwRVS0fAkM2JyggkKFhcYGRolJicoKSo0NTY3ODk6Q0RFRkdISUpTVFVWV1hZWmNkZWZnaGlqc3R1dnd4eXqDhIWGh4iJipKTlJWWl5iZmqKjpKWmp6ipqrKztLW2t7i5usLDxMXGx8jJytLT1NXW19jZ2uHi4+Tl5ufo6erx8vP09fb3+Pn6/8QAHwEAAwEBAQEBAQEBAQAAAAAAAAECAwQFBgcICQoL/8QAtREAAgECBAQDBAcFBAQAAQJ3AAECAxEEBSExBhJBUQdhcRMiMoEIFEKRobHBCSMzUvAVYnLRChYkNOEl8RcYGRomJygpKjU2Nzg5OkNERUZHSElKU1RVVldYWVpjZGVmZ2hpanN0dXZ3eHl6goOEhYaHiImKkpOUlZaXmJmaoqOkpaanqKmqsrO0tba3uLm6wsPExcbHyMnK0tPU1dbX2Nna4uPk5ebn6Onq8vP09fb3+Pn6/9oADAMBAAIRAxEAPwD9/KKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAor42/wCCt/8AwW5+Ev8AwSL8EWv/AAlbXHif4ga9ayXOheD9MkC3d6ikqJ55SCtrbF/l8xwzMQ/lxymNwv8AOR+3b/wcqftUftuazewQeO774W+EZn/caD4LmfTdiYZcS3ikXU25Ww6tIImPIjXpQB/WP8Z/2nvhr+zha28/xD+IXgfwHDebjbyeItdtdLWfbjdsM7puxkZx0yK+afil/wAHDv7FvwflVNW/aA8H3jOwUf2JBea4Od3U2UMwA+Q8ngZX+8uf42NQ1G41a9kubqea6uJmLySyuXdyeSSTySfevpT9kf8A4JaeNf2vPCmn69pviTwT4b0W+kcG41i7nV440m8hnEUMMkkp8wgCOJXkIy23YrMPPzHNMJgKarYyooRbsm9r2bt9yb9EehluU4vMKjpYODnJK7S7XSvr5tL1Z/TJ/wARRn7Cf/Rc/wDyzPEH/wAg1658Of8Agth+yR8VIlbSf2ifhPEXfYqan4gg0qRj6BLoxsfy5r+T/wD4KC/8E/1/Yw0zwneafql1run65HIk19I0axvKrMEZIxiSNZAkjBJBuCqpzhhn5lqcpzbDZlhY4zCSvCV7dNnbbdf5WZpnGT4nLMU8Ji1aSSemq1V9H17Ps01uj++nwd420b4h+HLXWPD+raZrmkX0Yltr7T7pLq2uEPRkkQlWHuCRWnX8F3wf+O/jj9nrxYmveAfGXirwRrkasi6hoGqz6bdKrAhl8yFlbBBIIzggmv1f/wCCcP8AweCfGT4Da3YaF8fLGL4ueDWlWOXVreGKx8RadHlQWUoEgugqhjskVHdjzOBXpHln9OVFeb/so/tdfDn9t34M6f4++F/irS/FnhnUAF8+0lDSWc2xJGt7iP70M6LIhaKQB13DIwQT6RQAUUUUAFFFFABRRRQAV5P+3X+1no/7Cv7H/wAQvi5r0a3Fj4G0eXUEtTJ5f2+54jtrYPg7TNO8UQbBwZAccV6xXwj/AMHMvg7U/HP/AAQ++OtnpNvc3Vzb2ml6hJFCm4m3ttXsbidzwTtSGKSQkYwEJJxmgD+TH9qb9qDxr+2d8ffEnxM+IWsSa54t8VXIuL25KhEUKoSOKNBwkccaoiKOAqAV6z/wSh/4Je+NP+Csv7VNr8N/Cd5baHY2lq2qeINfuoTNBolgjojS+WCpmlZnVI4gyl2blkRXdPmav16/4M+P28vBf7LP7ZvjT4d+NL6z0RfjNY2Nnoup3Uwjh/tK1lm8mzYkYBuFuZAhLDMkcaAFpFwAe8ftCf8ABCr9n/8AYZ/aD8MeBtCF5r2oaX4dj8Q6vrfi6SG5a5ubm7kS0SOJlFmEQafeny5YsHzFVzcF1ROg+Ol1N4I8TQ634E0vw9pOn+JIrW0ufDGm+GNPt9K1KTctnbrcSRfKjzNcxRuY0tgo2b0kMbVf/bg8e+Ifj7/wUi+J1nZw2P8AaljrM2j2FtqlzHDqenW9pHDAE3zBI/sEzW73kKBiitcO7Zkkcj0/4M+HPBtxpmm6T4q8OyeIrrVruOFtPvtRu54J5LS5TdLiC4jgCiRFYRljGGCbVfapP4R4jcSUcLeji05U6kuXa8U4q6unqr2eqWm+9mf1Rwbl2Fy7K8NiXRUqip3urcz5/e+K6ulp6Wte2hzX7LOs6t4P+K+k+MGt/C+pWTXBuZLB7q4t47+KaMNJCJFjnEqO6QO5li2gQBgEfayey2n7AXwS/wCCo3xP8ReE/i58E/hjpdxNo0+p6Trvg+3fw/rFhtmSEESJJm9A81TveMRxvCBJFieNF8x8E2Ok6Z8CdHktGsSs3h+yuV+14SPzEgSTzFfDbpTPIxAIGGX72enE+Hf+CnGnf8EwdOvfidqWk6742ay02702WGWGeSSY3MaPAhvf9XGz3sFnGzShylvC5RC+Fk+C8NuJ8xw+Z0MtdX9y6jTSS1bTirvVrZaWXd63b/jHFcZ5tnGOo18xrueiWqitHrbSKb1b3btsrK1vxh/4Ky/sEj/gmf8At6eN/g/DrzeJ9P8ADrW1xYalJAIJp7a5to7iMSICQJEEmxiDhim4BQwUfONeiftY/tR+MP21P2ivFnxR8eX0eo+KvGF59rvZI4hFFGAqxxxRqPuxxxIkajk7UGSTknzuv60Ppj9IP+DYj/gpHrX7D/8AwUa8M+DZ7qST4f8Axq1C18L6zZMcpFeSuY7C7T+66TyBGPQxTSZBIUj+tyv4aP8AgnV8ONQ+L37fnwT8M6YJPtmteOdGtUeNCxgBvYd0pA52ou5yewUntX9y9ABRRRQAUUUUAFFFFABWT498DaT8UPA2teGdfsYdT0LxFYT6ZqNnMP3d3bTRtHLE3+yyMyn2Na1FAH8YP/BZr/gkh4u/4JKftSXXhi/S/wBW8Aa8z3fg/wARyxAJqtqMFopCvyi5hLBJF4z8rhQki18g1/dl+1p+yD8Of25fgnqXw9+KXhix8VeFdSZZWt5y0cltMudk8MqEPDKuTh0IOGYcqzA/zX/8FRv+DTr41fsjarqHiP4MQaj8avh75jSRWthb7vE2mRk/Kktog/0rGQu+2BZiCxijFAHzl+zz/wAFrPF3hHwxovhf4weEtH+OXhjw+ETSrzUr2bSfFmhRoJQkdnrdv/pCorTMRHcLcRrhQEAAr9Fv2I/+Cg3wh+JHgfSdQT4geHPB9tDfyMLLxZexSa4ieZlI72TzMXnQRiULGJI1UlUJMa/g5qulXWhalNZ31rcWd5auY5oJ4zHJEwOCrKcEEHsar18VxtwVh+I8JHDVZum4yUlJJN6Jq2vTW++6R9Rw7xVisplJQvKDT91t8t3b3raq/TbZn9N1j4s0L9pH4y6p4f8AgB8XPgvqWrRM2pzadrOvQ6bb2M9w7sY7QwrcO4d3nk8lYHWLnMkYaGI+D/tr/wDBvd+3V+014S1a3m8Ufs+XmlalcrdS6fpOtal9s1Ah96l5rmyVCQ2GO1kBIHBr8Ca7H4XftE/ED4H6pHfeC/HXjHwfexEFLjRNaudPlTB3DDQupGCAfrzXJw34a5PlPLVcfa1k+bnldvmvo1G7imtLOzlpdtvU+TxuEwNbGPGUqEYNu9leyd73tstddEkuiR9taz/wav8A7cmlBjH8H7O/Ve9v4v0XpjPR7tT7etc3e/8ABtV+29YTbH+A2sM2M5j13SZF/NboivLvC/8AwWX/AGs/CF8txaftIfGiaRSCBe+Lr2+j4OR8k0jr9eORweK/Qz/ghP8A8FGv+Cgn/BQz9tjwx4X0f4vavq3gHwze2upeOL3WNFsLqzttKE4eSB5WtzJ51wqSRRBHWQ5YqyJG7p+gGh7h/wAGzf8Awb5/FL9lz9rC8+N/x68Lt4PvPBtrNZeE9Gnu4Lm4uLu4iMUt65hkdFjjgeSNVbJZ5i3y+UC371UUUAFFFFABRRRQAUUUUAFFFfnX/wAHCH/Bbyx/4JPfAq30HwlJp+o/Gzx1bOdAs5lE0ei2oYo+pXEeeVDBliVuJJFbhlikFAHoX/BWn/gub8Hf+CSvhRbfxJcS+LPiPqVsZ9J8G6XMq3k68hZbmUgra25bA3uGdvmMccmxgPyc+DP/AAe6/EbS/H2pSfEL4J+C9a8L3Uv+g2/h/VLnTb/TkLj/AFks32hLkhMjASHcxzlR8tfit8Tfih4k+NPj3VPFPi7XtX8TeJNam+0X+qapdvdXd5JgDdJI5LMcAAZPAAHQCv0G/wCDfn/ghFqH/BU74jXHjjxw9xofwL8F3qx6tcq5hn8RXCgSNYW78bFClTNKCCiuoX5m3IAftN+z58XP2Qf+DnLwLrF94g+BPiq6k8IKtrNrHiTRDpssDFVYw22rWUx3bS4PkmZWx8xi2nNfIvjn/g1v/Yz/AGqbq6X9n79qa203VftLB7SPXdL8X2lqATuiWKGSCcEdAXmYjHOa+Zv+C5f/AAXd0HxV4Lk/Zd/ZNi0vwT8APDkT6bqWoeHoBZR+JsljNb24UDbZM7uXbG65YuzExsfM/IgHBoA/aj4pf8GSfxx0jWPL8E/F74U+INPz/rtbj1DR5v8Av3DDdD/x+vEfiP8A8Gi37ZngfVGt9L8O+BfGUK7sXOj+KIIomx0wLwW7/N2yvbnFfBPwc/a7+LH7PTt/wr/4nfEPwOZMBh4f8RXmm7+uAfJkXPU8H1Nf1n/8EEv2T/jf8Av2R7XxN+0J8UPiP47+IvjyGHUG0bxLrVxfR+ErUgtFbBZmLfamDhpmY/KQsageWzSAH4KfD/8A4NNP21PF/jLT9N1TwH4b8K6fdyhJ9W1HxVp81rYr3d0tpZZmHskbHPbvX9IX/BLD/gmN4F/4JS/ss6f8OfBsk2qX00n9oeIdeuUCXGvagyqrzFQSI4wFCRxAnYigFncvI/0lRQAUUUUAFFFFABRRRQAUUUUAYHxW+J2i/BT4X+I/GXiS8XT/AA94T0y51jU7oqWFvbW8TSyvgcnCIxwOTiv4jf8Agoj+214i/wCCiH7Y/jj4t+JPMhuPFF+zWNi0m9dKsI/3draKQACI4VRSwA3tucjLGv7avjR8G/DX7Q3wn8Q+BvGWlrrXhXxVYy6bqtg00kIu7eRdroXjZXXIPVWBHYivxc/bq/4MsvBfjSW81j9nv4hXngu9leSVfDvivfqGljcRtjhu41+0QxoMj94ly7cZYY5APxF/4JrfsB+K/wDgph+2F4V+E3hRms31mU3GraqbczxaFp0eDcXjqCu7YpAVSyh5HjTcpcGv2j/4OSf24fDP/BLj9h3wZ+xB8C4Y9F/tnQFi12WKTM2naGzOGiYqAGub+bznlckEp5uVP2hWX6h/4IGf8Enbf/giR+yL8R/iF8ZZNBsPHuoLd6h4i1S3lF1b6HoVgruqJKFztZUkuX243BoVZd0Qx/Mv+2/+1Zrn7cP7W/xA+LHiKSZtT8caxLfiKR95s7fhLa2B/uwwJFEv+zGKAPK6KKKAP0Q/4Nk/+CeUf7en/BTHQbzXLRrjwP8ACZF8XayGQmO6mikUWVqTgr89xtdlbh4reYe4/rsr8l/+DOv9lC3+C/8AwTI1D4jz20S618YfENxefaACJG0+wZ7O3ibnB2zrfOCO0/tX60UAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAfBv/AAcw/Gmb4Jf8EW/jJcWd01rfeJLaz8OQlXKtKl5eQxToMEZzbmcEdxnORxX8etf2bf8ABc7/AIJt+KP+CqX7DE3wv8IeJ9I8K61HrtprST6osps7sQJMvkSGIMygmRW3bHwYx8vcfzeftS/8G0v7Yn7LBvLib4V3Xj3R7R9i6j4JuF1oXH+0lsgF5t92gXHfFAHwZRWp4z8D618OPEl1o3iLR9U0HWLJtlxY6jaSWtzA3o8bgMp9iK7T9jb4WWnxz/a9+FXgnUI5JrDxj4w0jQ7mOM7Xkiub2GFwDg4JVyOh+lAH9rX7B37O8f7JX7Fvws+Gq28FtN4L8MWGmXiwtuRrpIF+0OCODvmMjZHBLV61RRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAcV8c/2bfh3+0/4Wg0P4keBPB/j7R7Wf7Vb2XiLR7fU4LebYyebGsyMEkCu6h1wwDEZ5r4Q8S/8ABrl+zfo/7UHgT4ufDWPxD8MfEfgbxbpPiqLTrC6+2aLeGyvobqSFrebMkfmrGyAxSqsZYNsYLsb9JKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooA//9k=</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>/9j/4AAQSkZJRgABAQEAYABgAAD/4QA6RXhpZgAATU0AKgAAAAgAA1EQAAEAAAABAQAAAFERAAQAAAABAAAAAFESAAQAAAABAAAAAAAAAAD/2wBDAAIBAQIBAQICAgICAgICAwUDAwMDAwYEBAMFBwYHBwcGBwcICQsJCAgKCAcHCg0KCgsMDAwMBwkODw0MDgsMDAz/2wBDAQICAgMDAwYDAwYMCAcIDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAz/wAARCACCAIIDASIAAhEBAxEB/8QAHwAAAQUBAQEBAQEAAAAAAAAAAAECAwQFBgcICQoL/8QAtRAAAgEDAwIEAwUFBAQAAAF9AQIDAAQRBRIhMUEGE1FhByJxFDKBkaEII0KxwRVS0fAkM2JyggkKFhcYGRolJicoKSo0NTY3ODk6Q0RFRkdISUpTVFVWV1hZWmNkZWZnaGlqc3R1dnd4eXqDhIWGh4iJipKTlJWWl5iZmqKjpKWmp6ipqrKztLW2t7i5usLDxMXGx8jJytLT1NXW19jZ2uHi4+Tl5ufo6erx8vP09fb3+Pn6/8QAHwEAAwEBAQEBAQEBAQAAAAAAAAECAwQFBgcICQoL/8QAtREAAgECBAQDBAcFBAQAAQJ3AAECAxEEBSExBhJBUQdhcRMiMoEIFEKRobHBCSMzUvAVYnLRChYkNOEl8RcYGRomJygpKjU2Nzg5OkNERUZHSElKU1RVVldYWVpjZGVmZ2hpanN0dXZ3eHl6goOEhYaHiImKkpOUlZaXmJmaoqOkpaanqKmqsrO0tba3uLm6wsPExcbHyMnK0tPU1dbX2Nna4uPk5ebn6Onq8vP09fb3+Pn6/9oADAMBAAIRAxEAPwD9+s0uaTpSmgBM0uaXNFACA0ZozSZyKAFzRn/OKM4/lRuoAQnilzRuo3UAGeetGaN1AbNABmkzxS7qN1ABmgGjNBNACZ96KdRQAgpaSloASlpMVDqOpW+j6fcXd3PDa2trG0000zhI4UUZZmY8BQASSeABQBNXzR+19/wVj+D/AOx3dT6XqusS+JPFFuxjk0TQ9lzc27ANxMxZUiwRypbeAQdhFfFH/BUn/gsvefEeyuPAvwX1bVNM0dQsmpeIbPzbO+uypV1igfKvBEcFWJCySNhAApIk/L/XL+4upPLW5XY6Y2lv3gkO7GMjkcHJOR0PPb5HMuKIU5ulhdWt30+Xf129T9EyPgWpWgsRjrxi9o9X69vz9D7f/aG/4OHPjB471N/+ETutH8DaT5zW8cNnYR3Vy2c7vNluN33Bg7kSPqCVOQp+JfjX+3V8Sfi/Bbw658QvF/i+K1dmjjvtSnuI1UucyBHYhdxBAA7FVzgBTwtzrnlpdLd+XM1wuMOxaNi/y/uhwqttQOXzuJVQGLcVyPiCLzhdTTtIz25ZZIXk8vZk/cUfxYZjkDcc5JOMGvKjja9XWrN+n3dD66OS4Sg+SlTUV6a/fu/mTat44uLSZWae5tpMBBDvCkEttOApzycHnjA7A89h8JP21fiN8EINQt/C/jzxV4Ra9RYi+ka1cWm47xtLiORQ2F3Hb8xHI57eS3UM22JRKsaySb5CXHyjAKseOCRnjJx1zyCBrm3trb93BEszKcMRuVfu42g8ZG05x0yo9M90Kkt0zhxGHhtKOnofpB+zd/wcifHz4Wa1b2PiS+0f4haZHJHBcR6zZRxXMSIPm8ua2ETeY/A3SLKBnOGJxX6n/sU/8FxPgj+2Vq2n6AmqT+CvGF8qRxaVrpSKK8nOA0VtcgmKUhyAqsUkfqI+GC/zHiS4uzO6fKs5QyIJNockttyOFPX8BkZHIq1pmsyabLIqrNFJGxOVkKj5t2flwMfe6qcr06ZI66OZVoNWfMvM8TE8P4Sunyrlfdf5H9lYOaM5Ffg3/wAEmf8Ag4D134A+IdP8AfGPUbvxR4DuJFgtdbklkudR0IEBQSW+aa1QrgpjeoOU3ACM/ul4P8Y6T8QvCmn65oWpWWsaNq0CXVle2cyzQXUTjKujqSGUg8EGvfwmMp4iN4b9UfDZhllbBz5aq0ez6M0un50daM4o6fhXWeeG76UUY9qKAFxmjFJ3pwoAQmvzJ/4LOft+XV/JefCfwfqEdnY2b7PEl6RzcygjbaqeyI2DIepK7eArbvtH9vn9o9v2Xf2XvEnia1kjj1qSL7BpBZlAF3KGCP8AMCp8sBpNpBBEeDgEkfjd+zz8C/Ff7XXxOcWsltdalJJJq2oXmpzP9nRizNN57Kc4OXUyMpJ3LwSwr4XjPPJYamsJR+Ke9t7dEvN/kfoXA2SUq05ZhirclPa+11q38l+PofKn7Q/j2++EXgCbWJbc6ncXyzFLa5vJoPtbwW8t1I5KI68QwuUBHJ25YY55nWb68TR7ea70u1XUk3vNFp1/FcRvu8zbEJ2MPIwhG5VALJhiAXX9FPGv7AumaX+zTqnxC8Rapb3BOoQ2drb3tnGTdSKRcGUq+VaQGJHAQjb5RYYMYz8G/FHwjaW95qltDZ6eFkneS5int4/3ju5m3MFBDt5jyOSVYEnPVyR+d5djoVFGLjZ7311T2srqy/HrdH65T5qtWcqVS8VpbtJb6tXb1XWy2szw1vjDaeOruO0kjvmguIop45JrVYw8TQ28qkjefmRLy3G8x4AZtgYAYb4huo57qTbG0flkSu2zCmUZwOQGCjoAd3XOSMmumn+FsNtrUf2PRLa1jtZmKpY2/lgx/ulABC55Cx5AIwEjG75QVry+DBLcSQPvuk8nMIeIK0ai42EArgfeJ+bkbmx2+b7CnVpP4NEeTKjVjpWabve6VtDjdR89Z1l/dsLhPnRVI807stuPqDz26jGAcVDdS7bmTdC22SNYmMTnaANzEkn0wRnPLH0wB0ll4WE9yy3UqxbjHHAgj3iYzZ2lB1HXjIPOQe5rFv8AT44ZWWVYxCu2DeULeW6MTkLkfNgYOc9W69a6o1uiOHEYdT2Me/EuF+0fNLFJtYbjvGB93bnkDtnnqTjPGjFZ/ZjHHBKI3YCeUKhDE7iAM84b5iRnj5cD0q3BZ2aakWKb2jzcvA0O5ThT8vyvkhsr8wbI+YjIGDYttRW11dbifTYZIZMxiIiXZGmFC7SrBmwCFwWIAPPY1XtiKOUuVnUkl0e7su7snpdpd76W3IfLuBHNJtjjmjjALFgWw4OQM543OBjHryNxFfqJ/wAEAf8AgrA37P8A4vt/g/45vWj8D61ct9ku5lPl6BqErjBLEjy7aViQy4IR3R/kUymvzNlt7TUNeSFoYNP3RKy/ZtypKTv2n53YgYYDORknsOTpWl5N4ZeFrdFubiYFmke6P74gFt+VJ5BGQeMc9iACljZ0ZqcN10/TtYwzTLKOIpyw82pL+ZX+9XSf3o/r+xxRj618c/8ABEH9t0ftifsaafa6tqkupeNPARTR9ZknP7+5jwTa3LZJJ3xqULMxLSQSkk/eP2Pur7zD1o1qaqR2Z+L4rDzw9aVGe8Xb+vUNvuaKTd70Vsc4A04Gm4waKAPym/4L1/tER6x8TdH8BrqCrp/huGK6mgZC8L38oZgJQJAGxAUKgqT+8kCnlsfO/wCzj+1P/wAKS+BnjO10WxtbfXPF0ItJruWEfaLO32bpY4xgmMOXI24ICou0AhSOA/4KNfFKbxZ+1z42vluZIBc6zdA/wuqCYFUZgMYUIgU9znk7efH9D8VqiIbVZpJrEi7DXSA/IFUBWVmBVSwG5SOiA4zuevw3PpSxuLlXvbVpa9Nj+kOH8po0sspYaaurJvzd1L8z2j4u/tMazqHw70fwzDqWpXlloaO0EH2gyW32l5PkIHUZYFslfnOQMqpx8yeIGnvpTDI+8yNmeZQdyMuOFjH3lOGCgHgKAFOTj6M8AfB/UviBJJ5VrfapHNM5FxdsIVt4pWYFyqsFIIKn7oOWA9Kwvjn+zTrngGW222cMceoxmSbKssyygKqK3BQFVLjcWwVxuLFc1hgcF7KNorX/AC/rY+kjShGPu2XWy038j5z8WTRSQ3DWP26aS4nEtwJ4gvmIQz5Q4JH8AyFHGeQXBrE1GOP+y1kUySIqi6b91udV2/6xuPvDbjawAJBPBkKnrNa0a2ZJ0jWOK3uPM8071QhUBDceWcnLNwee46tjmNa0BrmOSSC5a6jaYCJYoiockEDyixUD5yx3HOW3HjLGvaoyRwYim27mHqmm3B1K8/ctcyXikGV3VRFMAVPOeMKHIweTtPJApH0aRIplW28rzHDRRI+JndxnyygbdtCE4bbkneM8gHbeJbC3SS4gmW5kdXWN3KzKrF1ZVKp8wMkh+Ytktu+8Tzl6jp0x1pQjWsl1HBBO8szeceVkTpjnaMrgAgDHBAJPZGTWh5FSjBayX/D9P609TP0PSm+zs0st9NpkzhJ5C7Iyxg73jQNklmZgdg43fOwUZarUHhh9SnN1H5enw4ZLG2Lhx8pY+WTkYYEDduU5yWYlmXfoajoNx4gvpLi6W9DqMsJAZmRiMg9TlVVs4Yk4xjnp0Xgj4d3V3LPfWVjf26Qxt5lyke5Y06gg7S3zYLgvgFoxgAD5YqVlFcy/r/g/0jqhjKfJ7CcXKHrq3sumkY6tRvbmd25JKJzWm+HL4zKrRrtZN7ARboE+QuwWV8KQAfvA4yo+YAg10L2iWECeTIiiOz2KsjKxk8xlcPIETcmV3L1ZsYAYbhk8WR3sE/7ixlbcm54BeFVdwwwofjEa/KRuIIReu4Yarp7RxSLIkaxzLEy/aCHmUyO/yjkMwO8SNxk5kIypG2spVJPVs5Kn1flcYQab6t6LbS1tfm+ttbXf2x/wb6ftI3PwD/bqtfDMk1nZ+GfiCz6Ldl2kRTNsaSywMfPJ5wWFM/dWeTn0/oHr+Vr9m34rL8IP2hvBni5rO6uZPDeo6drDxRbleRreeGTYxb5MyurHcudxfJI61/VIDgV9tw1iOalKn/K/z/4KPyTjPCqniIVV9pNfd/wH+A7NFN2k+lFfSnxoYxSkUdKM5oA/mg/ax1Bv+Ft66fssywNqEgjGD5ZRiXU7SDznJ4JXHT0rkvAuoLBq8MbRMs0hLQx3EiLGXXLquV3feK8bcZOT2xXo3/BQLwLZ+Dvjr4k0mzmuby103VLvR5L2ctCbuSG5mt52OAAu6SKTkEEZGSQQ1eJx63Hp/iKzaRrdZoyqxhUAWXDDhWB3BshQQPmOBnJ3AfitbD8lRwe99T+pssrKph4TXVI/UX9gltB+LXhDULa1iYX2k+W7Wed5lRwrEqE4cqQGycjBfgrtA7T9pn4D6f4j8BXkV1p0LzqjHfdJ5ewBTgMJCDkYIAOMgPnkE189/wDBJj4qXFj8aLeOe6hlW4tJo3tmnUicDDEsQTheAcgKuQSM9a+xv2j5IL+T95/pDzPILZ0lRlSMu4KA9yoCABvvA5yxGV+iy2jGph+X1Vul3r+Z4uLrV6eZKC+FpP8ASx+Nvxn8BXHhPxPPa3kLLHdh3TykkAcb8hmYjhhuQkjOBtYZyGPnGtkaxplzJDE0luQULyO2wIqliXB3HoSeWGASc5b5/t/xkvhnxr4+8QQXHhXw7r1xoeialq13cS3eowzRpDbTPA0nk3KRYafyYmVeocDdkjHzroXwvl+NnhHWNYutS0PQ7LwXLZabdahPYxW9jFAYL6Tz7iS3hcmQyWy24co880l1EpYkqh894V8yUXq77abb9unbQ9atjIJSUlZRtd6dXZWtfr3tuj571u9azjt55/uRyGYGK6Ysigo6KA2Cq8YBxlRgH5uDeQLerMvnyXFxZxLj92GHmliiqBg4IJPzHup+6CRXrWm/sx6NeLZ20fj7S4dU1yyvNY0qW00y5Glz6dZQySTXU87BbpQGtL5EiS0dzJanIVHila9qX7G0mraJY6xaePPCutWP9gSaukMltfWJu5ba3urh4YQ9ur5jtIYZ2adIFIvbfbhZ4nbo+q1OXmS/FeR49TG0U7Nv5p/5eT+5mX8Gfhpc/FPVtP0v7FcXOpX1wvkoN8vzMdqjy9o/iGNuMj5iDg8fsh+yl/wT1074TfC6O2urO1XUZbUxzzjM2TIF81T0VhlSM5+YYPy/dH5o/wDBO34uWPw/+PXh+61iazhWa7jtpWMXmLbtgoyhULYZchQR/CZDklStft0fGFhpmhWt9JfNJYrBuykiurKpBLgjjAyvUnnt8wVvOhR9pfmdlqfPcQYvEUuSnQW5+Rf/AAU6/ZC8P/CuwuNUs4xYTTXhWHTTmW13ElWdWcfJkk5XGBjIxgk/Cd4LeG+gjmgmjk4EnlQ4iTnamCeTGVZSS/Vm9yT9wf8ABWb9ofTfiV8WrfR9JZm0uxZ9ly5D+fNlt0nmjcGwgKgkZGCSdr8fC1uqahc7o1RJrm4ExQthlZssUBDK2OA+5OAOMZUk6QpuL5WevRlNUoue9i1ourzaj4ltY5GVplRjGVIZyp3nYzKzBcbsqBggNgj7pP8AW/jNfyqfsnfDNvix8ePBfhm31G2sn8V65ZaW5z59xbma4WNGQg7kKiYZDFhzg4K7a/qr7V9jwvBr2sv8P4XPz3jmabox6+8/v5f8gyaKAP8Aaor6w+BAnFKD0pelGaAPxQ/4LyfBGTwf+1neXyy3AXxhp6a5p5MOy3iSMRW13GjAEbo51glZmwSdUQDhDX5gaBrFvq11Z2Ky/ZxAojfy1KRykttAG4hht2nBb7o5yuMH+lD/AIK1fsmX/wC1b+yVqUPh23S48ZeEpf7a0eMJmS+CoyXNkDgn/SLd5Y1GCBL5LdUUj+Zv4j2D+GviXqDmZ5re9ee4+cKrBZGbIfAGGDAxugyQyMpG4EH4HOMB7PFSl0lqvXr+P5n7VwbnHtcBGD3p+6/Tp+B9AfAn42XnwK+Jlhcabb2sc2mxuXV5xcRuCoBUyodrhyFCnLqDkjHU/YXxb/bmh8ReApbqN5nVoWjWGT55rdpMrsKNtKMTFjOADweo+X809R8c6Lf6hHcWK39zNFEbd5w6rEqMHBVyq/MSoyuCFII+UEFDJcfEh9Z0GZXVg1rMsMm9ldmBTG18EH+Fn45IUjA6jz6MqlKHIlo/6/qx95zUqkuZ7o9W8WftA6hZatrN3puuNa3HiOyudMkA8ty9vKR5sR3L5aghf4iCJPLZfmAY8pb+NdS0LwprnhXTZpGsfEGpWd3ffaQ+27aCO6jiikw5EiETsXXZu8yGNvl25fiv7UZ57y4uiywiXySIcImDKysrYJPK7lOTk7c9QxOjBdq9jHLfXq3VnHE0dltwsVpjOSJFGQxLdfmGGYA5y1ccpTWt+/47hVVOabsun4ar7jZ8bfGPxhrfwy0fwmt5p/8AZi2sdvaXEFhFHcizE6zPazTLEJXt2mlWbyjI8YZVONyDbzuq/FDxBBrul6nceKtcbVNBjitdMujqTB9OERaSO3h27WjjjJwiKFVDIdgIIas+yl1TVN9pby7Li4BukMG1SrIrbtpO48r5ingctkg4JqE6e0ehtM6RTS7pLe62O7bnQgkjYRGSpK8ENwcsDhQd41J2Sl/X9dDycRThH4UtddvvOwX4p634h8cnVtWmvPEWoTSRm81G/lNxeTlY44UMku85bogC5Gz6Zr3Qf8FHvGGofCJvC8d9J9khtGtFkaIefcqm5X2gcthSq8DIU9ulfHsM8MFsrzSXEF5E+4FcbVzncORnIyAAAQc5IABJbba59kiuFt12bmyiuQyLFhmKtuGTktnjHCYFXGm7uSev9dThqNJWa0PSNT12PxV4pWGcXFxF5TSqxnQJOFGcEuNxBzx7/TK+zfBf4J30Xwz1DVNes7O3ttTja3i8mQsHgKhsggsQSVxtPA8tQFzxXy7YeObrT9Rhd7mO4ZsOzz7po2ZZBJsZCQrDcADkYyx9a+nviZ+2JZ+LPg7Zw6ZDBouoSeZDdW0ShmJVBIX3ED93znGwENu5yAF5sRTqwcVTV03q+39fcZupbbU+gP8Ag31/ZbX4v/tmWviL7FJN4d+HzyavNNcRkrPKE8m1GflKsLhWlUMDxavxzmv30xXx3/wRF/Yqn/Y4/Yp0c67ZXFp428aKmr60twu24t1O429s47eWjlipAKvLIp6Yr7Eziv0PJsH7DDq+8tX+n4fifj/EeYLFYxuPwx91fLd/ff5WHCim4z60V6x4IdKXFJnilFABzX4of8HC/wDwSYvtI1e6+M3w9sFbQ7tprnxHaR4iTTrhxlrnKjOyQ9S2VVupClQP2wqn4g0Cx8VaFeaZqlnbahp2oQvb3NrcRCSG4jYFWR1bhlIJBB4Oa5cZhY14cr3WzPUynNKuArqtT22a7r+tj+OO/VbCeRXjihmhm2BN20EqTu3YORgqfz4z1qa0vXtECtOFWZDGVjYL5m47vm45Bxg7ucYGe1fql/wWM/4N9vEfhG9vviB8G7O98TeFFzLe6JbRrPrWhoDvLwhipvoVAZQpcXCqYlDOkfH5DwzTeG7aX7R5V7aySiNLmJhGF2qVycjcMjn5lVgAvBByPk8Rl04e69z9SwfE0Kq54O6/Feq/r1Osj1U2N/bywlYGscyL5J+Uv94EgD7xORnPy5GMBQCR+JZ7wwyzKskttiRB5ZVSdm3sAANm0ADnhehzjmLDxPDt3FpGZmVIycjcoA+Y9hjPbGeOQMYuyasuqs6wFv3eMOFYL15wP7vOM+px71w1MLNS1R7VHOKU43udAfEVxcwR26q0KqJHLBypDS7NxH02kDBwD25xVddbuLeDzLaZ4GZdnyyDdtxgk7iT2JIUAE88AAVktfIsflsyyRqORgbVHKtnIOCT0/xplw5025kyvnRrtUNuLBQecr2LDJ6en0qPq3kKpmFO173Ll5qO6+KyKreZgxgMVjxk8FR25POeMn1qhZyoke13aTacKHAjVsHGcjGc5ByOvBB6VUudQYSpDD8gugxx5ZOQVIAzyeDtPHr2OcVItTku7qYRZ+1EsS4iGQigg5OTuCjj+73PTjpo4Zs8TF5rF/AbTTQ+Uv7yZdyYaQR9tvOQeynIH0HPQV+nv/BvP/wSrn/aV+JVr8ZPG+g/8Wz8MTs2kQ3pbb4i1ONgo2xtnzLWAqSzMxQygRgPslCS/wDBJv8A4NyvEXx41PTfH3x0t7vwz4AkWK8s/Dccxj1PXlKll811YNawkMAcbZW52+WNsh/d7wP4H0f4ZeDtL8PeHtLsdF0PRbaOysLCzhENvaQoAqRoo4VQAAAK93A5X73tKq06Lv6+R8jm3EbVN0KD1ejfZeXn59PXbU4pc+1Jk+lGTX0J8SG0H+GilyfSigBAKN2KMZFLigBMgUuaOlIBxQAdTXxv+39/wQz+B/7fuoXWuajY6l4G8bXR3z+IfDEkdrPfsA2PtUTK0U/zMCXKrKdgHmBeK+ycfWjGDUyipK0i6dSUHzQdmfzaftWf8Gxv7R3wQ1mY+C9P0P4vaDvklj1DSLuLTNQt41Of3lpcSKqu+T8sLTnjr0z8SfFv9mb4ifs16cs3xC8A/En4eWupFrazl13w9NaR3EgHzCN51iVzjP3c8YP1/sm20mK5p4KlLoenRzivDfU/iiTxfA1jHFv3GGMYlZ8dMkDAPrg59Sema7f4K/s/fEj9oizvJPAfgn4keM/7PiWGWTw14duNTEOT8nmtCG2/LngjBz071/ZMBRisv7NpXubSzyq1Zo/m3/ZM/wCDZP8AaI+PetW9z440zSPhL4fk8uSW61i6jvr6WJ1/5Y2dvIWDpgBknkgPIwxwRX62fsEf8EDvgV+wxrVr4iFje/ELxtatFNDrHiIRyR6fMgTD2lsqiOIhkDo7+ZLGSQsoHFfbhWjbXRTwtOGqWvmefWzCvVVm7LstA3UZzQBmgDFdBxi5o6UUYzQAmDRS7vY0UALRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFAH/2Q==</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>/9j/4AAQSkZJRgABAQEA3ADcAAD/4QAiRXhpZgAATU0AKgAAAAgAAQESAAMAAAABAAEAAAAAAAD/2wBDAAIBAQIBAQICAgICAgICAwUDAwMDAwYEBAMFBwYHBwcGBwcICQsJCAgKCAcHCg0KCgsMDAwMBwkODw0MDgsMDAz/2wBDAQICAgMDAwYDAwYMCAcIDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAz/wAARCACnAIIDASIAAhEBAxEB/8QAHwAAAQUBAQEBAQEAAAAAAAAAAAECAwQFBgcICQoL/8QAtRAAAgEDAwIEAwUFBAQAAAF9AQIDAAQRBRIhMUEGE1FhByJxFDKBkaEII0KxwRVS0fAkM2JyggkKFhcYGRolJicoKSo0NTY3ODk6Q0RFRkdISUpTVFVWV1hZWmNkZWZnaGlqc3R1dnd4eXqDhIWGh4iJipKTlJWWl5iZmqKjpKWmp6ipqrKztLW2t7i5usLDxMXGx8jJytLT1NXW19jZ2uHi4+Tl5ufo6erx8vP09fb3+Pn6/8QAHwEAAwEBAQEBAQEBAQAAAAAAAAECAwQFBgcICQoL/8QAtREAAgECBAQDBAcFBAQAAQJ3AAECAxEEBSExBhJBUQdhcRMiMoEIFEKRobHBCSMzUvAVYnLRChYkNOEl8RcYGRomJygpKjU2Nzg5OkNERUZHSElKU1RVVldYWVpjZGVmZ2hpanN0dXZ3eHl6goOEhYaHiImKkpOUlZaXmJmaoqOkpaanqKmqsrO0tba3uLm6wsPExcbHyMnK0tPU1dbX2Nna4uPk5ebn6Onq8vP09fb3+Pn6/9oADAMBAAIRAxEAPwD7Q1SG6sHktbpTGy5TO/5HGRjaenfr9asaNYrcXWVjaR1O4/MCo4wTwe2B146dOKnXTr7VCWnE8jKRhth9Pu4x9ePr1rS0u4uNISbylZW24JRAShPUcjg4/Gv1WNd8ln8XkfKqm+fRaeZUfSmluS7Iu49jGC2DjB//AFnPSoDZQ6lZq0cqvHIN6GJvkYYwCD05B6+9actzLLNvkUx8fvHYYLH/AOtxTrXa0uVwq7gcH7p6YGTxjjHT8K3pYjXUmpRSWhVsrRbeVUbCxgZO3jJ78nn1/StnSzGjnEi7CT94nkZ9SfpT4rWG5cFljT+6A27IwOuP61MultMVKlVBOMA9T/kYrOtiIy2RpTptbs1LHVLjT7pZIZGXByuG7c8D0GM8f4V23g/VpH0/zp8mZ3bGD1AY9OxxgHGT2rzqHRbpMR+WwV/vKqZOPw/pXT6X4fks2jaS+eNQOVGV459f8+3SvNrx5lZNHRGSTuz1CPWjcJE3mC3ZWUsclmHTIGeoxwTnPP5ZfiTUbPXLDyXaOQb/ADEZiTtYHhuMDjpg8EEjvXLz6zIkLRibdDGSCwYZAPoevqc/r0pkbQ3rL++hWa3IclgV459sd+eMfSvF/s2KfM2djxbcbItapYWf2pnhuLiXBZlHl9B1OAfYHv2NZsiL5zSL5qKx+Ung59R3zn16+wxV+d5LiBjtWbacIyj+fr36fzFZ8ljsCiNpZGUfdKNkndgnv/L8a6qOFhGXMc8q11YuS+YHuMyfcbLEgsrnJ59x8x5Pb34BpV99kuPMaMPIBndgBlOB05A69PQVhwXLNKuHZg3ygE7Qeufwxu61PHcO0qt50m0A5Lnbu6Dr7cDt0FdVTDKas2Zxny6o6OC9WS8aTbwXHyBjgYPpz7fn19Na31Dcsdt5iRsqmPcihtwz6Dj04zyK5G0i+x20bRyZZX2qzuW2ZB6884x+lXbCa4vb3cs22ZpBgpny+vOO+MjofxrieBsr3L+sLax1KX0UaKpSViowTs3Z/HvRWVsmX/lvJ/L9KKw9j/eX4l+08vyPOp7LbE6+WkZjAPlAfe+b14GeOgB4+lXLPSZ7uTasNu0cZIG9AVznkkHkde3vXP2vjWzvYLaS3LOt1EsrAx8gEZGfQ7SM9f8AHSk8cOIA+xlwCFX5hnOMfXGa6rysrN3KUk90huveHb9riNF8m3XIQrEuOcZ5GfY5x/gRh3Gi3GnIobduZifkG0N36Hp+X5Vvx68t6F3qGkwACrjPuM/T+VZl95KSRs9xsVhgxxgEqBwNwzwOB2PSuqFSWmpLpw3KcNibZwx/eM4Uff5xx/PPb29hXQaeLV3U9JGwzKvqRk9e3v71G2nxabFHO1550kygrH5fzL+OBjn0/wD1zJa+f5axKrMxyMDBxgnjnrwR+FTKtKa90fs0tGW/FXj3Q/BGjS32rahb2FpCmWmmkPAGWJAAJPAJxg5r5G+MX/BcnwT4Q1u5tNB8I6p4kWzjMzzPqMFhvGcKFX53Ofm427iQBio/+CgkGtfEL4r/AAv8A2Oo3Wm2mtajNqOoG3uXtZpraFCpQMrDcpywYEZJKYZTnP1F8Nfh98Nvht8OV8N+F4vDsM2kBYriC3vEd4twDASEsSOMn5uSeTnOa+G4h4mlg6/saNrpXep9RlOQxxVP2lTRbI8z/Zc/4KV/DL9qzUrfQ9O/tvwj4ovlZrfQ/EFp9nmvgseWMMilopOPMAUkSERudgANfRkWmqsXKuw3uqHBU45xn6jPGMD3r8af+Cs+p+Hdf8Tw+KvBviLwpqWreH7jzkfQdXguXjAYkiRYnPQAnJHGFGRX6o/sN/tCL+0l+yx4R8cXEP8ApWtafsulkTaXuYZGhmYDH3WkjcgjggjHHNenw9nk8fQ55RtJdDyM4yuOErcid13PQXs5LKGK6hhm+VXOQTtiboCcY5I46/yFZUxm02YySx/vGYEnHyZ2k+vQYH/68CteeZJNGlFnJsZ5DiJz5YHPB56g4yQfT1xXM6rczRTr8ymSGNd2yTcM45HJwCM+/Pr1r6WjUb1aPHnFJKxc+yLBqDPIzSGHiRwmcEk7h6Z55Ge9RJ5t3HthWQee/lqclNp/yP8AOKyLvWngdFWRv3x+Ybg2TyMDvnbnk+mORxUyauElmaPc0cZAQKcbsEDPp3PJHYepq5NmfodZocCre29vdNKsRxOxKbweAD3+nJ9B1rrlt7GN1jjGIQAFj3Y8wZ4yenHPUcDnHrm+D9LjtvCP2q8E63ExZmLA+YqFs9TnuOo9RzyazdZ8WwRX3ysyyMuQi5UgKOVwOMZz/kc8fv1PkdXs4xVzsP7U0m0/ctcOzRfIW9SOM9aK40+Kppz5i2JZX+ZWLj5ge/Sis/ZVPP8AAn92eU6NpWi6XeXS6jeOi290RGLSFMSW7AMhUMRwMlOBglHweMVn3+vTXszL5aSRW6FleEMu9cYIJP3hkE9F4PTmsvUp1j1uLm6WS4XyZCUDLuQFlHHIyMj35OQFp0DRxTyRsqn+6VGAmM9s8Yz2/wAa6qMbvmbCe1kiY+KLgxDyWWOMf6wABTyMY/Lj8+tR2OogyZm3bmbAZHBPHTjHH69TWbPaQyOsm5tysWbcyqDxlR2wM+nOSc55NaQ0WSxMY863jeRd6JuGWHfAJ7DHTp+telGVNHHy1L6M6K18WSXVmsCruVAcAp8wB6Hgn6/WiHWriOWNfMPlsysV5+vrjj8elZ66RJBLuZV8xST8rbTx1O3Pf/PSremRxRW8lxIVLbSyDfnaMZ3EDvjPBI61zzpU0mzrhKTOH+L3w1g1T4v6LrVzb6ZNb2WlSWK3Do4uLMTN8+19/ljO2LqhIwcEDIbkNR/Zm8I/ATwx8RtbuPEE11qHijw2Yk+3SxQwQiODYbiONAiqXb5j0AZmAIG0J6d4xuG1LRZfLjiuHjXGG+UsFJfjAHRl6jn69/F/jT4f8TfGPwprNva6b4H8UeGreCWyMN3ao9xtcKHPmefG8TBkAIUkkLnBIBr8H46wVXDY6U6vw1FeL7WtdfJn7DwjiKFfCKFlzQdn5+fzPkX9t/8AZo8F/DnwFpOtaHr+t3n/AAklnEmn2M199ot44JIwWKMSSM7jJiPC5kbCqu1V+5v+CRd7rXh7/gn/AOE7HUFaGKG4uF02MxKjw24lJKsAAMiXzxwDwVyS2SfhfwvHf/Gr4ieD/ht42vtD+32+q2um7rWJbL7FZRsuQ2CVMhQFQEGCSFHt+smlyeG/gx4FstF0vS103TdPtjbWNuD5ixIr4DAnk5P8THJwx+bmvouBcPiNa07uOqXne34HznGFXDyfsqSXNpfytf8AMunWFE6zu6xhGDjzB8pGBj2OMH05Gc1Q8W67HcTLJJdRmSRcyGUjockr2yMjp6L0rj9Z8Tten7LHeLFJIMiIN8qbs4H14P16+9cj4g/tFrZZreSS4aMMIY87QQWJ4zx78jkDHU1+pRptu6PgOVcup3U17b2UUkEYUwQIXQM3AI6557lvxzUng99Nn1qOHULu6S3mkXzX/hEYO4gbfmHPHHXOPp5G8dwklpBJEsd5bKVuFTG52OAPu89h07fmNjRrG+s4F2R3cS3LF4yY8quTjr1GSR1wTzV1KbtYmnvZn0t448XaHPGY7bVbXdGWhWCFgFx83zAd8dm6cnk8Guf0W9ju9Ra2WMzR3DKkIyzMc4yEUHGSWHQc856ivP7LVEtPCclrqEENrcCVhHOzBbh/lC7VIJXkkN0J6jjIx0Pw6+L9q19b2+vamzaLZAyJap5htjLzn92uFA+dmxtxzjByccH7ynFxiv6+SO5uDWrPYYPgV4ikgRvsUJ3KDn7cR+maKzof2tNFtIVii1qfy4wETfLOzYHAyWYkn6nNFebzY3t+ZVsMfPnxi1LR/DnhWa8t5rq8uoZ0uMIoVkCvkkMCCMrnPQ7S4HJArPu/E1prWjQ3FnYyxtcQozIXVXVmA4ZSCQ+7I2k5BJ5OKqav8LfFGo6fcPcX3k3FrGqKioSmxtoByR1IYcrnGOnSsDwV8Mda+HkkluktrHDY3DRH7TtDqW+YfMV4zuUhTyM8nNd9OpGnLmTuYyjzRNi3s5mdcQSLKR91l6DucE+39cVHdQrLIPMuPLmkH/PUKQc5yCccdx7UT+IPFkfnfZ9LtpVxuMgjxIOMrgsMHPP3ST14PArlNSfxd4nluWsbVGhiJV1ARmDYJyecZyOgzzwffpjjoydpaGLocq0Zva54wGm2awQzPczK4BdvnYnHH1JxWXbfFkwrcR7Wt2jQsXbO0KAcknPr68D8TXkXxsbxF8G/AupeLtWMkdppcJeX/SFyMlVAHIwScDaMjr2xj428fftf6h4giul1TVpo4rgi4FlB832eIsCFbaMyH1ySPk7gZM1MdShG7Kjh5SZ9f/GX9vLw74A0/wCw2OsSSaldzRW63KkusJeVYzgA7nYdVCgqfXjFfQn/AAUw/YL17TfEttefC28lt5PF10sCxvdeXHEmxncyliG+VBI6thzthcEFsNX4jeKfF+oWfxJ8Lbr681L7PfrqsrvblYpkhZWjVlUnCBsgg4ABHtn9t/2pfiN4h8c/t/8AgbSZfHEN3pvw80mbWL+6m09YktFaLcUmcIij7Sn2cPKBsjWUhY9yF2/PeLK0MaoQmvhatt1338kfacNYetCU5xdoqMpPRvbbbzaV/M/J39sP4EeKv2K/Dj/8JRNZT6p4saaO3uIJvMMkaSqrkBtrqjRsCCyA4cblU5Qe+fsp/wDBajS/E9vp+l/E63ulvo4IrJ9TggMlrcY2jznGcxvhcNt3KdxOFU4Hgf8AwV2/ash/a4/agih0Z5ovC2nxKmnx+ajrKjFiJmAAMblcHaxZhnB2nIr5/wDClnHqYuv7PjDacqpCp5WOV/4wB2Ge+CDzjNe5luKdGmo09rHg4qLnUk573P3Y8Ca3pfi3Rj4m0DVtN1i0u3mjikgkSaKHBGcGM4LHDDHAGO4HJ4j8UTabDM8N1IZs7FkmUKq+mAMcnHQk+tfjT4F+NniD4C3LalofiKfS57WL5vJYspBztVk6MGIPXI+UZxxX1X+yZ+2hq37ZGm6lYzzR2+vaNCGnUKAl5CWwZFDZxhsBgCezeu36rC5lGo1Tas3seVVw3IubofSvjHxh9jt5zJeR3F0JSzEsWZT9QOeAenoOlYel/GCS80lLaaCV5pPmWZfmVQfUDkgjA9OuDzmuJvvh9rMV+0P2xY5I2wV3AEEjgAZ4A4JIGec84xXofwN+Eun21nrF94w1bybezAZN820qvQ4C8sxwi49GY5IFdDl7Nc8znXLsjpZvi+3jGwt7SS9VLeHIA3nLNhVClRndw2ASuB61tWfxN1Cx05YbO802K3tVWGN5EZJCgwSQTnk5Q5Ofx5rhNE8afDrw74L+2LPJqdjJdLbJYm8SK5W6eLHmY81GGwM37wAoWYZDA4O58QvgRb2/g+PxN4f1izu9BnKRXlpcXsMt5oVy7S4hnVTn5hEWUlFyrdMq2Zo4mjUqJf8ADGsuZR0LM3jO5Mrf8TC1bk8+eOfzTP50V5wNMI/5fwPrdR/1bP50V6HLHyOfmZ5V4d/Zd+L3jB9P/s/4hatbzRSD7Qtzrt4WXONzBNoOD1ALEsCOgV2Ghf8A7HHxXvvBaw2niTUrq+utQee3luWv7aS53IVeI5X59wt42jzgYEpJU4U+kaz4+8VQ6Tq02nx+IpZ7VQtzJPZ+ZNptud7FpSpIC7VbhznbsGF2YXg1/a61S98XpayW6+dqV0kG2wt3jH2hcqkrPOxc5eXIPTDNjaC2fg58RVW+WKs/VHdHCStqbPhP4FfEn4YeBBu8ZaTZnWbSS1a6vo5p5tPO4P5gFxIiqxXaAxwnyqdp2yOnmXwF+Dv/AAn/AMSbdfGXxb/s3StPkIvdupy2V3cfNtVkupYPIXI+dyoZtqlQpZhnJ8Q/tHXHjHUZF1DWri41CCLyo7S7mluPs5DlRG5bOCAXbB4GCMgkA+f/ABC+Jqx6lOPs9vcHc0QdSGUFck4AA+Xtnpk+nNeZLHYqpVuo6ebOiOHXLZsxv2vX8Jnxn9g8D6h4q1TTtU12PS4bvWZxKtwrttEsYjVWXd1XcBuUHK7gceX2F/8A2L4k1S3M8s7SKqTtMTuaQbnLHJyRhlGD6H3I5z49fHQ6r8RbeG1htbSO1voZ/LTdLbwhFMZ2iQu2ctI27JIbBXBCkdB4o8P29j8QvEEckiyspMm5CGwgAxyCe4xk/wBzk9RXTGtUqu9R3Z1fV/ZQS7mD4D1oeMviNrF4sm5IzHAqPs8zA3M23IyAWPIBAOMnJAI9k8S/GbUG8EWOn3F401xBAYNwk3STFAVVORyVUKuOhKg4wAB86/Be3hjvW1BbplvZC+VUfOVJwAFJwTwTx/eHpXcS6jE8MluL64vfsoLFpo0hkIHAJKBckyENzlm53Zya+ZxmH+s4tc3f7j7rB4yWCwUo03ZOLT89U/zRX8P+BYbO8XVrrbHZvJJcRxvJ84HBV3Lc4H+1129+7Z/GdjoelXUlpaw2aRFhbJHHsbORliuBjvgY6behOBx3jXxnfT3EOmzSSLBt8yX5+VTIZfY5Jwe+PbFc5rniNjDcRu0jnzCAQccnH81H4YHNfU88IR0Ph/ZTk7dWUtZ8Uz6jNOzMzNcSb5QWJyMABc/nnpz9BXof7JevnTPibb6fNM1rb+IYvsDutx9n2CSRRln2thRgNnk5VfcHyea4FzdGTCrz1QAdOOwArc0bUv7H1i3ubXJjRozn7pXaR0+mD/h2rjjUkpcyep6VTCQdPla6H6j+Cf2IvhzpmrrdSatp4jXZPa6jfYuLTYMMZGVVPmvlgAu14thJKnAy3xL8RPDnwe8JX2h+EW1DUF1p2kvL/wCyOt1Ll9+1h5jL8pdgWVVMhyWV9ua8OsP2gNcfS2j1PRHXyU8qN4ZGt1jkVDG2VwFygAyqhCQxOQSCeO1z4uNql/DJDZNZyyW4jkP2lnWSQJzIo9CSxGM4z1NdMa1RwtN6/wBdz59U9f8Agi/ET4ix6pqc0djax+TwPM+xhZGOVYbm3su7KckBVyWwFUlar/D7xVdfAzx1b+JIf+J5pN9mHUtLjeS3h1OyZGjlt/usFdkGUk2sUliRxhkGW3N5Hqc0alY1dVZGfPmZ7bs8E5HTjgdau3Wja5ZXqqJFlWBhKIGiMix/McBvM9TxgkjA5Izg4c0oSvdnRyq1i3d+HbW4upJLPRLyS0kctA0+nusrIT8pcLNtDYxkDjPSiuuHwpZxuuL+xtZ25kgEX+pbuvyqRweOCRxxRUfW638wctPsftV8FP28/gz8SfAtzc+EfEGm2dhZsz3FmIhC1tJKd5zER8jO/c4y245BBNfFH/BQnUvhv8f/AA/qreFdBj0Dxxb3cb6fqlpHHDBcN5uXWcIpG075MkLvLbWJJJB2/HH/AATlH7GMHxa8Qahr1jf+BG8J3kOioqrHfabKLo3FqjgBRJkiQbzgszEdcFvzV1H9rXUvhno8enpp13eahPG89teTXjo0XAXDhlLPgqRksMDb1BNeZPD2cKrj713tpb1tuelRjGrOVOm210vqej/GH4LeKtU8V3l/Z6Ct3cXkCTyzWKNcLHIE2yhU27judiSygHB5AB+XyDW7bVtC8RR2t1YfZhOrqJruF7fZ5QRiCDwrAfKflIw5HPAHu3wi/bC1af4frrWoIiQxP5c0kOZgrbkQIADnccpx+Gam/b3+NPhf9oD9mbRdJtdP+0atDrKXdw4LQ3E6rDKFTGdoj3NyW5JCHI4FejHFKS63f3fgc/1RwnyvofnDql+dQ1ma4YFDNM0m3dkrznH8q928ZXa/Df8AZ8ha4ZW1HX7aO2QKyuwDKrSA+qlSwyM4LY6DNeNeLvD8ukaoVazXT1YZ8sT+YOBglcktjjPfrUGs+ILzWdJsbW6u5rmO2D+UsjswjDYzjdxkkEnHGauM+VNHpVMP7Rxa2R0OiSQ6NpMMbRxxvcKsZlbD/e2lhjH6e3ftoaz4vjtdMuIlRI2M5ZhGT5ca8nYu5iSAxIUkk88k85wbTU1t7+1MNwzNHMk0cuW3hly2N3XIIByO/fIGIviVqEep+Jr65sUnXTLq6lktTM2ZJEDELuPrj/8AWetYx92pt0ev3G1SLnDkb6kcsslxpF5dTqvmXjb1wxO0ZwB07gke4PNYtyyyTBlA6ZJBzknrVq/vJvs6x7gseMAA7iVGMdef68d6d4e8M33izWbXTNLs7m+1G+crBbQJueTALEgdeACTgcAE9q1qSjv0Rjh6d37SW5RX5pArNtDEDdjgf1q1pfyyruVGbqDk8evt6etdZf8A7P3ijT/B66pNomtRlpSrobGRVgjAUiRmxjaxfjGQcVj6T4MuL2J5lkCtGu91Trg9OBz26YrGnWpz1g0/RnRKWjsevfD/AMVya94X06FZbiW/t0a3jxuMgYfcBVm/uhBlQMhR1IGOp8LeFNQ1G6muLvydNtnkEVxPcYiXJ+65UnIwCxDbf4G7rxyP7OHg7+27S4m+0rGtviRFVlV1bKDGGHAyeoIwATkAGvaPDngCxsp7i6v49QnvGcGJBH9qa4VtpLlgOhbYQv8At5JAGa68PFPc+fxUuWbSO1+FPgWHUtQiks9FtdStY7+HT7q7gUzWymVWZVLEgGRtjkAygMInwCASPsyb/hE/DX7N2pXmm/8ACM2+uXFxHbzRJ9kN7dRI/mDz9sgdIxmPaBuDNHySTkfJfgjxBcfCvXoZrNVtZLRvtds9ovy2bDfhgMhC+duc8nnpyDtQ+OG1LUry6ury/eZp/PmdMyefM7Fg2fvYypII49CK6amDqTV4Xa9PyPNdTW53158VF1C8muJvDOj3U07mSSYXdxbiViclvLjuVjTJ52oqqucAAACivINY8VwzavdPcL9oneZ2kle+k3SMScsfn6k80Vz/AFOt5m3tvQ+ivj5/wUc0r43ag9t4l8PXWh6xaOYZdMu/30UTbmDLHMY1YfLtJ3hMk4wRktxK6J4L8a6HJp6aHoTFoyPLurKJsyArgAMNpLbsc7j69jX0d/wVZ/ZW8I3vw+vPFVnp0MHiCGeINcQtHAlwrNsYyhUPnMFyuCVPyqdxwyv+dWg+IdW+Hp/0O5LW/wAokt5skDGPu9cYwOOnHQ159SdSNj3afs5L93oz17Xfg7a+EPBFxo+k6Cv2Wa4YS243pbqXL7ArK7bSysp4yQwJ2AELXzX+0j8KvEnw80Lw/cahpq32ky3iLJPaS+YkqNmSOJgRvVmKjJwF6AE54+gfg/8AtGxXd0bWKG4W8ZhG+nXKqqu3Kv5eCRkfPyeTnJ25IPvPgbRvh7+0Po9x4Z8TXF3o82tQXFl9pmKxW9qzKxBR9jKGUhWBZBtZF+9xVU6sJJwvZ9jKUZxmpyVz8qPi34Du7/w5HqUDI9urGQ28cXyj5TnnryQSOox3zwPI5pmu5WkPytjGFGMAdhX6Q+Fv2btM0Dw78TI/FWuXUsnhCO40ex/skqY5rzzJIWleR15g+Rht8tS6OzZXyyJPgL4meAI/A/jDUdNhnaaC1fEc0o8tplI3AEc4baQcd6mjWVRyUejselTvTtGXXYxbSZ7GJcuieYpCttEmwEEH5T3xkZ7EZGDVuWL/AISvWZksbebbM+61tI1JMbvtGxVBY4B+UHqQATjoOq/Z4/Z/179pPx/b6DoUMc0zIXnuLltkFpEu3e7HliFyOFUt6Dk19zaj+yH8If2RvD+k66tnN4ivrpReafdapIWaUhVYMsQVUMZyCNykMORkYY+fmOb0MJJRlrJ9F+p7GDyqviYupFWiur/Q+Z/gJ/wTY8ffF57SbUtD1fQdImtVu4ri4tGje8R1RozEkhUsrqwIcZBAO3cRivqn4ZfsceHvg1HNZ6Hptvq/iNYD8mqtLJI0seWaLeoAjIyAMw4ZeTg4BreIP2+L7x/pWm2eh6Tbaa1ldS2U1xbQJbw3IZ2dHfa3LkSZYfeZg7ksWOPoL4d/tFSah8CG8Wakv9oa1o6G4uIJJlW4eQx+YJCGywhYsyIWPRMc7TXyOZZpjqj5Z7N2stPv6/idlHCUY6dV1PnT41/Y/GdnpOnapI3h+TXtK8qwaOR1jikidkkhKMEztcYVsYkU5G3Kg/MP7XPgu40jWD4gWO1sZ7+785Y7KERx27lQcADohbzQuc58tic4Ndr8Zvi/qX7QPhLxJreqCGO8tdUWcm2UxrEk8RjCRDllUNADncSxJJyck42n+J4fiP8ABfTbPUP9P1OG9/s+QzSHcVbLo7E5zyvAOCfLPzYLK3sZTRnRhGfZ2a9dTy8dKCbgu1yL4Qae/h7wZpcljcXX2zUG8++WOXy2wpUIwyq/dCkBsn5juHHXtxu8N3zXmpLLBcMVCy3TuTdqNwDJg5ZSU27wcA549P0Nl/4IceFdU8Ff2jp/iLxIL+4USCSWRGhYbTsJTy0xwR0K4AzuG45+YPi3/wAE0/F3g2WZrF4/FmnW7bFmsAwa4AdlztOQG27MgFuf4mJOPq8PjsLHdu/nofJ4mhUk+Y8c8OeO9H0HSZCi6jHfNK9xPCkR2Ty8k4ZuWJYLk9c9Tjr6Da62vxC01ZLfUZraO4tkFz9rtzbuZSoysbr945B5bB9scng/FHw71DwlbQte2T2b3KqzjVoDG4wMME8xVyoywDBuSvpkV1/w/wBO0m00/wAzUC00UispOY7mOc7RnC53Sg7VxgkryeDzX0OFaqJwpv8AM8upG2vUZB8IdDuoElaG8kaRQxfzYTuJ5znb3orvYdb0+OFVi1i2ijUAIi3sSBB2AVhkY9DyO9FZ/U5+X3le28mfan/BQzxWuq+Bb638vzISRsySdjCQD39CPYOTxjn84fF3hz7Tfy2snkrcACMAv1Y8gkenT8++K+6P24449ItLyOO8WaJVOUSQ4X51XDcnnGD+J7jn4tvbQSanErrIjLIDIOuAGxnpjoRjr6YrxZQuk/JnqUanLoeO+OdOaPXtQaJvO3XDCFwOHAJIz948YOQT2Ndt8M/2hvEHw6vUh1CVtUtYjny5pNsqEDHD5DAAEnA4JHUdazNbtgdcs5VWbbM77kQkHAc8ZY9MH88jJGc3rXwZDqccl8FmaTa0IScj5zvJ4zyDg/oetctJKULs9KUr6M3fjV8b9J174sDV7G4urefUvDiz6hDAiwxGWBpVDuBhWYo6nJGctI3O7NfF3xr8RjxH4pur3zNrSStj5cMwJ3ddoyRn8OcccV2PjHxlN4k+LPiO3huNkcmmzWSM7dAm1c+xJQkj0xXkl/rUuo26rNJIzL8pU/dGPT0ranTjBWX9M095tNvsej/stftV69+zT4tV7KZJ9FvbiObULKePzoZtvAYrlSexK5CvsUMDtXHV/Fj9s7WPitYzf2xqT6peag5lLhTuU4wI0XhIl+VQQq5bC5JwMeAEAfSrGhca1b7jtVXByDjBAyP1/lXJWy2hUqe2lH3j2qWYV6dL2Sloezfs2eMbyx0PWNRnjM1rHqEDvLtJ2ExzYA52rnGQcfNsIzjp9IfD3xeqfDPxJpcmoLD/AGl4dt5CJJ93m+W7ZbHHzFZW+Uc5J+tfHPww1e5tPCmuxRuytcTQSMxXqFLAjPHd1P69sH3qz8QQW95HbtysnhVGWMAbZm2xdc88nrjmvCzTB3q3Xf8AKw8LXUYtPy/FmJpK27aX4m0fT7hri3udKF1udMbpIZAOP+/pOPpnvXnXgnxhdeFPEUU9sZGZZw/lRgtuccKcDuu44+pr1H4NeGW1qTVb5Y4Wj0608iRicMfObC4HTsPoMV5PY6dcHx82npB/pLXe0RtziQZGOPf8Pw6ejgZR9+F+zZwY2LcuY/U/4B/8FqWvfh9b+GfGUMNur2sdnLdQyGWPy1G1vlAYklCRt4APOc4r9BP2YPjt8N/ifoGk/wBjapYSXX2cvLGkitGxb7zFM8YGFzwAcYHGa/nd8LWd5tVrW6uo14jdSPvsOuDnHPoM9cc16F8Mviz4j+G/iW1utD1C4gkAL4ilNuXGCFyFOXAHOMkgZ7ZFd9bK1Je1W/Z/ozw6eKVuWX3o/pI8W/APwZ8dfC7aPrfh7Q9WsZsAxXduskbttxlRnCkZ4IwQc+9fMPxl/wCCA/w91O2a48E3moeGLpX3fZJZJLu2dAG+T55BKu4seQ/Tt2Pyn+xx/wAFi/FmhXMOm+IYlvbcINk6NumVMblz8xAZvnz05U9sAfoN8Dv+CkWg/FrTGbzolk4EkNwQrwM2QiFc7l+6eSBnGcHIrnjiZYZ2np+RpKiqqvCzPix/+CDXxKvnMzeMNPiaY7ykdtOUTPOAdvQUV+lB+MMcp3LcrtbkZlPSiuj+2p9/xMvqS/pM/IL4x+MpLpdRMdrc28HmsYIZwZAPn574AVt3ucds4Hkv26AaJqGpNIrLbwSBBGDIyscIin+787geox6V0+vfEXSfGfxBsLeSa00jTbwSO7zPthtmJLZUFQFHJ5A+mDhTq/tLfAzSfBnhZrvR77Mlxdpb3ASQNGzKrOT6scGMggYPByQMjf63CpC0OvQ3lgKlGf71fPofOsb7/Jt1ZcyMIokAHzFSSe/3jgHOfWuk+IN/D4M0G91uaMeXptqWj3ts3qACFwD3YKMHH8OMEVV0fR1uL21ijjLyLOwdfKLMSu4cD69/c455rj/26vEzeF/ggLG4WRZteuUhRHBz5cbB5CCeu1gi/wDAjx6TStyzXU2jrJHyL4O1CQ+MHZdym4hljwM/88zgH8RXOu+9mY9W5rU8GOv/AAlVo0rfu953ZGc5B96zd0lncr5eVaNt24Pgqw5yDjOc81udi/iW8hueKn0udLXUIpJGKohycfSoGbcTzz1JqWwh82bBWNl4L+Zxgd+aC2dT4Nt2tdJ1RYwN0jLuG0btgw4x/Mj0/CvS7/xUs2t+H5I5tq/2SLZi2cHZnj1wSox9elcN8PYIb61u7eb/AEhN2w5jGEyflIPHfI7/AI9tJpGi8RWMDM0ixxDYwJbA2c4PoM/yrzcRFOfpd/gYqTV16H0N8BNJbSfB+oSMFaS8CzMjEDzApyOPYfqK+dtevpLb4nXV22I5vtzTZjGSv7wNgA/l0r2P4f8AxFk8F+FNZvLpljjmgEIncIW8wfd2KeGPzA85Hr048Pu7w6p4kWZtsnnzbjsAVRnk9AAB9AB7Dtw5bTaqVZy20OnFS0ilufSGl/s4y+N7P7VYr52yBJUjdvJQKw42KT9ec4GVB2jBrL1aK88F26Qapp+oWcK3Qit/MgZosbSzFXUFGBODkMScLxngfoP/AME2v2ING+KHwO0fxH4v8S32gxzW0cUVhCqQyEqQoYvhuG3A5AXAbPPOPofxt+zl8H/Cmm3Gm2nh/T9fdgr3K3kC3q3Q3Ag/vQwVchW4xncPmx092pnWHoQ5ZJ839dz52ng6s3vofmb/AME8vhP/AMLu/bF8AaLd3cl5ptxqCR3kLw8InV0ds4wADgHaT+WdT9sO8vPg9+2l46j8KzSaLY6NfQW1tDbytJ5CmCFujscJuaTknu+MDIr7k+Bn7P8A4F+FHxv03WtF0HTfD+qtKl3DarI4KqzxRmRIzISo3OMsF2gnGFblviX9sz4OeLvF37UfiTxFaWM8ml3+oKYpYZI5I5GiiCv5yZLxqVIALAA/e52HHPh8fRxdXmlG66rcqph6lCN7l6H9vnx1bRLGsc8ixgKGBVQ2OM42nH0yfqaK8zm8F6lHMyrJCqqxADXESED3BIx9MDHpRXT9Vyz+T8X/AJh9dr9/y/yOd1r4m3iX832i3eKWNmimX5lMRIweuSvPJyeD75z3nhj9qp73T9N0XxxeapfeHYJES3ktpzusNsYQAoR+8TgYBPALAZ+UV5fqkMM880eUhtgxVSw+7hup4OMn8u/fGbqukLFprw4WRGO1SrAHJ4/ix8vv+leIo2+E++qRjVjy1Fc+nNCl0m1tIb7R/Om3SSzQuuXWNJCAArg8/JxgDAPuOPj3/gpR8Qx4n+L2k6LH5yx+HdKhikWQ9JZd0px6/u2iGTzhR6V67+yn8WG8C+PI9N1dnm0HUv3UplDt9i+U4ZQoIGTgHjp7816n48/4JMf8Lb1HVvEGma5NPea7fC8LyzItglrJgjy2VH8za2AoOzKsMHIy2uFclUu9Tw8VRhQktPmfmboRWPV4GkOFDgnjr7frVe4/18mP7x/nX6FftO/8Er7X4C/s+6v4mgvJbzWrWOOMK6HywPMRndR1XEaMT8xBOTgZAX885U8qRht24PIx0r1oyucsayctAdVAXazE4y2R0Pt7Ve8PRo92NzbSvKnHcf15qmTGIMLFIZ9xZm8z5duBgBccEfMSc4ORwMHOn4cs916qOwT95glmwF6856dv/rVRUtjd069uLLXYpGx5ZTaxRQisBgYOAM9Bye5z1JNdC6RaZ4rXefOWFQQc9jyP0IH/ANes7WdM22XlmZW8lg2Md/Y/5696raDetAlvHG23y84w+T3P48nPsRXLWpuSujH1Ox8e+JrdtHis5JJdrPv8mIZ6Zxz/AEGc/ljj4Jo7XUY38xJGSUBtnzbWz06YOcds9aj8T6zLe3LbkSEt1Ea7V7Dp+f61n71LrHCzSTM3ysR0PeppUOWm0x9Uz9aP2O/28/DsvgzQvDviaH+xbjR7f7Pp+qw5NvId+I0m6bQMDDEhTznaev1x8PNXbX0htZmt9T3brm8u5twby/mJYkAl2OANoGfmYj0r8bvDOmx6fokJVZJpAymMqoIDfNkseh52jvkMeRjn6R/ZY/bvvfgFqVxb64NWuNFnSONyZPO+wrGxYmFQwA3E8rjJA452mvFrYfn1lqiKis7wVj9erDw22qaHb3nhmHTLSRohYv8AaPMn81gCVLb8PuDliCr/ADEEHIwK5v4c/sIapbfFaXxJ4kk0u6uZI5EhittIgjiXcsfLbmLFgyZDH7u5ipG593l/wO/aY8PeL4l8SaNr9ndCSOMuUz5bpuEqgjPzn5lJXJZS2CAdufpL4I/8FDfAfxK159D1C8t9B1RZCsS3BWFZVyR8wb/UtuRxhgFwFAZicAhh5KV4Tfkr2/IqWItFxcV56HG6l/wTP8C6zqNxeXWhWDXN3I00x+yHl2JLdCO5PYfQUV9bItnIgbdE24ZyWXmiuj6q/wCm/wDM4/rC7fgj+X7xToGfE2oRmNI445pMAHO0D+fGPfmqWh+CLzX7t9PhdnjdMqpIxgYJJyfr69PeiiuetUkp8qPv8LTU6XM/62Ow8NfAa40JpLi+WLeo8yIqcscg5GQRtPOc855H1+tP2NPj5cfA+RdJ1qRdW8N6mVkSGQbvLkbGGPyE427RtAxlRnPWiitYylF8yeqKrYenWpunUWlj23/gpvHY2v8AwTr+I2qWlvBdLNpEccCpF5Y+e8hj3YO0cFicEdM9TX88l5aGW/kzu+c8AY/qf8+1FFe7Td1zPrY+Gpe5dLoy1DpX2iaPdLIY1UpjG7HXgc9Mk/nXoHjnwxaWPjfULjT/AJLHzkSNlJ+bdGMcEA9Qew7cAUUVE5NTS/roVGbd12YuuaAJFmjs/OkQDKGQhTg/dJAPHXoCce9cpBolxc3MdvDGzM3ygBwPm/E46miinzNDiN+xXqhGxu3RkqSQflYYJ+vPXqDyK2PA3hG61vUoIYLcvNcSLDEnmKPNckKoycY59fSiiorVGqYuY/Qz9nv9je1+I/w21iPUDNZ+IrTa8UUbRkKPm2xluVKkpjtzz04Pn2vfCa48JX1/pFyr2OoWzyI8XnKyqUZ1IUjd0KseTzt78ZKK8anUbrSpvZWKlG8FPqzqf2bH17wZ4stbPT9Q1h9L14R2TG21OSFpRuJSQAsFEgKjDMpOCyn5GYH7i8KeEodCtUt7r+0LdrURqEmvHmaFlAcozbjvO/q53FsjJKgKCiuyNOKi5LujnnJuWp6tpMF5HpVqsPivUIYliUJGPN+RcDA69ulFFFHMTyn/2Q==</t>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1[int]</t>
-    </r>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2[int]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3[int]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>4[int]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>5[int]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>6[int]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>7[int]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>team[int]</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>id[int][PK]</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>team[int][PK]</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>id[INT AUTO_INCREMENT][PK]</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>id[INT AUTO_INCREMENT][PK]</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>sender[int]</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiver[int]</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>c1[int]</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>c2[int]</t>
-  </si>
-  <si>
-    <t>c3[int]</t>
-  </si>
-  <si>
-    <t>c4[int]</t>
-  </si>
-  <si>
-    <t>c5[int]</t>
-  </si>
-  <si>
-    <t>fc1[int]</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>fc2[int]</t>
-  </si>
-  <si>
-    <t>fc3[int]</t>
-  </si>
-  <si>
-    <t>fc4[int]</t>
-  </si>
-  <si>
-    <t>fc5[int]</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
     <t>state[int]</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>Team[int][PK]</t>
     <phoneticPr fontId="38" type="noConversion"/>
   </si>
 </sst>
@@ -7252,7 +7256,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="106" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B1" s="106" t="s">
         <v>636</v>
@@ -7677,7 +7681,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7691,10 +7695,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="106" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B1" s="106" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C1" s="106" t="s">
         <v>645</v>
@@ -7711,16 +7715,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="110" t="s">
-        <v>661</v>
-      </c>
-      <c r="C2" s="107" t="s">
-        <v>649</v>
+        <v>690</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>691</v>
       </c>
       <c r="D2" s="107" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E2" s="112" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75">
@@ -7728,16 +7732,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>662</v>
-      </c>
-      <c r="C3" s="107" t="s">
-        <v>651</v>
-      </c>
-      <c r="D3" s="107" t="s">
-        <v>656</v>
+        <v>692</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>650</v>
+      </c>
+      <c r="D3" s="108" t="s">
+        <v>693</v>
       </c>
       <c r="E3" s="112" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75">
@@ -7745,16 +7749,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="108" t="s">
-        <v>665</v>
-      </c>
-      <c r="C4" s="107" t="s">
-        <v>653</v>
+        <v>694</v>
+      </c>
+      <c r="C4" s="112" t="s">
+        <v>695</v>
       </c>
       <c r="D4" s="107" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E4" s="112" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75">
@@ -7762,16 +7766,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="110" t="s">
+        <v>696</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>649</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>652</v>
+      </c>
+      <c r="E5" s="111" t="s">
         <v>663</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>650</v>
-      </c>
-      <c r="D5" s="107" t="s">
-        <v>654</v>
-      </c>
-      <c r="E5" s="111" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75">
@@ -7779,16 +7783,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>648</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E6" s="106" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
@@ -7796,16 +7800,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="108" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C7" s="107" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D7" s="107" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E7" s="106" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -7832,28 +7836,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="106" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="B1" s="106" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="C1" s="106" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="D1" s="106" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E1" s="106" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="F1" s="106" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="G1" s="106" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="H1" s="106" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8217,7 +8221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -8229,7 +8233,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="106" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B1" s="106" t="s">
         <v>647</v>
@@ -8243,9 +8247,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8253,18 +8259,21 @@
     <col min="3" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="106" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="B1" s="106" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="C1" s="106" t="s">
         <v>642</v>
       </c>
       <c r="D1" s="106" t="s">
         <v>647</v>
+      </c>
+      <c r="E1" s="106" t="s">
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -8292,46 +8301,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="106" t="s">
+        <v>674</v>
+      </c>
+      <c r="B1" s="106" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1" s="106" t="s">
+        <v>677</v>
+      </c>
+      <c r="D1" s="106" t="s">
+        <v>678</v>
+      </c>
+      <c r="E1" s="106" t="s">
+        <v>679</v>
+      </c>
+      <c r="F1" s="106" t="s">
+        <v>680</v>
+      </c>
+      <c r="G1" s="106" t="s">
         <v>681</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="H1" s="106" t="s">
+        <v>682</v>
+      </c>
+      <c r="I1" s="106" t="s">
         <v>683</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="J1" s="106" t="s">
         <v>684</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="K1" s="106" t="s">
         <v>685</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="L1" s="106" t="s">
         <v>686</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="M1" s="106" t="s">
         <v>687</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="N1" s="106" t="s">
         <v>688</v>
-      </c>
-      <c r="H1" s="106" t="s">
-        <v>689</v>
-      </c>
-      <c r="I1" s="106" t="s">
-        <v>690</v>
-      </c>
-      <c r="J1" s="106" t="s">
-        <v>691</v>
-      </c>
-      <c r="K1" s="106" t="s">
-        <v>692</v>
-      </c>
-      <c r="L1" s="106" t="s">
-        <v>693</v>
-      </c>
-      <c r="M1" s="106" t="s">
-        <v>694</v>
-      </c>
-      <c r="N1" s="106" t="s">
-        <v>695</v>
       </c>
     </row>
   </sheetData>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8070" tabRatio="783" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8070" tabRatio="783" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="699">
   <si>
     <t>簡嘉誼</t>
   </si>
@@ -2440,6 +2440,10 @@
   </si>
   <si>
     <t>state[int]</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>mState[int]</t>
     <phoneticPr fontId="38" type="noConversion"/>
   </si>
 </sst>
@@ -7237,9 +7241,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7252,9 +7258,10 @@
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="106" t="s">
         <v>689</v>
       </c>
@@ -7285,8 +7292,11 @@
       <c r="J1" s="106" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="106" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7317,8 +7327,11 @@
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7349,8 +7362,11 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7381,8 +7397,11 @@
       <c r="J4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7413,8 +7432,11 @@
       <c r="J5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7445,8 +7467,11 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7477,8 +7502,11 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7509,8 +7537,11 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7541,8 +7572,11 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7573,8 +7607,11 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7605,8 +7642,11 @@
       <c r="J11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7637,8 +7677,11 @@
       <c r="J12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7668,6 +7711,9 @@
       </c>
       <c r="J13">
         <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8249,7 +8295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
